--- a/assay_data/TB_assays.xlsx
+++ b/assay_data/TB_assays.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="140">
   <si>
     <t>Assay Name</t>
   </si>
@@ -446,6 +446,21 @@
   </si>
   <si>
     <t>rrs 1484 mutation present which is associated with capreomycin and amikacin resistance.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>embB</t>
+  </si>
+  <si>
+    <t>GCTGATTCCGGCAAGCTGGCGCACCTTCACCCTGACCGACGCCGTGGTGATATTCGGCTTCCTGCTCTGGCATGTCATCGGCGCGAATTCGTCGGACGACGGCTACATCCTGGGCATGGCCCGAGTCGCCGACCACGCCGGCTACATGTCCAACTATTTCCGCTGGTTCGGCAGCCCGGAGGATCCCTTCGGCTGGTATTACAACCTGCTGGCGCTGATGACCCATGTCAGCGACGCCAGTCTGTGGATGCGCCTGCCAGACCTGGCCGCCGGGCTAGTGTGCTGGCTGCTGCTGTCGCGTGAGGTGCTGCCCCGCCTCGGGCCGGCGGTGGAGGCCAGCAAACCCGCCTACTGGGCGGCGGCCATGGTCTTGCTGACCGCGTGGATGCCGTTCAACAACGGCCTGCGGCCGGAGGGCATCATCGCGCTCGGCTCGCTGGTCACCTATGT</t>
+  </si>
+  <si>
+    <t>embB mutation present which may be associated with ethambutal resistance</t>
+  </si>
+  <si>
+    <t>Ethambutal</t>
   </si>
 </sst>
 </file>
@@ -1788,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG707"/>
+  <dimension ref="A1:AG708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2102,6 +2117,9 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
       <c r="I8" s="8" t="s">
         <v>52</v>
       </c>
@@ -2213,143 +2231,153 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36">
+        <v>0</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="R13" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>88</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O14" t="s">
         <v>60</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P14" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q14" t="s">
         <v>62</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R14" t="s">
         <v>63</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="D14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="N14">
-        <v>90</v>
-      </c>
-      <c r="O14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>67</v>
-      </c>
-      <c r="R14" t="s">
-        <v>68</v>
       </c>
       <c r="S14" s="31" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:33">
+      <c r="D15" s="8"/>
       <c r="I15" s="8"/>
       <c r="N15">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S15" s="31" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:33">
-      <c r="D16" s="8"/>
       <c r="I16" s="8"/>
       <c r="N16">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S16" s="31" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" t="s">
+      <c r="D17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="N17">
+        <v>94</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J18" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="K17" s="28">
-        <v>1150</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S17" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="I18" s="8"/>
-      <c r="J18" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="K18" s="28">
         <v>1150</v>
@@ -2358,7 +2386,7 @@
         <v>46</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R18" t="s">
         <v>98</v>
@@ -2370,7 +2398,7 @@
     <row r="19" spans="1:19">
       <c r="I19" s="8"/>
       <c r="J19" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="28">
         <v>1150</v>
@@ -2379,7 +2407,7 @@
         <v>46</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R19" t="s">
         <v>98</v>
@@ -2391,19 +2419,19 @@
     <row r="20" spans="1:19">
       <c r="I20" s="8"/>
       <c r="J20" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" s="28">
-        <v>1143</v>
+        <v>1150</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S20" s="31" t="s">
         <v>47</v>
@@ -2412,54 +2440,40 @@
     <row r="21" spans="1:19">
       <c r="I21" s="8"/>
       <c r="J21" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21" s="28">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="L21" s="28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M21" s="28" t="s">
         <v>46</v>
       </c>
       <c r="R21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S21" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22">
-        <v>315</v>
-      </c>
-      <c r="O22" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>88</v>
+      <c r="I22" s="8"/>
+      <c r="J22" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="28">
+        <v>1141</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="R22" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="S22" s="31" t="s">
         <v>47</v>
@@ -2467,7 +2481,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2476,46 +2490,63 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23">
+        <v>315</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>88</v>
+      </c>
+      <c r="R23" t="s">
+        <v>89</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>513</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O24" t="s">
         <v>103</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P24" t="s">
         <v>104</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q24" t="s">
         <v>105</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R24" t="s">
         <v>106</v>
-      </c>
-      <c r="S23" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="I24" s="8"/>
-      <c r="N24">
-        <v>516</v>
-      </c>
-      <c r="O24" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>114</v>
-      </c>
-      <c r="R24" t="s">
-        <v>109</v>
       </c>
       <c r="S24" s="31" t="s">
         <v>107</v>
@@ -2524,19 +2555,19 @@
     <row r="25" spans="1:19">
       <c r="I25" s="8"/>
       <c r="N25">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="O25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S25" s="31" t="s">
         <v>107</v>
@@ -2545,19 +2576,19 @@
     <row r="26" spans="1:19">
       <c r="I26" s="8"/>
       <c r="N26">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P26" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="Q26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S26" s="31" t="s">
         <v>107</v>
@@ -2566,19 +2597,19 @@
     <row r="27" spans="1:19">
       <c r="I27" s="8"/>
       <c r="N27">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="O27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="Q27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S27" s="31" t="s">
         <v>107</v>
@@ -2587,104 +2618,121 @@
     <row r="28" spans="1:19">
       <c r="I28" s="8"/>
       <c r="N28">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="Q28" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="R28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S28" s="31" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" t="s">
+      <c r="I29" s="8"/>
+      <c r="N29">
+        <v>533</v>
+      </c>
+      <c r="O29" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" t="s">
+        <v>113</v>
+      </c>
+      <c r="S29" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
         <v>124</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J30" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K30" s="28">
         <v>1063</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L30" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M30" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R30" t="s">
         <v>127</v>
       </c>
-      <c r="S29" s="31" t="s">
+      <c r="S30" s="31" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="I30" s="8"/>
-      <c r="J30" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30" s="28">
-        <v>1064</v>
-      </c>
-      <c r="L30" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="M30" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="R30" t="s">
-        <v>133</v>
-      </c>
-      <c r="S30" s="31" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="I31" s="8"/>
       <c r="J31" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K31" s="28">
-        <v>1146</v>
+        <v>1064</v>
       </c>
       <c r="L31" s="28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M31" s="28" t="s">
         <v>46</v>
       </c>
       <c r="R31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="I32" s="8"/>
-      <c r="S32" s="31"/>
+      <c r="J32" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="28">
+        <v>1146</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" t="s">
+        <v>134</v>
+      </c>
+      <c r="S32" s="31" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="9:19">
       <c r="I33" s="8"/>
@@ -2759,7 +2807,6 @@
       <c r="S50" s="31"/>
     </row>
     <row r="51" spans="4:19">
-      <c r="D51" s="8"/>
       <c r="I51" s="8"/>
       <c r="S51" s="31"/>
     </row>
@@ -2769,6 +2816,7 @@
       <c r="S52" s="31"/>
     </row>
     <row r="53" spans="4:19">
+      <c r="D53" s="8"/>
       <c r="I53" s="8"/>
       <c r="S53" s="31"/>
     </row>
@@ -2777,7 +2825,6 @@
       <c r="S54" s="31"/>
     </row>
     <row r="55" spans="4:19">
-      <c r="D55" s="8"/>
       <c r="I55" s="8"/>
       <c r="S55" s="31"/>
     </row>
@@ -2794,11 +2841,12 @@
     <row r="58" spans="4:19">
       <c r="D58" s="8"/>
       <c r="I58" s="8"/>
-      <c r="R58" s="21"/>
       <c r="S58" s="31"/>
     </row>
     <row r="59" spans="4:19">
+      <c r="D59" s="8"/>
       <c r="I59" s="8"/>
+      <c r="R59" s="21"/>
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="4:19">
@@ -2831,7 +2879,6 @@
     </row>
     <row r="67" spans="4:20">
       <c r="I67" s="8"/>
-      <c r="R67" s="21"/>
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="4:20">
@@ -2840,17 +2887,18 @@
       <c r="S68" s="31"/>
     </row>
     <row r="69" spans="4:20">
-      <c r="D69" s="8"/>
       <c r="I69" s="8"/>
+      <c r="R69" s="21"/>
       <c r="S69" s="31"/>
-      <c r="T69" s="14"/>
     </row>
     <row r="70" spans="4:20">
       <c r="D70" s="8"/>
       <c r="I70" s="8"/>
       <c r="S70" s="31"/>
+      <c r="T70" s="14"/>
     </row>
     <row r="71" spans="4:20">
+      <c r="D71" s="8"/>
       <c r="I71" s="8"/>
       <c r="S71" s="31"/>
     </row>
@@ -2880,7 +2928,6 @@
     </row>
     <row r="78" spans="4:20">
       <c r="I78" s="8"/>
-      <c r="R78" s="22"/>
       <c r="S78" s="31"/>
     </row>
     <row r="79" spans="4:20">
@@ -2889,8 +2936,8 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="4:20">
-      <c r="D80" s="8"/>
       <c r="I80" s="8"/>
+      <c r="R80" s="22"/>
       <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:32">
@@ -2899,51 +2946,51 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:32">
+      <c r="D82" s="8"/>
       <c r="I82" s="8"/>
-      <c r="R82" s="5"/>
       <c r="S82" s="31"/>
-      <c r="AD82" s="6"/>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="5"/>
     </row>
     <row r="83" spans="1:32">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
+      <c r="I83" s="8"/>
       <c r="R83" s="5"/>
-      <c r="S83" s="32"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
+      <c r="S83" s="31"/>
       <c r="AD83" s="6"/>
       <c r="AE83" s="7"/>
       <c r="AF83" s="5"/>
     </row>
     <row r="84" spans="1:32">
-      <c r="I84" s="8"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-      <c r="S84" s="31"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="5"/>
     </row>
     <row r="85" spans="1:32">
       <c r="I85" s="8"/>
@@ -2952,6 +2999,7 @@
     </row>
     <row r="86" spans="1:32">
       <c r="I86" s="8"/>
+      <c r="R86" s="5"/>
       <c r="S86" s="31"/>
     </row>
     <row r="87" spans="1:32">
@@ -2963,14 +3011,14 @@
       <c r="S88" s="31"/>
     </row>
     <row r="89" spans="1:32">
-      <c r="D89" s="8"/>
       <c r="I89" s="8"/>
       <c r="S89" s="31"/>
-      <c r="T89" s="14"/>
     </row>
     <row r="90" spans="1:32">
+      <c r="D90" s="8"/>
       <c r="I90" s="8"/>
       <c r="S90" s="31"/>
+      <c r="T90" s="14"/>
     </row>
     <row r="91" spans="1:32">
       <c r="I91" s="8"/>
@@ -3009,22 +3057,22 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="4:19">
-      <c r="D100" s="8"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="29"/>
-      <c r="S100" s="32"/>
+      <c r="I100" s="8"/>
+      <c r="S100" s="31"/>
     </row>
     <row r="101" spans="4:19">
-      <c r="I101" s="8"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="33"/>
+      <c r="D101" s="8"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="29"/>
+      <c r="S101" s="32"/>
     </row>
     <row r="102" spans="4:19">
-      <c r="D102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="S102" s="31"/>
+      <c r="R102" s="22"/>
+      <c r="S102" s="33"/>
     </row>
     <row r="103" spans="4:19">
+      <c r="D103" s="8"/>
       <c r="I103" s="8"/>
       <c r="S103" s="31"/>
     </row>
@@ -3061,7 +3109,6 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="4:19">
-      <c r="D112" s="8"/>
       <c r="I112" s="8"/>
       <c r="S112" s="31"/>
     </row>
@@ -3081,8 +3128,9 @@
       <c r="S115" s="31"/>
     </row>
     <row r="116" spans="4:19">
+      <c r="D116" s="8"/>
       <c r="I116" s="8"/>
-      <c r="S116" s="34"/>
+      <c r="S116" s="31"/>
     </row>
     <row r="117" spans="4:19">
       <c r="I117" s="8"/>
@@ -3090,11 +3138,11 @@
     </row>
     <row r="118" spans="4:19">
       <c r="I118" s="8"/>
-      <c r="S118" s="32"/>
+      <c r="S118" s="34"/>
     </row>
     <row r="119" spans="4:19">
       <c r="I119" s="8"/>
-      <c r="S119" s="31"/>
+      <c r="S119" s="32"/>
     </row>
     <row r="120" spans="4:19">
       <c r="I120" s="8"/>
@@ -3102,7 +3150,7 @@
     </row>
     <row r="121" spans="4:19">
       <c r="I121" s="8"/>
-      <c r="S121" s="32"/>
+      <c r="S121" s="31"/>
     </row>
     <row r="122" spans="4:19">
       <c r="I122" s="8"/>
@@ -3113,17 +3161,16 @@
       <c r="S123" s="32"/>
     </row>
     <row r="124" spans="4:19">
-      <c r="R124" s="22"/>
-      <c r="S124" s="33"/>
+      <c r="I124" s="8"/>
+      <c r="S124" s="32"/>
     </row>
     <row r="125" spans="4:19">
       <c r="R125" s="22"/>
       <c r="S125" s="33"/>
     </row>
     <row r="126" spans="4:19">
-      <c r="D126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="S126" s="34"/>
+      <c r="R126" s="22"/>
+      <c r="S126" s="33"/>
     </row>
     <row r="127" spans="4:19">
       <c r="D127" s="8"/>
@@ -3132,9 +3179,8 @@
     </row>
     <row r="128" spans="4:19">
       <c r="D128" s="8"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="29"/>
-      <c r="S128" s="32"/>
+      <c r="I128" s="8"/>
+      <c r="S128" s="34"/>
     </row>
     <row r="129" spans="4:19">
       <c r="D129" s="8"/>
@@ -3144,8 +3190,9 @@
     </row>
     <row r="130" spans="4:19">
       <c r="D130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="S130" s="31"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="29"/>
+      <c r="S130" s="32"/>
     </row>
     <row r="131" spans="4:19">
       <c r="D131" s="8"/>
@@ -3163,6 +3210,7 @@
       <c r="S133" s="31"/>
     </row>
     <row r="134" spans="4:19">
+      <c r="D134" s="8"/>
       <c r="I134" s="8"/>
       <c r="S134" s="31"/>
     </row>
@@ -3184,7 +3232,6 @@
     </row>
     <row r="139" spans="4:19">
       <c r="I139" s="8"/>
-      <c r="R139" s="11"/>
       <c r="S139" s="31"/>
     </row>
     <row r="140" spans="4:19">
@@ -3208,8 +3255,8 @@
       <c r="S143" s="31"/>
     </row>
     <row r="144" spans="4:19">
-      <c r="D144" s="8"/>
       <c r="I144" s="8"/>
+      <c r="R144" s="11"/>
       <c r="S144" s="31"/>
     </row>
     <row r="145" spans="4:20">
@@ -3218,8 +3265,8 @@
       <c r="S145" s="31"/>
     </row>
     <row r="146" spans="4:20">
+      <c r="D146" s="8"/>
       <c r="I146" s="8"/>
-      <c r="R146" s="12"/>
       <c r="S146" s="31"/>
     </row>
     <row r="147" spans="4:20">
@@ -3228,8 +3275,8 @@
       <c r="S147" s="31"/>
     </row>
     <row r="148" spans="4:20">
-      <c r="D148" s="8"/>
       <c r="I148" s="8"/>
+      <c r="R148" s="12"/>
       <c r="S148" s="31"/>
     </row>
     <row r="149" spans="4:20">
@@ -3256,21 +3303,22 @@
       <c r="D153" s="8"/>
       <c r="I153" s="8"/>
       <c r="S153" s="31"/>
-      <c r="T153" s="14"/>
     </row>
     <row r="154" spans="4:20">
       <c r="D154" s="8"/>
       <c r="I154" s="8"/>
       <c r="S154" s="31"/>
+      <c r="T154" s="14"/>
     </row>
     <row r="155" spans="4:20">
       <c r="D155" s="8"/>
       <c r="I155" s="8"/>
-      <c r="R155" s="21"/>
       <c r="S155" s="31"/>
     </row>
     <row r="156" spans="4:20">
+      <c r="D156" s="8"/>
       <c r="I156" s="8"/>
+      <c r="R156" s="21"/>
       <c r="S156" s="31"/>
     </row>
     <row r="157" spans="4:20">
@@ -3311,125 +3359,126 @@
     </row>
     <row r="166" spans="1:32">
       <c r="I166" s="8"/>
-      <c r="R166" s="22"/>
       <c r="S166" s="31"/>
     </row>
     <row r="167" spans="1:32">
-      <c r="D167" s="8"/>
       <c r="I167" s="8"/>
+      <c r="R167" s="22"/>
       <c r="S167" s="31"/>
     </row>
-    <row r="168" spans="1:32" s="13" customFormat="1">
-      <c r="A168"/>
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168"/>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="J168" s="28"/>
-      <c r="K168" s="28"/>
-      <c r="L168" s="28"/>
-      <c r="M168" s="28"/>
-      <c r="N168"/>
-      <c r="O168"/>
-      <c r="P168"/>
-      <c r="Q168"/>
-      <c r="R168"/>
+    <row r="168" spans="1:32">
+      <c r="D168" s="8"/>
+      <c r="I168" s="8"/>
       <c r="S168" s="31"/>
-      <c r="T168"/>
-      <c r="U168"/>
-      <c r="V168"/>
-      <c r="W168"/>
-      <c r="X168"/>
-      <c r="Y168"/>
-      <c r="Z168"/>
-      <c r="AA168"/>
-      <c r="AB168"/>
-      <c r="AC168"/>
-      <c r="AD168"/>
-      <c r="AE168"/>
-      <c r="AF168"/>
-    </row>
-    <row r="169" spans="1:32">
+    </row>
+    <row r="169" spans="1:32" s="13" customFormat="1">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="28"/>
+      <c r="L169" s="28"/>
+      <c r="M169" s="28"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+      <c r="Q169"/>
+      <c r="R169"/>
       <c r="S169" s="31"/>
+      <c r="T169"/>
+      <c r="U169"/>
+      <c r="V169"/>
+      <c r="W169"/>
+      <c r="X169"/>
+      <c r="Y169"/>
+      <c r="Z169"/>
+      <c r="AA169"/>
+      <c r="AB169"/>
+      <c r="AC169"/>
+      <c r="AD169"/>
+      <c r="AE169"/>
+      <c r="AF169"/>
     </row>
     <row r="170" spans="1:32">
-      <c r="I170" s="8"/>
-      <c r="R170" s="21"/>
       <c r="S170" s="31"/>
     </row>
     <row r="171" spans="1:32">
-      <c r="D171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="R171" s="21"/>
       <c r="S171" s="31"/>
     </row>
     <row r="172" spans="1:32">
+      <c r="D172" s="8"/>
       <c r="S172" s="31"/>
     </row>
     <row r="173" spans="1:32">
       <c r="S173" s="31"/>
     </row>
     <row r="174" spans="1:32">
-      <c r="D174" s="8"/>
-      <c r="I174" s="8"/>
       <c r="S174" s="31"/>
     </row>
     <row r="175" spans="1:32">
+      <c r="D175" s="8"/>
       <c r="I175" s="8"/>
       <c r="S175" s="31"/>
     </row>
     <row r="176" spans="1:32">
-      <c r="D176" s="8"/>
+      <c r="I176" s="8"/>
       <c r="S176" s="31"/>
     </row>
-    <row r="177" spans="19:19">
+    <row r="177" spans="4:19">
+      <c r="D177" s="8"/>
       <c r="S177" s="31"/>
     </row>
-    <row r="178" spans="19:19">
+    <row r="178" spans="4:19">
       <c r="S178" s="31"/>
     </row>
-    <row r="179" spans="19:19">
+    <row r="179" spans="4:19">
       <c r="S179" s="31"/>
     </row>
-    <row r="180" spans="19:19">
+    <row r="180" spans="4:19">
       <c r="S180" s="31"/>
     </row>
-    <row r="181" spans="19:19">
+    <row r="181" spans="4:19">
       <c r="S181" s="31"/>
     </row>
-    <row r="182" spans="19:19">
+    <row r="182" spans="4:19">
       <c r="S182" s="31"/>
     </row>
-    <row r="183" spans="19:19">
+    <row r="183" spans="4:19">
       <c r="S183" s="31"/>
     </row>
-    <row r="184" spans="19:19">
+    <row r="184" spans="4:19">
       <c r="S184" s="31"/>
     </row>
-    <row r="185" spans="19:19">
+    <row r="185" spans="4:19">
       <c r="S185" s="31"/>
     </row>
-    <row r="186" spans="19:19">
+    <row r="186" spans="4:19">
       <c r="S186" s="31"/>
     </row>
-    <row r="187" spans="19:19">
+    <row r="187" spans="4:19">
       <c r="S187" s="31"/>
     </row>
-    <row r="188" spans="19:19">
+    <row r="188" spans="4:19">
       <c r="S188" s="31"/>
     </row>
-    <row r="189" spans="19:19">
+    <row r="189" spans="4:19">
       <c r="S189" s="31"/>
     </row>
-    <row r="190" spans="19:19">
+    <row r="190" spans="4:19">
       <c r="S190" s="31"/>
     </row>
-    <row r="191" spans="19:19">
+    <row r="191" spans="4:19">
       <c r="S191" s="31"/>
     </row>
-    <row r="192" spans="19:19">
+    <row r="192" spans="4:19">
       <c r="S192" s="31"/>
     </row>
     <row r="193" spans="19:19">
@@ -4976,6 +5025,9 @@
     </row>
     <row r="707" spans="19:19">
       <c r="S707" s="31"/>
+    </row>
+    <row r="708" spans="19:19">
+      <c r="S708" s="31"/>
     </row>
   </sheetData>
   <sortState ref="A3:AD178">
@@ -4990,10 +5042,10 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B302">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B303">
       <formula1>$AD$1:$AG$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C302">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C303">
       <formula1>$AD$2:$AG$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/assay_data/TB_assays.xlsx
+++ b/assay_data/TB_assays.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="1300" windowWidth="56000" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="10860" yWindow="2060" windowWidth="39580" windowHeight="23100" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TB" sheetId="1" r:id="rId1"/>
     <sheet name="TB_H37Rv_positions" sheetId="3" r:id="rId2"/>
     <sheet name="New_Set" sheetId="2" r:id="rId3"/>
+    <sheet name="HighConfidenceMutations" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="557">
   <si>
     <t>Assay Name</t>
   </si>
@@ -116,6 +117,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>/NT</t>
@@ -126,6 +128,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Sequence</t>
@@ -1708,6 +1711,1001 @@
   <si>
     <t>Quinolones, LEVO</t>
   </si>
+  <si>
+    <t>TB_AMR</t>
+  </si>
+  <si>
+    <t>g-10a</t>
+  </si>
+  <si>
+    <t>c-12t</t>
+  </si>
+  <si>
+    <t>c-14t</t>
+  </si>
+  <si>
+    <t>g-37t</t>
+  </si>
+  <si>
+    <t>G88</t>
+  </si>
+  <si>
+    <t>D89</t>
+  </si>
+  <si>
+    <t>A90</t>
+  </si>
+  <si>
+    <t>S91</t>
+  </si>
+  <si>
+    <t>D94</t>
+  </si>
+  <si>
+    <t>A,C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A,G,H,N,Y</t>
+  </si>
+  <si>
+    <t>gyrA 89 mutation present which is associated with resistance to quinolones, but Moxifloxacin may still have clinical activity. Testing for MOX MIC is recommended.</t>
+  </si>
+  <si>
+    <t>7563-7565</t>
+  </si>
+  <si>
+    <t>7566-7568</t>
+  </si>
+  <si>
+    <t>7569-7571</t>
+  </si>
+  <si>
+    <t>7572-7574</t>
+  </si>
+  <si>
+    <t>7581-7583</t>
+  </si>
+  <si>
+    <t>A504V</t>
+  </si>
+  <si>
+    <t>E459K</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>6614-6616</t>
+  </si>
+  <si>
+    <t>6749-6751</t>
+  </si>
+  <si>
+    <t>gyrB 459 mutation present which is associated with resistance to quinolones, but Moxifloxacin may still have clinical activity. Testing for MOX MIC is recommended.</t>
+  </si>
+  <si>
+    <t>gyrB 504 mutation present which is associated with resistance to quinolones, but Moxifloxacin may still have clinical activity. Testing for MOX MIC is recommended.</t>
+  </si>
+  <si>
+    <t>c-15t</t>
+  </si>
+  <si>
+    <t>S315</t>
+  </si>
+  <si>
+    <t>2155169-2155167</t>
+  </si>
+  <si>
+    <t>I,N,T</t>
+  </si>
+  <si>
+    <t>a-11g</t>
+  </si>
+  <si>
+    <t>pncA a-11g mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>pncA A3E mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>pncA I6T mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>pncA V7G mutation present which is associated with pyrazinamide resistance. Moderate-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>pncA Q10P mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>A,G,N</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>pncA C14R mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>Y34</t>
+  </si>
+  <si>
+    <t>pncA Y34D mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>pncA A46V mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>K48</t>
+  </si>
+  <si>
+    <t>pncA K48T mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>H51</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>P54</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H57</t>
+  </si>
+  <si>
+    <t>D63</t>
+  </si>
+  <si>
+    <t>pncA D63G mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>S67</t>
+  </si>
+  <si>
+    <t>pncA S67P mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>W68</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>pncA W68 mutation present which is associated with pyrazinamide resistance. W68R is a high-confidence mutation in Miotto et al. 2017. W68G is a moderate-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>H71</t>
+  </si>
+  <si>
+    <t>C72</t>
+  </si>
+  <si>
+    <t>pncA C72R mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>T76</t>
+  </si>
+  <si>
+    <t>pncA T76P mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>H82</t>
+  </si>
+  <si>
+    <t>pncA H82R mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>L85</t>
+  </si>
+  <si>
+    <t>P,R</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>L,S</t>
+  </si>
+  <si>
+    <t>G97</t>
+  </si>
+  <si>
+    <t>Y103</t>
+  </si>
+  <si>
+    <t>pncA Y103H mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>S104</t>
+  </si>
+  <si>
+    <t>pncA S104R mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>G108</t>
+  </si>
+  <si>
+    <t>pncA G108R mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>L116</t>
+  </si>
+  <si>
+    <t>L120</t>
+  </si>
+  <si>
+    <t>pncA L120P mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>V125</t>
+  </si>
+  <si>
+    <t>V128</t>
+  </si>
+  <si>
+    <t>pncA V128G mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>T135</t>
+  </si>
+  <si>
+    <t>N,P</t>
+  </si>
+  <si>
+    <t>V139</t>
+  </si>
+  <si>
+    <t>A,G,L</t>
+  </si>
+  <si>
+    <t>Q141</t>
+  </si>
+  <si>
+    <t>pncA Q141P mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>T142</t>
+  </si>
+  <si>
+    <t>A,K,M</t>
+  </si>
+  <si>
+    <t>V155</t>
+  </si>
+  <si>
+    <t>pncA V155G mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>L172</t>
+  </si>
+  <si>
+    <t>pncA L172P mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>M175</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>pncA M175V mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289235-2289233</t>
+  </si>
+  <si>
+    <t>t-7c</t>
+  </si>
+  <si>
+    <t>t-12c</t>
+  </si>
+  <si>
+    <t>pncA t-7c mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>pncA t-12c mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>2289232-2289230</t>
+  </si>
+  <si>
+    <t>pncA L4S mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289226-2289224</t>
+  </si>
+  <si>
+    <t>2289223-2289221</t>
+  </si>
+  <si>
+    <t>2289220-2289218</t>
+  </si>
+  <si>
+    <t>2289214-2289212</t>
+  </si>
+  <si>
+    <t>2289208-2289206</t>
+  </si>
+  <si>
+    <t>2289202-2289200</t>
+  </si>
+  <si>
+    <t>E,G,N</t>
+  </si>
+  <si>
+    <t>pncA D8 mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pncA D12 mutation present which is associated with pyrazinamide resistance. D12A and D12N are high-confidence mutations in Miotto et al. 2017. D12G is a minimal-confidence mutations in Miotto et al. 2017 </t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>pncA G17D mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289193-2289191</t>
+  </si>
+  <si>
+    <t>pncA L19P mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289187-2289185</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>pncA G24D mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289172-2289170</t>
+  </si>
+  <si>
+    <t>2289142-2289140</t>
+  </si>
+  <si>
+    <t>2289106-2289104</t>
+  </si>
+  <si>
+    <t>2289100-2289098</t>
+  </si>
+  <si>
+    <t>2289097-2289095</t>
+  </si>
+  <si>
+    <t>G,N</t>
+  </si>
+  <si>
+    <t>pncA D49 mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>Q,R</t>
+  </si>
+  <si>
+    <t>pncA H51 mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289091-2289089</t>
+  </si>
+  <si>
+    <t>2289082-2289080</t>
+  </si>
+  <si>
+    <t>D,P,R,Y</t>
+  </si>
+  <si>
+    <t>pncA P54 mutation present which is associated with pyrazinamide resistance. Moderate-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>pncA H57 mutation present which is associated with pyrazinamide resistance. H57D, H57R, and H57Y are high-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289073-2289071</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>pncA S59P mutation present which is associated with pyrazinamide resistance. H57D, H57R, and H57Y are high-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>L,Q</t>
+  </si>
+  <si>
+    <t>pncA P62 mutation present which is associated with pyrazinamide resistance. H57D, H57R, and H57Y are high-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289067-2289065</t>
+  </si>
+  <si>
+    <t>2289058-2289056</t>
+  </si>
+  <si>
+    <t>S66</t>
+  </si>
+  <si>
+    <t>pncA S66P mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289055-2289053</t>
+  </si>
+  <si>
+    <t>2289046-2289044</t>
+  </si>
+  <si>
+    <t>2289043-2289041</t>
+  </si>
+  <si>
+    <t>C,R</t>
+  </si>
+  <si>
+    <t>2289040-2289038</t>
+  </si>
+  <si>
+    <t>D,Q,Y</t>
+  </si>
+  <si>
+    <t>pncA H71 mutation present which is associated with pyrazinamide resistance. H71D and H71Y are high-confidence mutations in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2289031-2289029</t>
+  </si>
+  <si>
+    <t>2289028-2289026</t>
+  </si>
+  <si>
+    <t>2289016-2289014</t>
+  </si>
+  <si>
+    <t>2288998-2288996</t>
+  </si>
+  <si>
+    <t>2288989-2288987</t>
+  </si>
+  <si>
+    <t>2288962-2288960</t>
+  </si>
+  <si>
+    <t>pncA L85 mutation present which is associated with pyrazinamide resistance. L85P and L85R are high-confidence mutations in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>pncA F94 mutation present which is associated with pyrazinamide resistance. F94L and F94S are high-confidence mutations in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>K96</t>
+  </si>
+  <si>
+    <t>N,R</t>
+  </si>
+  <si>
+    <t>pncA K96 mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288956-2288954</t>
+  </si>
+  <si>
+    <t>C,D,S</t>
+  </si>
+  <si>
+    <t>2288935-2288933</t>
+  </si>
+  <si>
+    <t>2288932-2288930</t>
+  </si>
+  <si>
+    <t>2288920-2288918</t>
+  </si>
+  <si>
+    <t>pncA L116 mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2288896-2288894</t>
+  </si>
+  <si>
+    <t>2288884-2288882</t>
+  </si>
+  <si>
+    <t>R123</t>
+  </si>
+  <si>
+    <t>pncA R123P mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2288875-2288873</t>
+  </si>
+  <si>
+    <t>F,G</t>
+  </si>
+  <si>
+    <t>pncA V125 mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2288869-2288867</t>
+  </si>
+  <si>
+    <t>2288860-2288858</t>
+  </si>
+  <si>
+    <t>G132</t>
+  </si>
+  <si>
+    <t>A,D,S</t>
+  </si>
+  <si>
+    <t>pncA G132 mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288848-2288846</t>
+  </si>
+  <si>
+    <t>A134</t>
+  </si>
+  <si>
+    <t>pncA A134V mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288842-2288840</t>
+  </si>
+  <si>
+    <t>2288839-2288837</t>
+  </si>
+  <si>
+    <t>H137</t>
+  </si>
+  <si>
+    <t>pncA H137P mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288833-2288831</t>
+  </si>
+  <si>
+    <t>C138</t>
+  </si>
+  <si>
+    <t>pncA C138Y mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288830-2288828</t>
+  </si>
+  <si>
+    <t>2288827-2288825</t>
+  </si>
+  <si>
+    <t>pncA T135 mutation present which is associated with pyrazinamide resistance. T135N and T135P are high-confidence mutations in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>pncA V139 mutation present which is associated with pyrazinamide resistance. V139A is a minimal-confidence mutation in Miotto et al. 2017. V139G and V139L are high-confidence mutations in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>pncA G97 mutation present which is associated with pyrazinamide resistance. G97D and G97S are high-confidence mutations in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>2288821-2288819</t>
+  </si>
+  <si>
+    <t>2288818-2288816</t>
+  </si>
+  <si>
+    <t>pncA T142 mutation present which is associated with pyrazinamide resistance.T142A/T142K/T142M are high-confidence mutations in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>L151</t>
+  </si>
+  <si>
+    <t>pncA L151S mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288791-2288789</t>
+  </si>
+  <si>
+    <t>2288779-2288777</t>
+  </si>
+  <si>
+    <t>L159</t>
+  </si>
+  <si>
+    <t>T160</t>
+  </si>
+  <si>
+    <t>G162</t>
+  </si>
+  <si>
+    <t>T168</t>
+  </si>
+  <si>
+    <t>pncA L159P mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288767-2288765</t>
+  </si>
+  <si>
+    <t>2288764-2288762</t>
+  </si>
+  <si>
+    <t>pncA T160P mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288758-2288756</t>
+  </si>
+  <si>
+    <t>pncA G162D mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288740-2288738</t>
+  </si>
+  <si>
+    <t>pncA T168P mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>2288728-2288726</t>
+  </si>
+  <si>
+    <t>T,V</t>
+  </si>
+  <si>
+    <t>2288719-2288717</t>
+  </si>
+  <si>
+    <t>V180</t>
+  </si>
+  <si>
+    <t>2288704-2288702</t>
+  </si>
+  <si>
+    <t>pncA V180 mutation present which is associated with pyrazinamide resistance.</t>
+  </si>
+  <si>
+    <t>L511</t>
+  </si>
+  <si>
+    <t>Q513</t>
+  </si>
+  <si>
+    <t>K,L,P</t>
+  </si>
+  <si>
+    <t>D516</t>
+  </si>
+  <si>
+    <t>S522</t>
+  </si>
+  <si>
+    <t>Q,L</t>
+  </si>
+  <si>
+    <t>H526</t>
+  </si>
+  <si>
+    <t>S531</t>
+  </si>
+  <si>
+    <t>L533</t>
+  </si>
+  <si>
+    <t>Rifampicin</t>
+  </si>
+  <si>
+    <t>rpoB L511P mutation present which is associated with rifampicin resistance. Minimal-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>katG S315 mutation present which is associated with isoniazid resistance.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rpoB L533P mutation present which is associated with rifampicin resistance. Moderate-confidence mutation in Miotto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2017.</t>
+    </r>
+  </si>
+  <si>
+    <t>761094-761096</t>
+  </si>
+  <si>
+    <t>761100-761102</t>
+  </si>
+  <si>
+    <t>S512</t>
+  </si>
+  <si>
+    <t>761097-761099</t>
+  </si>
+  <si>
+    <t>rpoB S512T mutation present which is associated with rifampicin resistance.</t>
+  </si>
+  <si>
+    <t>A,F,G,N,V,Y</t>
+  </si>
+  <si>
+    <t>761109-761111</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rpoB Q513 mutation present which is associated with rifampicin resistance. Q513K, Q513L, and Q513P are high-confidence mutations in Miotto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2017.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rpoB D516 mutation present which is associated with rifampicin resistance. D516A, D516F, D516G andD516V are high-confidence mutations in Miotto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2017. D516Y is a moderate-confidence mutation in Miotto et al. 2017</t>
+    </r>
+  </si>
+  <si>
+    <t>rpoB S522 mutation present which is associated with rifampicin resistance. S522Q is a high-confidence mutation in Miotto et al. 2017. S522L is a moderate-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>761127-761129</t>
+  </si>
+  <si>
+    <t>C,D,F,G,L,N,R,Y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rpoB H526 mutation present which is associated with rifampicin resistance. H526C, H526D, H526G, H526L, H526R, and H526Y mutations are high-confidence mutations in Miotto et al. 2017. H526N is a minimal-confidence mutation in Miotto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2017</t>
+    </r>
+  </si>
+  <si>
+    <t>761139-761141</t>
+  </si>
+  <si>
+    <t>F,L,Q,W,Y</t>
+  </si>
+  <si>
+    <t>761154-761156</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rpoB S531 mutation present which is associated with rifampicin resistance. S531F, S531L, S531W are high-confidence mutations in Miotto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2017.</t>
+    </r>
+  </si>
+  <si>
+    <t>761160-761162</t>
+  </si>
+  <si>
+    <t>I572</t>
+  </si>
+  <si>
+    <t>rpoB I572F mutation present which is associated with rifampicin resistance. Minimal-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>761277-761279</t>
+  </si>
+  <si>
+    <t>D626</t>
+  </si>
+  <si>
+    <t>rpoB D626E mutation present which is associated with rifampicin resistance.</t>
+  </si>
+  <si>
+    <t>761439-761441</t>
+  </si>
+  <si>
+    <t>a1401g</t>
+  </si>
+  <si>
+    <t>c1402t</t>
+  </si>
+  <si>
+    <t>g1484t</t>
+  </si>
+  <si>
+    <t>a514c</t>
+  </si>
+  <si>
+    <t>a514t</t>
+  </si>
+  <si>
+    <t>rrs a514t mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>rrs a514c mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>c513t</t>
+  </si>
+  <si>
+    <t>rrs c513t mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>c517t</t>
+  </si>
+  <si>
+    <t>rrs c517t mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>c462t</t>
+  </si>
+  <si>
+    <t>rrs c462t mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>781677-781679</t>
+  </si>
+  <si>
+    <t>rpsL T40I mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>K43</t>
+  </si>
+  <si>
+    <t>K88</t>
+  </si>
+  <si>
+    <t>781686-781688</t>
+  </si>
+  <si>
+    <t>781821-781823</t>
+  </si>
+  <si>
+    <t>R,T</t>
+  </si>
+  <si>
+    <t>rpsL K43 mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>rpsL K88 mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>N236</t>
+  </si>
+  <si>
+    <t>1918645-1918647</t>
+  </si>
+  <si>
+    <t>tlyA N236K mutation present which is associated with capreomycin resistance.</t>
+  </si>
+  <si>
+    <t>references/ASM19595v2.fasta</t>
+  </si>
 </sst>
 </file>
 
@@ -1719,6 +2717,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1965,7 +2964,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="337">
+  <cellStyleXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2303,8 +3302,120 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2453,6 +3564,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2471,6 +3586,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2483,18 +3604,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="337">
+  <cellStyles count="449">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2796,6 +3913,62 @@
     <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2830,6 +4003,62 @@
     <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="1" builtinId="25" customBuiltin="1"/>
   </cellStyles>
@@ -3163,7 +4392,7 @@
   <dimension ref="A1:AG707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3190,37 +4419,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="66" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="67" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="64" t="s">
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="65"/>
+      <c r="S1" s="67"/>
       <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
@@ -8456,7 +9685,7 @@
   <dimension ref="A1:AG707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8483,37 +9712,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="66" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="67" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="64" t="s">
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="65"/>
+      <c r="S1" s="67"/>
       <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
@@ -13786,6 +15015,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13798,7 +15028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH715"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
@@ -13827,50 +15057,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="38" customFormat="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="71" t="s">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="74" t="s">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="75"/>
-      <c r="AD1" s="76" t="s">
+      <c r="S1" s="73"/>
+      <c r="AD1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="76" t="s">
+      <c r="AE1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="76" t="s">
+      <c r="AF1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="76" t="s">
+      <c r="AG1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="77" t="s">
+      <c r="AH1" s="65" t="s">
         <v>255</v>
       </c>
     </row>
@@ -13932,19 +15162,19 @@
       <c r="S2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="76" t="s">
+      <c r="AE2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="76" t="s">
+      <c r="AF2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="76" t="s">
+      <c r="AG2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="77"/>
+      <c r="AH2" s="65"/>
     </row>
     <row r="3" spans="1:34" ht="16" thickTop="1">
       <c r="A3" s="21" t="s">
@@ -17363,4 +18593,6601 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH724"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="9" style="28" customWidth="1"/>
+    <col min="12" max="12" width="10" style="28" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="19" max="19" width="28.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="1" customFormat="1">
+      <c r="A1" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="67"/>
+      <c r="AD1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="16" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="16" thickTop="1">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="N3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O3" t="s">
+        <v>283</v>
+      </c>
+      <c r="P3" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>282</v>
+      </c>
+      <c r="R3" t="s">
+        <v>285</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="I4" s="8"/>
+      <c r="N4" t="s">
+        <v>279</v>
+      </c>
+      <c r="O4" t="s">
+        <v>284</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R4" t="s">
+        <v>286</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="D5" s="28"/>
+      <c r="I5" s="8"/>
+      <c r="N5" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="O5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="R5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="D6" s="28"/>
+      <c r="I6" s="8"/>
+      <c r="N6" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="O6" t="s">
+        <v>275</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>273</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="D7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="N7" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="O7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="R7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="I8" s="8"/>
+      <c r="N8" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="O8" t="s">
+        <v>277</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="D9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="N9" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="O9" t="s">
+        <v>278</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="R9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="I10" s="8"/>
+      <c r="N10" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="S10" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="I11" s="8"/>
+      <c r="N11" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="S11" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="I12" s="8"/>
+      <c r="N12" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="S12" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="I13" s="8"/>
+      <c r="N13" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="S13" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="I14" s="8"/>
+      <c r="N14" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="S14" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="I15" s="8"/>
+      <c r="N15" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="S15" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="I16" s="8"/>
+      <c r="N16" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="S16" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="9:19">
+      <c r="I17" s="8"/>
+      <c r="N17" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="S17" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="9:19">
+      <c r="I18" s="8"/>
+      <c r="N18" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="S18" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="9:19">
+      <c r="I19" s="8"/>
+      <c r="N19" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="S19" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="9:19">
+      <c r="I20" s="8"/>
+      <c r="N20" t="s">
+        <v>543</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="R20" s="78" t="s">
+        <v>545</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="9:19">
+      <c r="I21" s="8"/>
+      <c r="N21" t="s">
+        <v>546</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="R21" s="78" t="s">
+        <v>551</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="9:19">
+      <c r="I22" s="8"/>
+      <c r="N22" t="s">
+        <v>547</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R22" s="78" t="s">
+        <v>552</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="9:19">
+      <c r="I23" s="8"/>
+      <c r="J23" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="K23" s="28">
+        <v>1472307</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" t="s">
+        <v>542</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="9:19">
+      <c r="I24" s="8"/>
+      <c r="J24" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="K24" s="28">
+        <v>1472358</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" t="s">
+        <v>538</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="9:19">
+      <c r="I25" s="8"/>
+      <c r="J25" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="K25" s="28">
+        <v>1472359</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R25" t="s">
+        <v>536</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="9:19">
+      <c r="I26" s="8"/>
+      <c r="J26" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="K26" s="28">
+        <v>1472359</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" t="s">
+        <v>535</v>
+      </c>
+      <c r="S26" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="9:19">
+      <c r="I27" s="8"/>
+      <c r="J27" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="K27" s="28">
+        <v>1472362</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" t="s">
+        <v>540</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="9:19">
+      <c r="I28" s="8"/>
+      <c r="J28" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="K28" s="28">
+        <v>1473246</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="9:19">
+      <c r="I29" s="8"/>
+      <c r="J29" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="K29" s="28">
+        <v>1473247</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" t="s">
+        <v>129</v>
+      </c>
+      <c r="S29" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="9:19">
+      <c r="I30" s="8"/>
+      <c r="J30" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="K30" s="28">
+        <v>1473329</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" t="s">
+        <v>130</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="9:19">
+      <c r="I31" s="8"/>
+      <c r="J31" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" s="28">
+        <v>1673425</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" t="s">
+        <v>95</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="9:19">
+      <c r="I32" s="8"/>
+      <c r="N32" t="s">
+        <v>553</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="R32" s="78" t="s">
+        <v>555</v>
+      </c>
+      <c r="S32" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="9:19">
+      <c r="I33" s="8"/>
+      <c r="N33" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="R33" t="s">
+        <v>504</v>
+      </c>
+      <c r="S33" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="9:19">
+      <c r="I34" s="8"/>
+      <c r="J34" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" s="79">
+        <v>2289248</v>
+      </c>
+      <c r="L34" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="78" t="s">
+        <v>371</v>
+      </c>
+      <c r="S34" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="9:19">
+      <c r="I35" s="8"/>
+      <c r="J35" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" s="79">
+        <v>2289252</v>
+      </c>
+      <c r="L35" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="S35" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="9:19">
+      <c r="I36" s="8"/>
+      <c r="J36" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="K36" s="79">
+        <v>2289253</v>
+      </c>
+      <c r="L36" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="S36" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="9:19">
+      <c r="I37" s="8"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="R37" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="S37" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="9:19">
+      <c r="I38" s="8"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" t="s">
+        <v>373</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="R38" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="S38" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="9:19">
+      <c r="I39" s="8"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q39" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="S39" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="9:19">
+      <c r="I40" s="8"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" t="s">
+        <v>298</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R40" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="S40" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="9:19">
+      <c r="I41" s="8"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="R41" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="S41" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="9:19">
+      <c r="I42" s="8"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q42" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R42" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="S42" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="9:19">
+      <c r="I43" s="8"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" t="s">
+        <v>304</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="R43" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="S43" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="9:19">
+      <c r="I44" s="8"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="R44" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="S44" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="9:19">
+      <c r="I45" s="8"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" t="s">
+        <v>385</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="R45" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="S45" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="9:19">
+      <c r="I46" s="8"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" t="s">
+        <v>390</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="P46" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q46" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R46" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="S46" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="9:19">
+      <c r="I47" s="8"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" t="s">
+        <v>391</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="P47" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="R47" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="S47" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="9:19">
+      <c r="I48" s="8"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" t="s">
+        <v>309</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="P48" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q48" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="R48" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="S48" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="4:19">
+      <c r="I49" s="8"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" t="s">
+        <v>311</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="P49" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="R49" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="S49" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="4:19">
+      <c r="I50" s="8"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" t="s">
+        <v>313</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q50" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R50" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="S50" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="4:19">
+      <c r="I51" s="8"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" t="s">
+        <v>315</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="P51" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q51" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="R51" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="S51" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="4:19">
+      <c r="I52" s="8"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" t="s">
+        <v>316</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="P52" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R52" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="S52" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="4:19">
+      <c r="I53" s="8"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" t="s">
+        <v>318</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="P53" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q53" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="R53" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="S53" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="4:19">
+      <c r="I54" s="8"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" t="s">
+        <v>320</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="P54" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q54" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="R54" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="S54" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="4:19">
+      <c r="I55" s="8"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" t="s">
+        <v>408</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R55" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="S55" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="4:19">
+      <c r="I56" s="8"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" t="s">
+        <v>409</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="P56" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q56" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="R56" s="78" t="s">
+        <v>412</v>
+      </c>
+      <c r="S56" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="4:19">
+      <c r="I57" s="8"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" t="s">
+        <v>321</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="P57" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q57" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R57" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="S57" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="4:19">
+      <c r="I58" s="8"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" t="s">
+        <v>415</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="P58" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q58" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R58" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="S58" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="4:19">
+      <c r="I59" s="8"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" t="s">
+        <v>323</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="P59" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q59" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R59" s="78" t="s">
+        <v>324</v>
+      </c>
+      <c r="S59" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="4:19">
+      <c r="I60" s="8"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" t="s">
+        <v>325</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q60" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="R60" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="S60" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="4:19">
+      <c r="I61" s="8"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" t="s">
+        <v>328</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="P61" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="R61" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="S61" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="4:19">
+      <c r="D62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" t="s">
+        <v>329</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="P62" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q62" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="R62" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="S62" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="4:19">
+      <c r="D63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" t="s">
+        <v>331</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="P63" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q63" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R63" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="S63" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="4:19">
+      <c r="I64" s="8"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" t="s">
+        <v>333</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="P64" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q64" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="R64" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="S64" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="4:19">
+      <c r="I65" s="8"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" t="s">
+        <v>335</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="R65" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="S65" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="4:19">
+      <c r="D66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" t="s">
+        <v>337</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q66" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="R66" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="S66" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="4:19">
+      <c r="D67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" t="s">
+        <v>432</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="P67" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q67" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="R67" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="S67" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="4:19">
+      <c r="D68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" t="s">
+        <v>340</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="P68" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q68" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="R68" s="78" t="s">
+        <v>467</v>
+      </c>
+      <c r="S68" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="4:19">
+      <c r="D69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" t="s">
+        <v>341</v>
+      </c>
+      <c r="O69" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="P69" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q69" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="R69" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="S69" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="4:19">
+      <c r="D70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" t="s">
+        <v>343</v>
+      </c>
+      <c r="O70" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="P70" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q70" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="R70" s="78" t="s">
+        <v>344</v>
+      </c>
+      <c r="S70" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="4:19">
+      <c r="I71" s="8"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" t="s">
+        <v>345</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="P71" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q71" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="R71" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="S71" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="4:19">
+      <c r="I72" s="8"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" t="s">
+        <v>347</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="P72" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q72" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="R72" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="S72" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="4:19">
+      <c r="I73" s="8"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" t="s">
+        <v>348</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="P73" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q73" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R73" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="S73" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="4:19">
+      <c r="I74" s="8"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" t="s">
+        <v>443</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="P74" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q74" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R74" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="S74" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="4:19">
+      <c r="I75" s="8"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" t="s">
+        <v>350</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="P75" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q75" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="R75" s="78" t="s">
+        <v>447</v>
+      </c>
+      <c r="S75" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="4:19">
+      <c r="I76" s="8"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" t="s">
+        <v>351</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="P76" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q76" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R76" s="78" t="s">
+        <v>352</v>
+      </c>
+      <c r="S76" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="4:19">
+      <c r="I77" s="8"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" t="s">
+        <v>450</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="P77" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q77" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="R77" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="S77" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="4:19">
+      <c r="I78" s="8"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" t="s">
+        <v>454</v>
+      </c>
+      <c r="O78" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="P78" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q78" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="R78" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="S78" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="4:19">
+      <c r="I79" s="8"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" t="s">
+        <v>353</v>
+      </c>
+      <c r="O79" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="P79" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q79" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="R79" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="S79" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="4:19">
+      <c r="I80" s="8"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" t="s">
+        <v>458</v>
+      </c>
+      <c r="O80" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="P80" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q80" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R80" s="78" t="s">
+        <v>459</v>
+      </c>
+      <c r="S80" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="4:20">
+      <c r="I81" s="8"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" t="s">
+        <v>461</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="P81" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q81" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="R81" s="78" t="s">
+        <v>462</v>
+      </c>
+      <c r="S81" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="4:20">
+      <c r="I82" s="8"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" t="s">
+        <v>355</v>
+      </c>
+      <c r="O82" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="P82" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q82" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="R82" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="S82" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="4:20">
+      <c r="I83" s="8"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" t="s">
+        <v>357</v>
+      </c>
+      <c r="O83" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="P83" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q83" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R83" s="78" t="s">
+        <v>358</v>
+      </c>
+      <c r="S83" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="4:20">
+      <c r="I84" s="8"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" t="s">
+        <v>359</v>
+      </c>
+      <c r="O84" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="P84" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q84" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="R84" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="S84" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="4:20">
+      <c r="I85" s="8"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" t="s">
+        <v>471</v>
+      </c>
+      <c r="O85" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="P85" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q85" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="R85" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="S85" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="4:20">
+      <c r="D86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" t="s">
+        <v>361</v>
+      </c>
+      <c r="O86" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="P86" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q86" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R86" s="78" t="s">
+        <v>362</v>
+      </c>
+      <c r="S86" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T86" s="31"/>
+    </row>
+    <row r="87" spans="4:20">
+      <c r="D87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" t="s">
+        <v>475</v>
+      </c>
+      <c r="O87" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="P87" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q87" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R87" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="S87" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T87" s="31"/>
+    </row>
+    <row r="88" spans="4:20">
+      <c r="D88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" t="s">
+        <v>476</v>
+      </c>
+      <c r="O88" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="P88" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q88" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R88" s="78" t="s">
+        <v>482</v>
+      </c>
+      <c r="S88" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T88" s="31"/>
+    </row>
+    <row r="89" spans="4:20">
+      <c r="D89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
+      <c r="N89" t="s">
+        <v>477</v>
+      </c>
+      <c r="O89" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P89" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="R89" s="78" t="s">
+        <v>484</v>
+      </c>
+      <c r="S89" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T89" s="31"/>
+    </row>
+    <row r="90" spans="4:20">
+      <c r="D90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" t="s">
+        <v>478</v>
+      </c>
+      <c r="O90" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="P90" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q90" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R90" s="78" t="s">
+        <v>486</v>
+      </c>
+      <c r="S90" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T90" s="31"/>
+    </row>
+    <row r="91" spans="4:20">
+      <c r="D91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
+      <c r="N91" t="s">
+        <v>363</v>
+      </c>
+      <c r="O91" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="P91" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q91" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="R91" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="S91" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="4:20">
+      <c r="I92" s="8"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" t="s">
+        <v>365</v>
+      </c>
+      <c r="O92" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="P92" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q92" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="R92" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="S92" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="4:20">
+      <c r="D93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
+      <c r="N93" t="s">
+        <v>490</v>
+      </c>
+      <c r="O93" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="P93" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q93" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="R93" s="78" t="s">
+        <v>492</v>
+      </c>
+      <c r="S93" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T93" s="31"/>
+    </row>
+    <row r="94" spans="4:20">
+      <c r="I94" s="8"/>
+      <c r="J94" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="K94" s="36">
+        <v>2715342</v>
+      </c>
+      <c r="L94" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M94" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="R94" t="s">
+        <v>89</v>
+      </c>
+      <c r="S94" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="4:20">
+      <c r="D95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K95" s="36">
+        <v>2715344</v>
+      </c>
+      <c r="L95" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M95" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="R95" t="s">
+        <v>90</v>
+      </c>
+      <c r="S95" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="4:20">
+      <c r="D96" s="8"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K96" s="36">
+        <v>2715346</v>
+      </c>
+      <c r="L96" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M96" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="R96" t="s">
+        <v>91</v>
+      </c>
+      <c r="S96" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32">
+      <c r="I97" s="8"/>
+      <c r="J97" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K97" s="36">
+        <v>2715369</v>
+      </c>
+      <c r="L97" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M97" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="R97" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="S97" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32">
+      <c r="D98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="S98" s="31"/>
+    </row>
+    <row r="99" spans="1:32">
+      <c r="I99" s="8"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="31"/>
+      <c r="AD99" s="6"/>
+      <c r="AE99" s="7"/>
+      <c r="AF99" s="5"/>
+    </row>
+    <row r="100" spans="1:32">
+      <c r="A100" s="16"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="32"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="6"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="5"/>
+    </row>
+    <row r="101" spans="1:32">
+      <c r="I101" s="8"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="31"/>
+    </row>
+    <row r="102" spans="1:32">
+      <c r="I102" s="8"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="31"/>
+    </row>
+    <row r="103" spans="1:32">
+      <c r="I103" s="8"/>
+      <c r="S103" s="31"/>
+    </row>
+    <row r="104" spans="1:32">
+      <c r="I104" s="8"/>
+      <c r="S104" s="31"/>
+    </row>
+    <row r="105" spans="1:32">
+      <c r="I105" s="8"/>
+      <c r="S105" s="31"/>
+    </row>
+    <row r="106" spans="1:32">
+      <c r="D106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="S106" s="31"/>
+      <c r="T106" s="31"/>
+    </row>
+    <row r="107" spans="1:32">
+      <c r="I107" s="8"/>
+      <c r="S107" s="31"/>
+    </row>
+    <row r="108" spans="1:32">
+      <c r="I108" s="8"/>
+      <c r="S108" s="31"/>
+    </row>
+    <row r="109" spans="1:32">
+      <c r="I109" s="8"/>
+      <c r="S109" s="31"/>
+    </row>
+    <row r="110" spans="1:32">
+      <c r="I110" s="8"/>
+      <c r="S110" s="31"/>
+    </row>
+    <row r="111" spans="1:32">
+      <c r="I111" s="8"/>
+      <c r="S111" s="31"/>
+    </row>
+    <row r="112" spans="1:32">
+      <c r="I112" s="8"/>
+      <c r="S112" s="31"/>
+    </row>
+    <row r="113" spans="4:19">
+      <c r="I113" s="8"/>
+      <c r="S113" s="31"/>
+    </row>
+    <row r="114" spans="4:19">
+      <c r="I114" s="8"/>
+      <c r="S114" s="31"/>
+    </row>
+    <row r="115" spans="4:19">
+      <c r="I115" s="8"/>
+      <c r="S115" s="31"/>
+    </row>
+    <row r="116" spans="4:19">
+      <c r="I116" s="8"/>
+      <c r="S116" s="31"/>
+    </row>
+    <row r="117" spans="4:19">
+      <c r="D117" s="8"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="29"/>
+      <c r="S117" s="32"/>
+    </row>
+    <row r="118" spans="4:19">
+      <c r="I118" s="8"/>
+      <c r="R118" s="22"/>
+      <c r="S118" s="33"/>
+    </row>
+    <row r="119" spans="4:19">
+      <c r="D119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="S119" s="31"/>
+    </row>
+    <row r="120" spans="4:19">
+      <c r="I120" s="8"/>
+      <c r="S120" s="31"/>
+    </row>
+    <row r="121" spans="4:19">
+      <c r="I121" s="8"/>
+      <c r="S121" s="31"/>
+    </row>
+    <row r="122" spans="4:19">
+      <c r="I122" s="8"/>
+      <c r="S122" s="31"/>
+    </row>
+    <row r="123" spans="4:19">
+      <c r="I123" s="8"/>
+      <c r="S123" s="31"/>
+    </row>
+    <row r="124" spans="4:19">
+      <c r="I124" s="8"/>
+      <c r="S124" s="31"/>
+    </row>
+    <row r="125" spans="4:19">
+      <c r="I125" s="8"/>
+      <c r="S125" s="31"/>
+    </row>
+    <row r="126" spans="4:19">
+      <c r="I126" s="8"/>
+      <c r="S126" s="31"/>
+    </row>
+    <row r="127" spans="4:19">
+      <c r="I127" s="8"/>
+      <c r="S127" s="31"/>
+    </row>
+    <row r="128" spans="4:19">
+      <c r="I128" s="8"/>
+      <c r="S128" s="31"/>
+    </row>
+    <row r="129" spans="4:19">
+      <c r="D129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="S129" s="31"/>
+    </row>
+    <row r="130" spans="4:19">
+      <c r="D130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="S130" s="31"/>
+    </row>
+    <row r="131" spans="4:19">
+      <c r="D131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="S131" s="31"/>
+    </row>
+    <row r="132" spans="4:19">
+      <c r="D132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="S132" s="31"/>
+    </row>
+    <row r="133" spans="4:19">
+      <c r="I133" s="8"/>
+      <c r="S133" s="34"/>
+    </row>
+    <row r="134" spans="4:19">
+      <c r="I134" s="8"/>
+      <c r="S134" s="34"/>
+    </row>
+    <row r="135" spans="4:19">
+      <c r="I135" s="8"/>
+      <c r="S135" s="32"/>
+    </row>
+    <row r="136" spans="4:19">
+      <c r="I136" s="8"/>
+      <c r="S136" s="31"/>
+    </row>
+    <row r="137" spans="4:19">
+      <c r="I137" s="8"/>
+      <c r="S137" s="31"/>
+    </row>
+    <row r="138" spans="4:19">
+      <c r="I138" s="8"/>
+      <c r="S138" s="32"/>
+    </row>
+    <row r="139" spans="4:19">
+      <c r="I139" s="8"/>
+      <c r="S139" s="32"/>
+    </row>
+    <row r="140" spans="4:19">
+      <c r="I140" s="8"/>
+      <c r="S140" s="32"/>
+    </row>
+    <row r="141" spans="4:19">
+      <c r="R141" s="22"/>
+      <c r="S141" s="33"/>
+    </row>
+    <row r="142" spans="4:19">
+      <c r="R142" s="22"/>
+      <c r="S142" s="33"/>
+    </row>
+    <row r="143" spans="4:19">
+      <c r="D143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="S143" s="34"/>
+    </row>
+    <row r="144" spans="4:19">
+      <c r="D144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="S144" s="34"/>
+    </row>
+    <row r="145" spans="4:19">
+      <c r="D145" s="8"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="29"/>
+      <c r="S145" s="32"/>
+    </row>
+    <row r="146" spans="4:19">
+      <c r="D146" s="8"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="29"/>
+      <c r="S146" s="32"/>
+    </row>
+    <row r="147" spans="4:19">
+      <c r="D147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="S147" s="31"/>
+    </row>
+    <row r="148" spans="4:19">
+      <c r="D148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="S148" s="31"/>
+    </row>
+    <row r="149" spans="4:19">
+      <c r="D149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="S149" s="31"/>
+    </row>
+    <row r="150" spans="4:19">
+      <c r="D150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="S150" s="31"/>
+    </row>
+    <row r="151" spans="4:19">
+      <c r="I151" s="8"/>
+      <c r="S151" s="31"/>
+    </row>
+    <row r="152" spans="4:19">
+      <c r="I152" s="8"/>
+      <c r="S152" s="31"/>
+    </row>
+    <row r="153" spans="4:19">
+      <c r="I153" s="8"/>
+      <c r="S153" s="31"/>
+    </row>
+    <row r="154" spans="4:19">
+      <c r="I154" s="8"/>
+      <c r="S154" s="31"/>
+    </row>
+    <row r="155" spans="4:19">
+      <c r="I155" s="8"/>
+      <c r="S155" s="31"/>
+    </row>
+    <row r="156" spans="4:19">
+      <c r="I156" s="8"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="31"/>
+    </row>
+    <row r="157" spans="4:19">
+      <c r="I157" s="8"/>
+      <c r="R157" s="11"/>
+      <c r="S157" s="31"/>
+    </row>
+    <row r="158" spans="4:19">
+      <c r="I158" s="8"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="31"/>
+    </row>
+    <row r="159" spans="4:19">
+      <c r="I159" s="8"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="31"/>
+    </row>
+    <row r="160" spans="4:19">
+      <c r="I160" s="8"/>
+      <c r="R160" s="11"/>
+      <c r="S160" s="31"/>
+    </row>
+    <row r="161" spans="4:20">
+      <c r="D161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="S161" s="31"/>
+    </row>
+    <row r="162" spans="4:20">
+      <c r="D162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="S162" s="31"/>
+    </row>
+    <row r="163" spans="4:20">
+      <c r="I163" s="8"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="31"/>
+    </row>
+    <row r="164" spans="4:20">
+      <c r="I164" s="8"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="31"/>
+    </row>
+    <row r="165" spans="4:20">
+      <c r="D165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="S165" s="31"/>
+    </row>
+    <row r="166" spans="4:20">
+      <c r="D166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="S166" s="31"/>
+    </row>
+    <row r="167" spans="4:20">
+      <c r="D167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="S167" s="31"/>
+    </row>
+    <row r="168" spans="4:20">
+      <c r="D168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="S168" s="31"/>
+    </row>
+    <row r="169" spans="4:20">
+      <c r="D169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="S169" s="31"/>
+    </row>
+    <row r="170" spans="4:20">
+      <c r="D170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="S170" s="31"/>
+      <c r="T170" s="14"/>
+    </row>
+    <row r="171" spans="4:20">
+      <c r="D171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="S171" s="31"/>
+    </row>
+    <row r="172" spans="4:20">
+      <c r="D172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="R172" s="21"/>
+      <c r="S172" s="31"/>
+    </row>
+    <row r="173" spans="4:20">
+      <c r="I173" s="8"/>
+      <c r="S173" s="31"/>
+    </row>
+    <row r="174" spans="4:20">
+      <c r="I174" s="8"/>
+      <c r="S174" s="31"/>
+    </row>
+    <row r="175" spans="4:20">
+      <c r="I175" s="8"/>
+      <c r="S175" s="31"/>
+    </row>
+    <row r="176" spans="4:20">
+      <c r="I176" s="8"/>
+      <c r="S176" s="31"/>
+    </row>
+    <row r="177" spans="1:32">
+      <c r="I177" s="8"/>
+      <c r="S177" s="31"/>
+    </row>
+    <row r="178" spans="1:32">
+      <c r="I178" s="8"/>
+      <c r="S178" s="31"/>
+    </row>
+    <row r="179" spans="1:32">
+      <c r="I179" s="8"/>
+      <c r="S179" s="31"/>
+    </row>
+    <row r="180" spans="1:32">
+      <c r="I180" s="8"/>
+      <c r="S180" s="31"/>
+    </row>
+    <row r="181" spans="1:32">
+      <c r="I181" s="8"/>
+      <c r="S181" s="31"/>
+    </row>
+    <row r="182" spans="1:32">
+      <c r="I182" s="8"/>
+      <c r="S182" s="31"/>
+    </row>
+    <row r="183" spans="1:32">
+      <c r="I183" s="8"/>
+      <c r="R183" s="22"/>
+      <c r="S183" s="31"/>
+    </row>
+    <row r="184" spans="1:32">
+      <c r="D184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="S184" s="31"/>
+    </row>
+    <row r="185" spans="1:32" s="13" customFormat="1">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="28"/>
+      <c r="M185" s="28"/>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185"/>
+      <c r="Q185"/>
+      <c r="R185"/>
+      <c r="S185" s="31"/>
+      <c r="T185"/>
+      <c r="U185"/>
+      <c r="V185"/>
+      <c r="W185"/>
+      <c r="X185"/>
+      <c r="Y185"/>
+      <c r="Z185"/>
+      <c r="AA185"/>
+      <c r="AB185"/>
+      <c r="AC185"/>
+      <c r="AD185"/>
+      <c r="AE185"/>
+      <c r="AF185"/>
+    </row>
+    <row r="186" spans="1:32">
+      <c r="S186" s="31"/>
+    </row>
+    <row r="187" spans="1:32">
+      <c r="I187" s="8"/>
+      <c r="R187" s="21"/>
+      <c r="S187" s="31"/>
+    </row>
+    <row r="188" spans="1:32">
+      <c r="D188" s="8"/>
+      <c r="S188" s="31"/>
+    </row>
+    <row r="189" spans="1:32">
+      <c r="S189" s="31"/>
+    </row>
+    <row r="190" spans="1:32">
+      <c r="S190" s="31"/>
+    </row>
+    <row r="191" spans="1:32">
+      <c r="D191" s="8"/>
+      <c r="I191" s="8"/>
+      <c r="S191" s="31"/>
+    </row>
+    <row r="192" spans="1:32">
+      <c r="I192" s="8"/>
+      <c r="S192" s="31"/>
+    </row>
+    <row r="193" spans="4:19">
+      <c r="D193" s="8"/>
+      <c r="S193" s="31"/>
+    </row>
+    <row r="194" spans="4:19">
+      <c r="S194" s="31"/>
+    </row>
+    <row r="195" spans="4:19">
+      <c r="S195" s="31"/>
+    </row>
+    <row r="196" spans="4:19">
+      <c r="S196" s="31"/>
+    </row>
+    <row r="197" spans="4:19">
+      <c r="S197" s="31"/>
+    </row>
+    <row r="198" spans="4:19">
+      <c r="S198" s="31"/>
+    </row>
+    <row r="199" spans="4:19">
+      <c r="S199" s="31"/>
+    </row>
+    <row r="200" spans="4:19">
+      <c r="S200" s="31"/>
+    </row>
+    <row r="201" spans="4:19">
+      <c r="S201" s="31"/>
+    </row>
+    <row r="202" spans="4:19">
+      <c r="S202" s="31"/>
+    </row>
+    <row r="203" spans="4:19">
+      <c r="S203" s="31"/>
+    </row>
+    <row r="204" spans="4:19">
+      <c r="S204" s="31"/>
+    </row>
+    <row r="205" spans="4:19">
+      <c r="S205" s="31"/>
+    </row>
+    <row r="206" spans="4:19">
+      <c r="S206" s="31"/>
+    </row>
+    <row r="207" spans="4:19">
+      <c r="S207" s="31"/>
+    </row>
+    <row r="208" spans="4:19">
+      <c r="S208" s="31"/>
+    </row>
+    <row r="209" spans="10:19">
+      <c r="J209"/>
+      <c r="K209"/>
+      <c r="L209"/>
+      <c r="M209"/>
+      <c r="S209" s="31"/>
+    </row>
+    <row r="210" spans="10:19">
+      <c r="J210"/>
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="S210" s="31"/>
+    </row>
+    <row r="211" spans="10:19">
+      <c r="J211"/>
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="S211" s="31"/>
+    </row>
+    <row r="212" spans="10:19">
+      <c r="J212"/>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="S212" s="31"/>
+    </row>
+    <row r="213" spans="10:19">
+      <c r="J213"/>
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213"/>
+      <c r="S213" s="31"/>
+    </row>
+    <row r="214" spans="10:19">
+      <c r="J214"/>
+      <c r="K214"/>
+      <c r="L214"/>
+      <c r="M214"/>
+      <c r="S214" s="31"/>
+    </row>
+    <row r="215" spans="10:19">
+      <c r="J215"/>
+      <c r="K215"/>
+      <c r="L215"/>
+      <c r="M215"/>
+      <c r="S215" s="31"/>
+    </row>
+    <row r="216" spans="10:19">
+      <c r="J216"/>
+      <c r="K216"/>
+      <c r="L216"/>
+      <c r="M216"/>
+      <c r="S216" s="31"/>
+    </row>
+    <row r="217" spans="10:19">
+      <c r="J217"/>
+      <c r="K217"/>
+      <c r="L217"/>
+      <c r="M217"/>
+      <c r="S217" s="31"/>
+    </row>
+    <row r="218" spans="10:19">
+      <c r="J218"/>
+      <c r="K218"/>
+      <c r="L218"/>
+      <c r="M218"/>
+      <c r="S218" s="31"/>
+    </row>
+    <row r="219" spans="10:19">
+      <c r="J219"/>
+      <c r="K219"/>
+      <c r="L219"/>
+      <c r="M219"/>
+      <c r="S219" s="31"/>
+    </row>
+    <row r="220" spans="10:19">
+      <c r="J220"/>
+      <c r="K220"/>
+      <c r="L220"/>
+      <c r="M220"/>
+      <c r="S220" s="31"/>
+    </row>
+    <row r="221" spans="10:19">
+      <c r="J221"/>
+      <c r="K221"/>
+      <c r="L221"/>
+      <c r="M221"/>
+      <c r="S221" s="31"/>
+    </row>
+    <row r="222" spans="10:19">
+      <c r="J222"/>
+      <c r="K222"/>
+      <c r="L222"/>
+      <c r="M222"/>
+      <c r="S222" s="31"/>
+    </row>
+    <row r="223" spans="10:19">
+      <c r="J223"/>
+      <c r="K223"/>
+      <c r="L223"/>
+      <c r="M223"/>
+      <c r="S223" s="31"/>
+    </row>
+    <row r="224" spans="10:19">
+      <c r="J224"/>
+      <c r="K224"/>
+      <c r="L224"/>
+      <c r="M224"/>
+      <c r="S224" s="31"/>
+    </row>
+    <row r="225" spans="10:19">
+      <c r="J225"/>
+      <c r="K225"/>
+      <c r="L225"/>
+      <c r="M225"/>
+      <c r="S225" s="31"/>
+    </row>
+    <row r="226" spans="10:19">
+      <c r="J226"/>
+      <c r="K226"/>
+      <c r="L226"/>
+      <c r="M226"/>
+      <c r="S226" s="31"/>
+    </row>
+    <row r="227" spans="10:19">
+      <c r="J227"/>
+      <c r="K227"/>
+      <c r="L227"/>
+      <c r="M227"/>
+      <c r="S227" s="31"/>
+    </row>
+    <row r="228" spans="10:19">
+      <c r="J228"/>
+      <c r="K228"/>
+      <c r="L228"/>
+      <c r="M228"/>
+      <c r="S228" s="31"/>
+    </row>
+    <row r="229" spans="10:19">
+      <c r="J229"/>
+      <c r="K229"/>
+      <c r="L229"/>
+      <c r="M229"/>
+      <c r="S229" s="31"/>
+    </row>
+    <row r="230" spans="10:19">
+      <c r="J230"/>
+      <c r="K230"/>
+      <c r="L230"/>
+      <c r="M230"/>
+      <c r="S230" s="31"/>
+    </row>
+    <row r="231" spans="10:19">
+      <c r="J231"/>
+      <c r="K231"/>
+      <c r="L231"/>
+      <c r="M231"/>
+      <c r="S231" s="31"/>
+    </row>
+    <row r="232" spans="10:19">
+      <c r="J232"/>
+      <c r="K232"/>
+      <c r="L232"/>
+      <c r="M232"/>
+      <c r="S232" s="31"/>
+    </row>
+    <row r="233" spans="10:19">
+      <c r="J233"/>
+      <c r="K233"/>
+      <c r="L233"/>
+      <c r="M233"/>
+      <c r="S233" s="31"/>
+    </row>
+    <row r="234" spans="10:19">
+      <c r="J234"/>
+      <c r="K234"/>
+      <c r="L234"/>
+      <c r="M234"/>
+      <c r="S234" s="31"/>
+    </row>
+    <row r="235" spans="10:19">
+      <c r="J235"/>
+      <c r="K235"/>
+      <c r="L235"/>
+      <c r="M235"/>
+      <c r="S235" s="31"/>
+    </row>
+    <row r="236" spans="10:19">
+      <c r="J236"/>
+      <c r="K236"/>
+      <c r="L236"/>
+      <c r="M236"/>
+      <c r="S236" s="31"/>
+    </row>
+    <row r="237" spans="10:19">
+      <c r="J237"/>
+      <c r="K237"/>
+      <c r="L237"/>
+      <c r="M237"/>
+      <c r="S237" s="31"/>
+    </row>
+    <row r="238" spans="10:19">
+      <c r="J238"/>
+      <c r="K238"/>
+      <c r="L238"/>
+      <c r="M238"/>
+      <c r="S238" s="31"/>
+    </row>
+    <row r="239" spans="10:19">
+      <c r="J239"/>
+      <c r="K239"/>
+      <c r="L239"/>
+      <c r="M239"/>
+      <c r="S239" s="31"/>
+    </row>
+    <row r="240" spans="10:19">
+      <c r="J240"/>
+      <c r="K240"/>
+      <c r="L240"/>
+      <c r="M240"/>
+      <c r="S240" s="31"/>
+    </row>
+    <row r="241" spans="10:19">
+      <c r="J241"/>
+      <c r="K241"/>
+      <c r="L241"/>
+      <c r="M241"/>
+      <c r="S241" s="31"/>
+    </row>
+    <row r="242" spans="10:19">
+      <c r="J242"/>
+      <c r="K242"/>
+      <c r="L242"/>
+      <c r="M242"/>
+      <c r="S242" s="31"/>
+    </row>
+    <row r="243" spans="10:19">
+      <c r="J243"/>
+      <c r="K243"/>
+      <c r="L243"/>
+      <c r="M243"/>
+      <c r="S243" s="31"/>
+    </row>
+    <row r="244" spans="10:19">
+      <c r="J244"/>
+      <c r="K244"/>
+      <c r="L244"/>
+      <c r="M244"/>
+      <c r="S244" s="31"/>
+    </row>
+    <row r="245" spans="10:19">
+      <c r="J245"/>
+      <c r="K245"/>
+      <c r="L245"/>
+      <c r="M245"/>
+      <c r="S245" s="31"/>
+    </row>
+    <row r="246" spans="10:19">
+      <c r="J246"/>
+      <c r="K246"/>
+      <c r="L246"/>
+      <c r="M246"/>
+      <c r="S246" s="31"/>
+    </row>
+    <row r="247" spans="10:19">
+      <c r="J247"/>
+      <c r="K247"/>
+      <c r="L247"/>
+      <c r="M247"/>
+      <c r="S247" s="31"/>
+    </row>
+    <row r="248" spans="10:19">
+      <c r="J248"/>
+      <c r="K248"/>
+      <c r="L248"/>
+      <c r="M248"/>
+      <c r="S248" s="31"/>
+    </row>
+    <row r="249" spans="10:19">
+      <c r="J249"/>
+      <c r="K249"/>
+      <c r="L249"/>
+      <c r="M249"/>
+      <c r="S249" s="31"/>
+    </row>
+    <row r="250" spans="10:19">
+      <c r="J250"/>
+      <c r="K250"/>
+      <c r="L250"/>
+      <c r="M250"/>
+      <c r="S250" s="31"/>
+    </row>
+    <row r="251" spans="10:19">
+      <c r="J251"/>
+      <c r="K251"/>
+      <c r="L251"/>
+      <c r="M251"/>
+      <c r="S251" s="31"/>
+    </row>
+    <row r="252" spans="10:19">
+      <c r="J252"/>
+      <c r="K252"/>
+      <c r="L252"/>
+      <c r="M252"/>
+      <c r="S252" s="31"/>
+    </row>
+    <row r="253" spans="10:19">
+      <c r="J253"/>
+      <c r="K253"/>
+      <c r="L253"/>
+      <c r="M253"/>
+      <c r="S253" s="31"/>
+    </row>
+    <row r="254" spans="10:19">
+      <c r="J254"/>
+      <c r="K254"/>
+      <c r="L254"/>
+      <c r="M254"/>
+      <c r="S254" s="31"/>
+    </row>
+    <row r="255" spans="10:19">
+      <c r="J255"/>
+      <c r="K255"/>
+      <c r="L255"/>
+      <c r="M255"/>
+      <c r="S255" s="31"/>
+    </row>
+    <row r="256" spans="10:19">
+      <c r="J256"/>
+      <c r="K256"/>
+      <c r="L256"/>
+      <c r="M256"/>
+      <c r="S256" s="31"/>
+    </row>
+    <row r="257" spans="10:19">
+      <c r="J257"/>
+      <c r="K257"/>
+      <c r="L257"/>
+      <c r="M257"/>
+      <c r="S257" s="31"/>
+    </row>
+    <row r="258" spans="10:19">
+      <c r="J258"/>
+      <c r="K258"/>
+      <c r="L258"/>
+      <c r="M258"/>
+      <c r="S258" s="31"/>
+    </row>
+    <row r="259" spans="10:19">
+      <c r="J259"/>
+      <c r="K259"/>
+      <c r="L259"/>
+      <c r="M259"/>
+      <c r="S259" s="31"/>
+    </row>
+    <row r="260" spans="10:19">
+      <c r="J260"/>
+      <c r="K260"/>
+      <c r="L260"/>
+      <c r="M260"/>
+      <c r="S260" s="31"/>
+    </row>
+    <row r="261" spans="10:19">
+      <c r="J261"/>
+      <c r="K261"/>
+      <c r="L261"/>
+      <c r="M261"/>
+      <c r="S261" s="31"/>
+    </row>
+    <row r="262" spans="10:19">
+      <c r="J262"/>
+      <c r="K262"/>
+      <c r="L262"/>
+      <c r="M262"/>
+      <c r="S262" s="31"/>
+    </row>
+    <row r="263" spans="10:19">
+      <c r="J263"/>
+      <c r="K263"/>
+      <c r="L263"/>
+      <c r="M263"/>
+      <c r="S263" s="31"/>
+    </row>
+    <row r="264" spans="10:19">
+      <c r="J264"/>
+      <c r="K264"/>
+      <c r="L264"/>
+      <c r="M264"/>
+      <c r="S264" s="31"/>
+    </row>
+    <row r="265" spans="10:19">
+      <c r="J265"/>
+      <c r="K265"/>
+      <c r="L265"/>
+      <c r="M265"/>
+      <c r="S265" s="31"/>
+    </row>
+    <row r="266" spans="10:19">
+      <c r="J266"/>
+      <c r="K266"/>
+      <c r="L266"/>
+      <c r="M266"/>
+      <c r="S266" s="31"/>
+    </row>
+    <row r="267" spans="10:19">
+      <c r="J267"/>
+      <c r="K267"/>
+      <c r="L267"/>
+      <c r="M267"/>
+      <c r="S267" s="31"/>
+    </row>
+    <row r="268" spans="10:19">
+      <c r="J268"/>
+      <c r="K268"/>
+      <c r="L268"/>
+      <c r="M268"/>
+      <c r="S268" s="31"/>
+    </row>
+    <row r="269" spans="10:19">
+      <c r="J269"/>
+      <c r="K269"/>
+      <c r="L269"/>
+      <c r="M269"/>
+      <c r="S269" s="31"/>
+    </row>
+    <row r="270" spans="10:19">
+      <c r="J270"/>
+      <c r="K270"/>
+      <c r="L270"/>
+      <c r="M270"/>
+      <c r="S270" s="31"/>
+    </row>
+    <row r="271" spans="10:19">
+      <c r="J271"/>
+      <c r="K271"/>
+      <c r="L271"/>
+      <c r="M271"/>
+      <c r="S271" s="31"/>
+    </row>
+    <row r="272" spans="10:19">
+      <c r="J272"/>
+      <c r="K272"/>
+      <c r="L272"/>
+      <c r="M272"/>
+      <c r="S272" s="31"/>
+    </row>
+    <row r="273" spans="10:19">
+      <c r="J273"/>
+      <c r="K273"/>
+      <c r="L273"/>
+      <c r="M273"/>
+      <c r="S273" s="31"/>
+    </row>
+    <row r="274" spans="10:19">
+      <c r="J274"/>
+      <c r="K274"/>
+      <c r="L274"/>
+      <c r="M274"/>
+      <c r="S274" s="31"/>
+    </row>
+    <row r="275" spans="10:19">
+      <c r="J275"/>
+      <c r="K275"/>
+      <c r="L275"/>
+      <c r="M275"/>
+      <c r="S275" s="31"/>
+    </row>
+    <row r="276" spans="10:19">
+      <c r="J276"/>
+      <c r="K276"/>
+      <c r="L276"/>
+      <c r="M276"/>
+      <c r="S276" s="31"/>
+    </row>
+    <row r="277" spans="10:19">
+      <c r="J277"/>
+      <c r="K277"/>
+      <c r="L277"/>
+      <c r="M277"/>
+      <c r="S277" s="31"/>
+    </row>
+    <row r="278" spans="10:19">
+      <c r="J278"/>
+      <c r="K278"/>
+      <c r="L278"/>
+      <c r="M278"/>
+      <c r="S278" s="31"/>
+    </row>
+    <row r="279" spans="10:19">
+      <c r="J279"/>
+      <c r="K279"/>
+      <c r="L279"/>
+      <c r="M279"/>
+      <c r="S279" s="31"/>
+    </row>
+    <row r="280" spans="10:19">
+      <c r="J280"/>
+      <c r="K280"/>
+      <c r="L280"/>
+      <c r="M280"/>
+      <c r="S280" s="31"/>
+    </row>
+    <row r="281" spans="10:19">
+      <c r="J281"/>
+      <c r="K281"/>
+      <c r="L281"/>
+      <c r="M281"/>
+      <c r="S281" s="31"/>
+    </row>
+    <row r="282" spans="10:19">
+      <c r="J282"/>
+      <c r="K282"/>
+      <c r="L282"/>
+      <c r="M282"/>
+      <c r="S282" s="31"/>
+    </row>
+    <row r="283" spans="10:19">
+      <c r="J283"/>
+      <c r="K283"/>
+      <c r="L283"/>
+      <c r="M283"/>
+      <c r="S283" s="31"/>
+    </row>
+    <row r="284" spans="10:19">
+      <c r="J284"/>
+      <c r="K284"/>
+      <c r="L284"/>
+      <c r="M284"/>
+      <c r="S284" s="31"/>
+    </row>
+    <row r="285" spans="10:19">
+      <c r="J285"/>
+      <c r="K285"/>
+      <c r="L285"/>
+      <c r="M285"/>
+      <c r="S285" s="31"/>
+    </row>
+    <row r="286" spans="10:19">
+      <c r="J286"/>
+      <c r="K286"/>
+      <c r="L286"/>
+      <c r="M286"/>
+      <c r="S286" s="31"/>
+    </row>
+    <row r="287" spans="10:19">
+      <c r="J287"/>
+      <c r="K287"/>
+      <c r="L287"/>
+      <c r="M287"/>
+      <c r="S287" s="31"/>
+    </row>
+    <row r="288" spans="10:19">
+      <c r="J288"/>
+      <c r="K288"/>
+      <c r="L288"/>
+      <c r="M288"/>
+      <c r="S288" s="31"/>
+    </row>
+    <row r="289" spans="10:19">
+      <c r="J289"/>
+      <c r="K289"/>
+      <c r="L289"/>
+      <c r="M289"/>
+      <c r="S289" s="31"/>
+    </row>
+    <row r="290" spans="10:19">
+      <c r="J290"/>
+      <c r="K290"/>
+      <c r="L290"/>
+      <c r="M290"/>
+      <c r="S290" s="31"/>
+    </row>
+    <row r="291" spans="10:19">
+      <c r="J291"/>
+      <c r="K291"/>
+      <c r="L291"/>
+      <c r="M291"/>
+      <c r="S291" s="31"/>
+    </row>
+    <row r="292" spans="10:19">
+      <c r="J292"/>
+      <c r="K292"/>
+      <c r="L292"/>
+      <c r="M292"/>
+      <c r="S292" s="31"/>
+    </row>
+    <row r="293" spans="10:19">
+      <c r="J293"/>
+      <c r="K293"/>
+      <c r="L293"/>
+      <c r="M293"/>
+      <c r="S293" s="31"/>
+    </row>
+    <row r="294" spans="10:19">
+      <c r="J294"/>
+      <c r="K294"/>
+      <c r="L294"/>
+      <c r="M294"/>
+      <c r="S294" s="31"/>
+    </row>
+    <row r="295" spans="10:19">
+      <c r="J295"/>
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="S295" s="31"/>
+    </row>
+    <row r="296" spans="10:19">
+      <c r="J296"/>
+      <c r="K296"/>
+      <c r="L296"/>
+      <c r="M296"/>
+      <c r="S296" s="31"/>
+    </row>
+    <row r="297" spans="10:19">
+      <c r="J297"/>
+      <c r="K297"/>
+      <c r="L297"/>
+      <c r="M297"/>
+      <c r="S297" s="31"/>
+    </row>
+    <row r="298" spans="10:19">
+      <c r="J298"/>
+      <c r="K298"/>
+      <c r="L298"/>
+      <c r="M298"/>
+      <c r="S298" s="31"/>
+    </row>
+    <row r="299" spans="10:19">
+      <c r="J299"/>
+      <c r="K299"/>
+      <c r="L299"/>
+      <c r="M299"/>
+      <c r="S299" s="31"/>
+    </row>
+    <row r="300" spans="10:19">
+      <c r="J300"/>
+      <c r="K300"/>
+      <c r="L300"/>
+      <c r="M300"/>
+      <c r="S300" s="31"/>
+    </row>
+    <row r="301" spans="10:19">
+      <c r="J301"/>
+      <c r="K301"/>
+      <c r="L301"/>
+      <c r="M301"/>
+      <c r="S301" s="31"/>
+    </row>
+    <row r="302" spans="10:19">
+      <c r="J302"/>
+      <c r="K302"/>
+      <c r="L302"/>
+      <c r="M302"/>
+      <c r="S302" s="31"/>
+    </row>
+    <row r="303" spans="10:19">
+      <c r="J303"/>
+      <c r="K303"/>
+      <c r="L303"/>
+      <c r="M303"/>
+      <c r="S303" s="31"/>
+    </row>
+    <row r="304" spans="10:19">
+      <c r="J304"/>
+      <c r="K304"/>
+      <c r="L304"/>
+      <c r="M304"/>
+      <c r="S304" s="31"/>
+    </row>
+    <row r="305" spans="10:19">
+      <c r="J305"/>
+      <c r="K305"/>
+      <c r="L305"/>
+      <c r="M305"/>
+      <c r="S305" s="31"/>
+    </row>
+    <row r="306" spans="10:19">
+      <c r="J306"/>
+      <c r="K306"/>
+      <c r="L306"/>
+      <c r="M306"/>
+      <c r="S306" s="31"/>
+    </row>
+    <row r="307" spans="10:19">
+      <c r="J307"/>
+      <c r="K307"/>
+      <c r="L307"/>
+      <c r="M307"/>
+      <c r="S307" s="31"/>
+    </row>
+    <row r="308" spans="10:19">
+      <c r="J308"/>
+      <c r="K308"/>
+      <c r="L308"/>
+      <c r="M308"/>
+      <c r="S308" s="31"/>
+    </row>
+    <row r="309" spans="10:19">
+      <c r="J309"/>
+      <c r="K309"/>
+      <c r="L309"/>
+      <c r="M309"/>
+      <c r="S309" s="31"/>
+    </row>
+    <row r="310" spans="10:19">
+      <c r="J310"/>
+      <c r="K310"/>
+      <c r="L310"/>
+      <c r="M310"/>
+      <c r="S310" s="31"/>
+    </row>
+    <row r="311" spans="10:19">
+      <c r="J311"/>
+      <c r="K311"/>
+      <c r="L311"/>
+      <c r="M311"/>
+      <c r="S311" s="31"/>
+    </row>
+    <row r="312" spans="10:19">
+      <c r="J312"/>
+      <c r="K312"/>
+      <c r="L312"/>
+      <c r="M312"/>
+      <c r="S312" s="31"/>
+    </row>
+    <row r="313" spans="10:19">
+      <c r="J313"/>
+      <c r="K313"/>
+      <c r="L313"/>
+      <c r="M313"/>
+      <c r="S313" s="31"/>
+    </row>
+    <row r="314" spans="10:19">
+      <c r="J314"/>
+      <c r="K314"/>
+      <c r="L314"/>
+      <c r="M314"/>
+      <c r="S314" s="31"/>
+    </row>
+    <row r="315" spans="10:19">
+      <c r="J315"/>
+      <c r="K315"/>
+      <c r="L315"/>
+      <c r="M315"/>
+      <c r="S315" s="31"/>
+    </row>
+    <row r="316" spans="10:19">
+      <c r="J316"/>
+      <c r="K316"/>
+      <c r="L316"/>
+      <c r="M316"/>
+      <c r="S316" s="31"/>
+    </row>
+    <row r="317" spans="10:19">
+      <c r="J317"/>
+      <c r="K317"/>
+      <c r="L317"/>
+      <c r="M317"/>
+      <c r="S317" s="31"/>
+    </row>
+    <row r="318" spans="10:19">
+      <c r="J318"/>
+      <c r="K318"/>
+      <c r="L318"/>
+      <c r="M318"/>
+      <c r="S318" s="31"/>
+    </row>
+    <row r="319" spans="10:19">
+      <c r="J319"/>
+      <c r="K319"/>
+      <c r="L319"/>
+      <c r="M319"/>
+      <c r="S319" s="31"/>
+    </row>
+    <row r="320" spans="10:19">
+      <c r="J320"/>
+      <c r="K320"/>
+      <c r="L320"/>
+      <c r="M320"/>
+      <c r="S320" s="31"/>
+    </row>
+    <row r="321" spans="10:19">
+      <c r="J321"/>
+      <c r="K321"/>
+      <c r="L321"/>
+      <c r="M321"/>
+      <c r="S321" s="31"/>
+    </row>
+    <row r="322" spans="10:19">
+      <c r="J322"/>
+      <c r="K322"/>
+      <c r="L322"/>
+      <c r="M322"/>
+      <c r="S322" s="31"/>
+    </row>
+    <row r="323" spans="10:19">
+      <c r="J323"/>
+      <c r="K323"/>
+      <c r="L323"/>
+      <c r="M323"/>
+      <c r="S323" s="31"/>
+    </row>
+    <row r="324" spans="10:19">
+      <c r="J324"/>
+      <c r="K324"/>
+      <c r="L324"/>
+      <c r="M324"/>
+      <c r="S324" s="31"/>
+    </row>
+    <row r="325" spans="10:19">
+      <c r="J325"/>
+      <c r="K325"/>
+      <c r="L325"/>
+      <c r="M325"/>
+      <c r="S325" s="31"/>
+    </row>
+    <row r="326" spans="10:19">
+      <c r="J326"/>
+      <c r="K326"/>
+      <c r="L326"/>
+      <c r="M326"/>
+      <c r="S326" s="31"/>
+    </row>
+    <row r="327" spans="10:19">
+      <c r="J327"/>
+      <c r="K327"/>
+      <c r="L327"/>
+      <c r="M327"/>
+      <c r="S327" s="31"/>
+    </row>
+    <row r="328" spans="10:19">
+      <c r="J328"/>
+      <c r="K328"/>
+      <c r="L328"/>
+      <c r="M328"/>
+      <c r="S328" s="31"/>
+    </row>
+    <row r="329" spans="10:19">
+      <c r="J329"/>
+      <c r="K329"/>
+      <c r="L329"/>
+      <c r="M329"/>
+      <c r="S329" s="31"/>
+    </row>
+    <row r="330" spans="10:19">
+      <c r="J330"/>
+      <c r="K330"/>
+      <c r="L330"/>
+      <c r="M330"/>
+      <c r="S330" s="31"/>
+    </row>
+    <row r="331" spans="10:19">
+      <c r="J331"/>
+      <c r="K331"/>
+      <c r="L331"/>
+      <c r="M331"/>
+      <c r="S331" s="31"/>
+    </row>
+    <row r="332" spans="10:19">
+      <c r="J332"/>
+      <c r="K332"/>
+      <c r="L332"/>
+      <c r="M332"/>
+      <c r="S332" s="31"/>
+    </row>
+    <row r="333" spans="10:19">
+      <c r="J333"/>
+      <c r="K333"/>
+      <c r="L333"/>
+      <c r="M333"/>
+      <c r="S333" s="31"/>
+    </row>
+    <row r="334" spans="10:19">
+      <c r="J334"/>
+      <c r="K334"/>
+      <c r="L334"/>
+      <c r="M334"/>
+      <c r="S334" s="31"/>
+    </row>
+    <row r="335" spans="10:19">
+      <c r="J335"/>
+      <c r="K335"/>
+      <c r="L335"/>
+      <c r="M335"/>
+      <c r="S335" s="31"/>
+    </row>
+    <row r="336" spans="10:19">
+      <c r="J336"/>
+      <c r="K336"/>
+      <c r="L336"/>
+      <c r="M336"/>
+      <c r="S336" s="31"/>
+    </row>
+    <row r="337" spans="10:19">
+      <c r="J337"/>
+      <c r="K337"/>
+      <c r="L337"/>
+      <c r="M337"/>
+      <c r="S337" s="31"/>
+    </row>
+    <row r="338" spans="10:19">
+      <c r="J338"/>
+      <c r="K338"/>
+      <c r="L338"/>
+      <c r="M338"/>
+      <c r="S338" s="31"/>
+    </row>
+    <row r="339" spans="10:19">
+      <c r="J339"/>
+      <c r="K339"/>
+      <c r="L339"/>
+      <c r="M339"/>
+      <c r="S339" s="31"/>
+    </row>
+    <row r="340" spans="10:19">
+      <c r="J340"/>
+      <c r="K340"/>
+      <c r="L340"/>
+      <c r="M340"/>
+      <c r="S340" s="31"/>
+    </row>
+    <row r="341" spans="10:19">
+      <c r="J341"/>
+      <c r="K341"/>
+      <c r="L341"/>
+      <c r="M341"/>
+      <c r="S341" s="31"/>
+    </row>
+    <row r="342" spans="10:19">
+      <c r="J342"/>
+      <c r="K342"/>
+      <c r="L342"/>
+      <c r="M342"/>
+      <c r="S342" s="31"/>
+    </row>
+    <row r="343" spans="10:19">
+      <c r="J343"/>
+      <c r="K343"/>
+      <c r="L343"/>
+      <c r="M343"/>
+      <c r="S343" s="31"/>
+    </row>
+    <row r="344" spans="10:19">
+      <c r="J344"/>
+      <c r="K344"/>
+      <c r="L344"/>
+      <c r="M344"/>
+      <c r="S344" s="31"/>
+    </row>
+    <row r="345" spans="10:19">
+      <c r="J345"/>
+      <c r="K345"/>
+      <c r="L345"/>
+      <c r="M345"/>
+      <c r="S345" s="31"/>
+    </row>
+    <row r="346" spans="10:19">
+      <c r="J346"/>
+      <c r="K346"/>
+      <c r="L346"/>
+      <c r="M346"/>
+      <c r="S346" s="31"/>
+    </row>
+    <row r="347" spans="10:19">
+      <c r="J347"/>
+      <c r="K347"/>
+      <c r="L347"/>
+      <c r="M347"/>
+      <c r="S347" s="31"/>
+    </row>
+    <row r="348" spans="10:19">
+      <c r="J348"/>
+      <c r="K348"/>
+      <c r="L348"/>
+      <c r="M348"/>
+      <c r="S348" s="31"/>
+    </row>
+    <row r="349" spans="10:19">
+      <c r="J349"/>
+      <c r="K349"/>
+      <c r="L349"/>
+      <c r="M349"/>
+      <c r="S349" s="31"/>
+    </row>
+    <row r="350" spans="10:19">
+      <c r="J350"/>
+      <c r="K350"/>
+      <c r="L350"/>
+      <c r="M350"/>
+      <c r="S350" s="31"/>
+    </row>
+    <row r="351" spans="10:19">
+      <c r="J351"/>
+      <c r="K351"/>
+      <c r="L351"/>
+      <c r="M351"/>
+      <c r="S351" s="31"/>
+    </row>
+    <row r="352" spans="10:19">
+      <c r="J352"/>
+      <c r="K352"/>
+      <c r="L352"/>
+      <c r="M352"/>
+      <c r="S352" s="31"/>
+    </row>
+    <row r="353" spans="10:19">
+      <c r="J353"/>
+      <c r="K353"/>
+      <c r="L353"/>
+      <c r="M353"/>
+      <c r="S353" s="31"/>
+    </row>
+    <row r="354" spans="10:19">
+      <c r="J354"/>
+      <c r="K354"/>
+      <c r="L354"/>
+      <c r="M354"/>
+      <c r="S354" s="31"/>
+    </row>
+    <row r="355" spans="10:19">
+      <c r="J355"/>
+      <c r="K355"/>
+      <c r="L355"/>
+      <c r="M355"/>
+      <c r="S355" s="31"/>
+    </row>
+    <row r="356" spans="10:19">
+      <c r="J356"/>
+      <c r="K356"/>
+      <c r="L356"/>
+      <c r="M356"/>
+      <c r="S356" s="31"/>
+    </row>
+    <row r="357" spans="10:19">
+      <c r="J357"/>
+      <c r="K357"/>
+      <c r="L357"/>
+      <c r="M357"/>
+      <c r="S357" s="31"/>
+    </row>
+    <row r="358" spans="10:19">
+      <c r="J358"/>
+      <c r="K358"/>
+      <c r="L358"/>
+      <c r="M358"/>
+      <c r="S358" s="31"/>
+    </row>
+    <row r="359" spans="10:19">
+      <c r="J359"/>
+      <c r="K359"/>
+      <c r="L359"/>
+      <c r="M359"/>
+      <c r="S359" s="31"/>
+    </row>
+    <row r="360" spans="10:19">
+      <c r="J360"/>
+      <c r="K360"/>
+      <c r="L360"/>
+      <c r="M360"/>
+      <c r="S360" s="31"/>
+    </row>
+    <row r="361" spans="10:19">
+      <c r="J361"/>
+      <c r="K361"/>
+      <c r="L361"/>
+      <c r="M361"/>
+      <c r="S361" s="31"/>
+    </row>
+    <row r="362" spans="10:19">
+      <c r="J362"/>
+      <c r="K362"/>
+      <c r="L362"/>
+      <c r="M362"/>
+      <c r="S362" s="31"/>
+    </row>
+    <row r="363" spans="10:19">
+      <c r="J363"/>
+      <c r="K363"/>
+      <c r="L363"/>
+      <c r="M363"/>
+      <c r="S363" s="31"/>
+    </row>
+    <row r="364" spans="10:19">
+      <c r="J364"/>
+      <c r="K364"/>
+      <c r="L364"/>
+      <c r="M364"/>
+      <c r="S364" s="31"/>
+    </row>
+    <row r="365" spans="10:19">
+      <c r="J365"/>
+      <c r="K365"/>
+      <c r="L365"/>
+      <c r="M365"/>
+      <c r="S365" s="31"/>
+    </row>
+    <row r="366" spans="10:19">
+      <c r="J366"/>
+      <c r="K366"/>
+      <c r="L366"/>
+      <c r="M366"/>
+      <c r="S366" s="31"/>
+    </row>
+    <row r="367" spans="10:19">
+      <c r="J367"/>
+      <c r="K367"/>
+      <c r="L367"/>
+      <c r="M367"/>
+      <c r="S367" s="31"/>
+    </row>
+    <row r="368" spans="10:19">
+      <c r="J368"/>
+      <c r="K368"/>
+      <c r="L368"/>
+      <c r="M368"/>
+      <c r="S368" s="31"/>
+    </row>
+    <row r="369" spans="10:19">
+      <c r="J369"/>
+      <c r="K369"/>
+      <c r="L369"/>
+      <c r="M369"/>
+      <c r="S369" s="31"/>
+    </row>
+    <row r="370" spans="10:19">
+      <c r="J370"/>
+      <c r="K370"/>
+      <c r="L370"/>
+      <c r="M370"/>
+      <c r="S370" s="31"/>
+    </row>
+    <row r="371" spans="10:19">
+      <c r="J371"/>
+      <c r="K371"/>
+      <c r="L371"/>
+      <c r="M371"/>
+      <c r="S371" s="31"/>
+    </row>
+    <row r="372" spans="10:19">
+      <c r="J372"/>
+      <c r="K372"/>
+      <c r="L372"/>
+      <c r="M372"/>
+      <c r="S372" s="31"/>
+    </row>
+    <row r="373" spans="10:19">
+      <c r="J373"/>
+      <c r="K373"/>
+      <c r="L373"/>
+      <c r="M373"/>
+      <c r="S373" s="31"/>
+    </row>
+    <row r="374" spans="10:19">
+      <c r="J374"/>
+      <c r="K374"/>
+      <c r="L374"/>
+      <c r="M374"/>
+      <c r="S374" s="31"/>
+    </row>
+    <row r="375" spans="10:19">
+      <c r="J375"/>
+      <c r="K375"/>
+      <c r="L375"/>
+      <c r="M375"/>
+      <c r="S375" s="31"/>
+    </row>
+    <row r="376" spans="10:19">
+      <c r="J376"/>
+      <c r="K376"/>
+      <c r="L376"/>
+      <c r="M376"/>
+      <c r="S376" s="31"/>
+    </row>
+    <row r="377" spans="10:19">
+      <c r="J377"/>
+      <c r="K377"/>
+      <c r="L377"/>
+      <c r="M377"/>
+      <c r="S377" s="31"/>
+    </row>
+    <row r="378" spans="10:19">
+      <c r="J378"/>
+      <c r="K378"/>
+      <c r="L378"/>
+      <c r="M378"/>
+      <c r="S378" s="31"/>
+    </row>
+    <row r="379" spans="10:19">
+      <c r="J379"/>
+      <c r="K379"/>
+      <c r="L379"/>
+      <c r="M379"/>
+      <c r="S379" s="31"/>
+    </row>
+    <row r="380" spans="10:19">
+      <c r="J380"/>
+      <c r="K380"/>
+      <c r="L380"/>
+      <c r="M380"/>
+      <c r="S380" s="31"/>
+    </row>
+    <row r="381" spans="10:19">
+      <c r="J381"/>
+      <c r="K381"/>
+      <c r="L381"/>
+      <c r="M381"/>
+      <c r="S381" s="31"/>
+    </row>
+    <row r="382" spans="10:19">
+      <c r="J382"/>
+      <c r="K382"/>
+      <c r="L382"/>
+      <c r="M382"/>
+      <c r="S382" s="31"/>
+    </row>
+    <row r="383" spans="10:19">
+      <c r="J383"/>
+      <c r="K383"/>
+      <c r="L383"/>
+      <c r="M383"/>
+      <c r="S383" s="31"/>
+    </row>
+    <row r="384" spans="10:19">
+      <c r="J384"/>
+      <c r="K384"/>
+      <c r="L384"/>
+      <c r="M384"/>
+      <c r="S384" s="31"/>
+    </row>
+    <row r="385" spans="10:19">
+      <c r="J385"/>
+      <c r="K385"/>
+      <c r="L385"/>
+      <c r="M385"/>
+      <c r="S385" s="31"/>
+    </row>
+    <row r="386" spans="10:19">
+      <c r="J386"/>
+      <c r="K386"/>
+      <c r="L386"/>
+      <c r="M386"/>
+      <c r="S386" s="31"/>
+    </row>
+    <row r="387" spans="10:19">
+      <c r="J387"/>
+      <c r="K387"/>
+      <c r="L387"/>
+      <c r="M387"/>
+      <c r="S387" s="31"/>
+    </row>
+    <row r="388" spans="10:19">
+      <c r="J388"/>
+      <c r="K388"/>
+      <c r="L388"/>
+      <c r="M388"/>
+      <c r="S388" s="31"/>
+    </row>
+    <row r="389" spans="10:19">
+      <c r="J389"/>
+      <c r="K389"/>
+      <c r="L389"/>
+      <c r="M389"/>
+      <c r="S389" s="31"/>
+    </row>
+    <row r="390" spans="10:19">
+      <c r="J390"/>
+      <c r="K390"/>
+      <c r="L390"/>
+      <c r="M390"/>
+      <c r="S390" s="31"/>
+    </row>
+    <row r="391" spans="10:19">
+      <c r="J391"/>
+      <c r="K391"/>
+      <c r="L391"/>
+      <c r="M391"/>
+      <c r="S391" s="31"/>
+    </row>
+    <row r="392" spans="10:19">
+      <c r="J392"/>
+      <c r="K392"/>
+      <c r="L392"/>
+      <c r="M392"/>
+      <c r="S392" s="31"/>
+    </row>
+    <row r="393" spans="10:19">
+      <c r="J393"/>
+      <c r="K393"/>
+      <c r="L393"/>
+      <c r="M393"/>
+      <c r="S393" s="31"/>
+    </row>
+    <row r="394" spans="10:19">
+      <c r="J394"/>
+      <c r="K394"/>
+      <c r="L394"/>
+      <c r="M394"/>
+      <c r="S394" s="31"/>
+    </row>
+    <row r="395" spans="10:19">
+      <c r="J395"/>
+      <c r="K395"/>
+      <c r="L395"/>
+      <c r="M395"/>
+      <c r="S395" s="31"/>
+    </row>
+    <row r="396" spans="10:19">
+      <c r="J396"/>
+      <c r="K396"/>
+      <c r="L396"/>
+      <c r="M396"/>
+      <c r="S396" s="31"/>
+    </row>
+    <row r="397" spans="10:19">
+      <c r="J397"/>
+      <c r="K397"/>
+      <c r="L397"/>
+      <c r="M397"/>
+      <c r="S397" s="31"/>
+    </row>
+    <row r="398" spans="10:19">
+      <c r="J398"/>
+      <c r="K398"/>
+      <c r="L398"/>
+      <c r="M398"/>
+      <c r="S398" s="31"/>
+    </row>
+    <row r="399" spans="10:19">
+      <c r="J399"/>
+      <c r="K399"/>
+      <c r="L399"/>
+      <c r="M399"/>
+      <c r="S399" s="31"/>
+    </row>
+    <row r="400" spans="10:19">
+      <c r="J400"/>
+      <c r="K400"/>
+      <c r="L400"/>
+      <c r="M400"/>
+      <c r="S400" s="31"/>
+    </row>
+    <row r="401" spans="10:19">
+      <c r="J401"/>
+      <c r="K401"/>
+      <c r="L401"/>
+      <c r="M401"/>
+      <c r="S401" s="31"/>
+    </row>
+    <row r="402" spans="10:19">
+      <c r="J402"/>
+      <c r="K402"/>
+      <c r="L402"/>
+      <c r="M402"/>
+      <c r="S402" s="31"/>
+    </row>
+    <row r="403" spans="10:19">
+      <c r="J403"/>
+      <c r="K403"/>
+      <c r="L403"/>
+      <c r="M403"/>
+      <c r="S403" s="31"/>
+    </row>
+    <row r="404" spans="10:19">
+      <c r="J404"/>
+      <c r="K404"/>
+      <c r="L404"/>
+      <c r="M404"/>
+      <c r="S404" s="31"/>
+    </row>
+    <row r="405" spans="10:19">
+      <c r="J405"/>
+      <c r="K405"/>
+      <c r="L405"/>
+      <c r="M405"/>
+      <c r="S405" s="31"/>
+    </row>
+    <row r="406" spans="10:19">
+      <c r="J406"/>
+      <c r="K406"/>
+      <c r="L406"/>
+      <c r="M406"/>
+      <c r="S406" s="31"/>
+    </row>
+    <row r="407" spans="10:19">
+      <c r="J407"/>
+      <c r="K407"/>
+      <c r="L407"/>
+      <c r="M407"/>
+      <c r="S407" s="31"/>
+    </row>
+    <row r="408" spans="10:19">
+      <c r="J408"/>
+      <c r="K408"/>
+      <c r="L408"/>
+      <c r="M408"/>
+      <c r="S408" s="31"/>
+    </row>
+    <row r="409" spans="10:19">
+      <c r="J409"/>
+      <c r="K409"/>
+      <c r="L409"/>
+      <c r="M409"/>
+      <c r="S409" s="31"/>
+    </row>
+    <row r="410" spans="10:19">
+      <c r="J410"/>
+      <c r="K410"/>
+      <c r="L410"/>
+      <c r="M410"/>
+      <c r="S410" s="31"/>
+    </row>
+    <row r="411" spans="10:19">
+      <c r="J411"/>
+      <c r="K411"/>
+      <c r="L411"/>
+      <c r="M411"/>
+      <c r="S411" s="31"/>
+    </row>
+    <row r="412" spans="10:19">
+      <c r="J412"/>
+      <c r="K412"/>
+      <c r="L412"/>
+      <c r="M412"/>
+      <c r="S412" s="31"/>
+    </row>
+    <row r="413" spans="10:19">
+      <c r="J413"/>
+      <c r="K413"/>
+      <c r="L413"/>
+      <c r="M413"/>
+      <c r="S413" s="31"/>
+    </row>
+    <row r="414" spans="10:19">
+      <c r="J414"/>
+      <c r="K414"/>
+      <c r="L414"/>
+      <c r="M414"/>
+      <c r="S414" s="31"/>
+    </row>
+    <row r="415" spans="10:19">
+      <c r="J415"/>
+      <c r="K415"/>
+      <c r="L415"/>
+      <c r="M415"/>
+      <c r="S415" s="31"/>
+    </row>
+    <row r="416" spans="10:19">
+      <c r="J416"/>
+      <c r="K416"/>
+      <c r="L416"/>
+      <c r="M416"/>
+      <c r="S416" s="31"/>
+    </row>
+    <row r="417" spans="10:19">
+      <c r="J417"/>
+      <c r="K417"/>
+      <c r="L417"/>
+      <c r="M417"/>
+      <c r="S417" s="31"/>
+    </row>
+    <row r="418" spans="10:19">
+      <c r="J418"/>
+      <c r="K418"/>
+      <c r="L418"/>
+      <c r="M418"/>
+      <c r="S418" s="31"/>
+    </row>
+    <row r="419" spans="10:19">
+      <c r="J419"/>
+      <c r="K419"/>
+      <c r="L419"/>
+      <c r="M419"/>
+      <c r="S419" s="31"/>
+    </row>
+    <row r="420" spans="10:19">
+      <c r="J420"/>
+      <c r="K420"/>
+      <c r="L420"/>
+      <c r="M420"/>
+      <c r="S420" s="31"/>
+    </row>
+    <row r="421" spans="10:19">
+      <c r="J421"/>
+      <c r="K421"/>
+      <c r="L421"/>
+      <c r="M421"/>
+      <c r="S421" s="31"/>
+    </row>
+    <row r="422" spans="10:19">
+      <c r="J422"/>
+      <c r="K422"/>
+      <c r="L422"/>
+      <c r="M422"/>
+      <c r="S422" s="31"/>
+    </row>
+    <row r="423" spans="10:19">
+      <c r="J423"/>
+      <c r="K423"/>
+      <c r="L423"/>
+      <c r="M423"/>
+      <c r="S423" s="31"/>
+    </row>
+    <row r="424" spans="10:19">
+      <c r="J424"/>
+      <c r="K424"/>
+      <c r="L424"/>
+      <c r="M424"/>
+      <c r="S424" s="31"/>
+    </row>
+    <row r="425" spans="10:19">
+      <c r="J425"/>
+      <c r="K425"/>
+      <c r="L425"/>
+      <c r="M425"/>
+      <c r="S425" s="31"/>
+    </row>
+    <row r="426" spans="10:19">
+      <c r="J426"/>
+      <c r="K426"/>
+      <c r="L426"/>
+      <c r="M426"/>
+      <c r="S426" s="31"/>
+    </row>
+    <row r="427" spans="10:19">
+      <c r="J427"/>
+      <c r="K427"/>
+      <c r="L427"/>
+      <c r="M427"/>
+      <c r="S427" s="31"/>
+    </row>
+    <row r="428" spans="10:19">
+      <c r="J428"/>
+      <c r="K428"/>
+      <c r="L428"/>
+      <c r="M428"/>
+      <c r="S428" s="31"/>
+    </row>
+    <row r="429" spans="10:19">
+      <c r="J429"/>
+      <c r="K429"/>
+      <c r="L429"/>
+      <c r="M429"/>
+      <c r="S429" s="31"/>
+    </row>
+    <row r="430" spans="10:19">
+      <c r="J430"/>
+      <c r="K430"/>
+      <c r="L430"/>
+      <c r="M430"/>
+      <c r="S430" s="31"/>
+    </row>
+    <row r="431" spans="10:19">
+      <c r="J431"/>
+      <c r="K431"/>
+      <c r="L431"/>
+      <c r="M431"/>
+      <c r="S431" s="31"/>
+    </row>
+    <row r="432" spans="10:19">
+      <c r="J432"/>
+      <c r="K432"/>
+      <c r="L432"/>
+      <c r="M432"/>
+      <c r="S432" s="31"/>
+    </row>
+    <row r="433" spans="10:19">
+      <c r="J433"/>
+      <c r="K433"/>
+      <c r="L433"/>
+      <c r="M433"/>
+      <c r="S433" s="31"/>
+    </row>
+    <row r="434" spans="10:19">
+      <c r="J434"/>
+      <c r="K434"/>
+      <c r="L434"/>
+      <c r="M434"/>
+      <c r="S434" s="31"/>
+    </row>
+    <row r="435" spans="10:19">
+      <c r="J435"/>
+      <c r="K435"/>
+      <c r="L435"/>
+      <c r="M435"/>
+      <c r="S435" s="31"/>
+    </row>
+    <row r="436" spans="10:19">
+      <c r="J436"/>
+      <c r="K436"/>
+      <c r="L436"/>
+      <c r="M436"/>
+      <c r="S436" s="31"/>
+    </row>
+    <row r="437" spans="10:19">
+      <c r="J437"/>
+      <c r="K437"/>
+      <c r="L437"/>
+      <c r="M437"/>
+      <c r="S437" s="31"/>
+    </row>
+    <row r="438" spans="10:19">
+      <c r="J438"/>
+      <c r="K438"/>
+      <c r="L438"/>
+      <c r="M438"/>
+      <c r="S438" s="31"/>
+    </row>
+    <row r="439" spans="10:19">
+      <c r="J439"/>
+      <c r="K439"/>
+      <c r="L439"/>
+      <c r="M439"/>
+      <c r="S439" s="31"/>
+    </row>
+    <row r="440" spans="10:19">
+      <c r="J440"/>
+      <c r="K440"/>
+      <c r="L440"/>
+      <c r="M440"/>
+      <c r="S440" s="31"/>
+    </row>
+    <row r="441" spans="10:19">
+      <c r="J441"/>
+      <c r="K441"/>
+      <c r="L441"/>
+      <c r="M441"/>
+      <c r="S441" s="31"/>
+    </row>
+    <row r="442" spans="10:19">
+      <c r="J442"/>
+      <c r="K442"/>
+      <c r="L442"/>
+      <c r="M442"/>
+      <c r="S442" s="31"/>
+    </row>
+    <row r="443" spans="10:19">
+      <c r="J443"/>
+      <c r="K443"/>
+      <c r="L443"/>
+      <c r="M443"/>
+      <c r="S443" s="31"/>
+    </row>
+    <row r="444" spans="10:19">
+      <c r="J444"/>
+      <c r="K444"/>
+      <c r="L444"/>
+      <c r="M444"/>
+      <c r="S444" s="31"/>
+    </row>
+    <row r="445" spans="10:19">
+      <c r="J445"/>
+      <c r="K445"/>
+      <c r="L445"/>
+      <c r="M445"/>
+      <c r="S445" s="31"/>
+    </row>
+    <row r="446" spans="10:19">
+      <c r="J446"/>
+      <c r="K446"/>
+      <c r="L446"/>
+      <c r="M446"/>
+      <c r="S446" s="31"/>
+    </row>
+    <row r="447" spans="10:19">
+      <c r="J447"/>
+      <c r="K447"/>
+      <c r="L447"/>
+      <c r="M447"/>
+      <c r="S447" s="31"/>
+    </row>
+    <row r="448" spans="10:19">
+      <c r="J448"/>
+      <c r="K448"/>
+      <c r="L448"/>
+      <c r="M448"/>
+      <c r="S448" s="31"/>
+    </row>
+    <row r="449" spans="10:19">
+      <c r="J449"/>
+      <c r="K449"/>
+      <c r="L449"/>
+      <c r="M449"/>
+      <c r="S449" s="31"/>
+    </row>
+    <row r="450" spans="10:19">
+      <c r="J450"/>
+      <c r="K450"/>
+      <c r="L450"/>
+      <c r="M450"/>
+      <c r="S450" s="31"/>
+    </row>
+    <row r="451" spans="10:19">
+      <c r="J451"/>
+      <c r="K451"/>
+      <c r="L451"/>
+      <c r="M451"/>
+      <c r="S451" s="31"/>
+    </row>
+    <row r="452" spans="10:19">
+      <c r="J452"/>
+      <c r="K452"/>
+      <c r="L452"/>
+      <c r="M452"/>
+      <c r="S452" s="31"/>
+    </row>
+    <row r="453" spans="10:19">
+      <c r="J453"/>
+      <c r="K453"/>
+      <c r="L453"/>
+      <c r="M453"/>
+      <c r="S453" s="31"/>
+    </row>
+    <row r="454" spans="10:19">
+      <c r="J454"/>
+      <c r="K454"/>
+      <c r="L454"/>
+      <c r="M454"/>
+      <c r="S454" s="31"/>
+    </row>
+    <row r="455" spans="10:19">
+      <c r="J455"/>
+      <c r="K455"/>
+      <c r="L455"/>
+      <c r="M455"/>
+      <c r="S455" s="31"/>
+    </row>
+    <row r="456" spans="10:19">
+      <c r="J456"/>
+      <c r="K456"/>
+      <c r="L456"/>
+      <c r="M456"/>
+      <c r="S456" s="31"/>
+    </row>
+    <row r="457" spans="10:19">
+      <c r="J457"/>
+      <c r="K457"/>
+      <c r="L457"/>
+      <c r="M457"/>
+      <c r="S457" s="31"/>
+    </row>
+    <row r="458" spans="10:19">
+      <c r="J458"/>
+      <c r="K458"/>
+      <c r="L458"/>
+      <c r="M458"/>
+      <c r="S458" s="31"/>
+    </row>
+    <row r="459" spans="10:19">
+      <c r="J459"/>
+      <c r="K459"/>
+      <c r="L459"/>
+      <c r="M459"/>
+      <c r="S459" s="31"/>
+    </row>
+    <row r="460" spans="10:19">
+      <c r="J460"/>
+      <c r="K460"/>
+      <c r="L460"/>
+      <c r="M460"/>
+      <c r="S460" s="31"/>
+    </row>
+    <row r="461" spans="10:19">
+      <c r="J461"/>
+      <c r="K461"/>
+      <c r="L461"/>
+      <c r="M461"/>
+      <c r="S461" s="31"/>
+    </row>
+    <row r="462" spans="10:19">
+      <c r="J462"/>
+      <c r="K462"/>
+      <c r="L462"/>
+      <c r="M462"/>
+      <c r="S462" s="31"/>
+    </row>
+    <row r="463" spans="10:19">
+      <c r="J463"/>
+      <c r="K463"/>
+      <c r="L463"/>
+      <c r="M463"/>
+      <c r="S463" s="31"/>
+    </row>
+    <row r="464" spans="10:19">
+      <c r="J464"/>
+      <c r="K464"/>
+      <c r="L464"/>
+      <c r="M464"/>
+      <c r="S464" s="31"/>
+    </row>
+    <row r="465" spans="10:19">
+      <c r="J465"/>
+      <c r="K465"/>
+      <c r="L465"/>
+      <c r="M465"/>
+      <c r="S465" s="31"/>
+    </row>
+    <row r="466" spans="10:19">
+      <c r="J466"/>
+      <c r="K466"/>
+      <c r="L466"/>
+      <c r="M466"/>
+      <c r="S466" s="31"/>
+    </row>
+    <row r="467" spans="10:19">
+      <c r="J467"/>
+      <c r="K467"/>
+      <c r="L467"/>
+      <c r="M467"/>
+      <c r="S467" s="31"/>
+    </row>
+    <row r="468" spans="10:19">
+      <c r="J468"/>
+      <c r="K468"/>
+      <c r="L468"/>
+      <c r="M468"/>
+      <c r="S468" s="31"/>
+    </row>
+    <row r="469" spans="10:19">
+      <c r="J469"/>
+      <c r="K469"/>
+      <c r="L469"/>
+      <c r="M469"/>
+      <c r="S469" s="31"/>
+    </row>
+    <row r="470" spans="10:19">
+      <c r="J470"/>
+      <c r="K470"/>
+      <c r="L470"/>
+      <c r="M470"/>
+      <c r="S470" s="31"/>
+    </row>
+    <row r="471" spans="10:19">
+      <c r="J471"/>
+      <c r="K471"/>
+      <c r="L471"/>
+      <c r="M471"/>
+      <c r="S471" s="31"/>
+    </row>
+    <row r="472" spans="10:19">
+      <c r="J472"/>
+      <c r="K472"/>
+      <c r="L472"/>
+      <c r="M472"/>
+      <c r="S472" s="31"/>
+    </row>
+    <row r="473" spans="10:19">
+      <c r="J473"/>
+      <c r="K473"/>
+      <c r="L473"/>
+      <c r="M473"/>
+      <c r="S473" s="31"/>
+    </row>
+    <row r="474" spans="10:19">
+      <c r="J474"/>
+      <c r="K474"/>
+      <c r="L474"/>
+      <c r="M474"/>
+      <c r="S474" s="31"/>
+    </row>
+    <row r="475" spans="10:19">
+      <c r="J475"/>
+      <c r="K475"/>
+      <c r="L475"/>
+      <c r="M475"/>
+      <c r="S475" s="31"/>
+    </row>
+    <row r="476" spans="10:19">
+      <c r="J476"/>
+      <c r="K476"/>
+      <c r="L476"/>
+      <c r="M476"/>
+      <c r="S476" s="31"/>
+    </row>
+    <row r="477" spans="10:19">
+      <c r="J477"/>
+      <c r="K477"/>
+      <c r="L477"/>
+      <c r="M477"/>
+      <c r="S477" s="31"/>
+    </row>
+    <row r="478" spans="10:19">
+      <c r="J478"/>
+      <c r="K478"/>
+      <c r="L478"/>
+      <c r="M478"/>
+      <c r="S478" s="31"/>
+    </row>
+    <row r="479" spans="10:19">
+      <c r="J479"/>
+      <c r="K479"/>
+      <c r="L479"/>
+      <c r="M479"/>
+      <c r="S479" s="31"/>
+    </row>
+    <row r="480" spans="10:19">
+      <c r="J480"/>
+      <c r="K480"/>
+      <c r="L480"/>
+      <c r="M480"/>
+      <c r="S480" s="31"/>
+    </row>
+    <row r="481" spans="10:19">
+      <c r="J481"/>
+      <c r="K481"/>
+      <c r="L481"/>
+      <c r="M481"/>
+      <c r="S481" s="31"/>
+    </row>
+    <row r="482" spans="10:19">
+      <c r="J482"/>
+      <c r="K482"/>
+      <c r="L482"/>
+      <c r="M482"/>
+      <c r="S482" s="31"/>
+    </row>
+    <row r="483" spans="10:19">
+      <c r="J483"/>
+      <c r="K483"/>
+      <c r="L483"/>
+      <c r="M483"/>
+      <c r="S483" s="31"/>
+    </row>
+    <row r="484" spans="10:19">
+      <c r="J484"/>
+      <c r="K484"/>
+      <c r="L484"/>
+      <c r="M484"/>
+      <c r="S484" s="31"/>
+    </row>
+    <row r="485" spans="10:19">
+      <c r="J485"/>
+      <c r="K485"/>
+      <c r="L485"/>
+      <c r="M485"/>
+      <c r="S485" s="31"/>
+    </row>
+    <row r="486" spans="10:19">
+      <c r="J486"/>
+      <c r="K486"/>
+      <c r="L486"/>
+      <c r="M486"/>
+      <c r="S486" s="31"/>
+    </row>
+    <row r="487" spans="10:19">
+      <c r="J487"/>
+      <c r="K487"/>
+      <c r="L487"/>
+      <c r="M487"/>
+      <c r="S487" s="31"/>
+    </row>
+    <row r="488" spans="10:19">
+      <c r="J488"/>
+      <c r="K488"/>
+      <c r="L488"/>
+      <c r="M488"/>
+      <c r="S488" s="31"/>
+    </row>
+    <row r="489" spans="10:19">
+      <c r="J489"/>
+      <c r="K489"/>
+      <c r="L489"/>
+      <c r="M489"/>
+      <c r="S489" s="31"/>
+    </row>
+    <row r="490" spans="10:19">
+      <c r="J490"/>
+      <c r="K490"/>
+      <c r="L490"/>
+      <c r="M490"/>
+      <c r="S490" s="31"/>
+    </row>
+    <row r="491" spans="10:19">
+      <c r="J491"/>
+      <c r="K491"/>
+      <c r="L491"/>
+      <c r="M491"/>
+      <c r="S491" s="31"/>
+    </row>
+    <row r="492" spans="10:19">
+      <c r="J492"/>
+      <c r="K492"/>
+      <c r="L492"/>
+      <c r="M492"/>
+      <c r="S492" s="31"/>
+    </row>
+    <row r="493" spans="10:19">
+      <c r="J493"/>
+      <c r="K493"/>
+      <c r="L493"/>
+      <c r="M493"/>
+      <c r="S493" s="31"/>
+    </row>
+    <row r="494" spans="10:19">
+      <c r="J494"/>
+      <c r="K494"/>
+      <c r="L494"/>
+      <c r="M494"/>
+      <c r="S494" s="31"/>
+    </row>
+    <row r="495" spans="10:19">
+      <c r="J495"/>
+      <c r="K495"/>
+      <c r="L495"/>
+      <c r="M495"/>
+      <c r="S495" s="31"/>
+    </row>
+    <row r="496" spans="10:19">
+      <c r="J496"/>
+      <c r="K496"/>
+      <c r="L496"/>
+      <c r="M496"/>
+      <c r="S496" s="31"/>
+    </row>
+    <row r="497" spans="10:19">
+      <c r="J497"/>
+      <c r="K497"/>
+      <c r="L497"/>
+      <c r="M497"/>
+      <c r="S497" s="31"/>
+    </row>
+    <row r="498" spans="10:19">
+      <c r="J498"/>
+      <c r="K498"/>
+      <c r="L498"/>
+      <c r="M498"/>
+      <c r="S498" s="31"/>
+    </row>
+    <row r="499" spans="10:19">
+      <c r="J499"/>
+      <c r="K499"/>
+      <c r="L499"/>
+      <c r="M499"/>
+      <c r="S499" s="31"/>
+    </row>
+    <row r="500" spans="10:19">
+      <c r="J500"/>
+      <c r="K500"/>
+      <c r="L500"/>
+      <c r="M500"/>
+      <c r="S500" s="31"/>
+    </row>
+    <row r="501" spans="10:19">
+      <c r="J501"/>
+      <c r="K501"/>
+      <c r="L501"/>
+      <c r="M501"/>
+      <c r="S501" s="31"/>
+    </row>
+    <row r="502" spans="10:19">
+      <c r="J502"/>
+      <c r="K502"/>
+      <c r="L502"/>
+      <c r="M502"/>
+      <c r="S502" s="31"/>
+    </row>
+    <row r="503" spans="10:19">
+      <c r="J503"/>
+      <c r="K503"/>
+      <c r="L503"/>
+      <c r="M503"/>
+      <c r="S503" s="31"/>
+    </row>
+    <row r="504" spans="10:19">
+      <c r="J504"/>
+      <c r="K504"/>
+      <c r="L504"/>
+      <c r="M504"/>
+      <c r="S504" s="31"/>
+    </row>
+    <row r="505" spans="10:19">
+      <c r="J505"/>
+      <c r="K505"/>
+      <c r="L505"/>
+      <c r="M505"/>
+      <c r="S505" s="31"/>
+    </row>
+    <row r="506" spans="10:19">
+      <c r="J506"/>
+      <c r="K506"/>
+      <c r="L506"/>
+      <c r="M506"/>
+      <c r="S506" s="31"/>
+    </row>
+    <row r="507" spans="10:19">
+      <c r="J507"/>
+      <c r="K507"/>
+      <c r="L507"/>
+      <c r="M507"/>
+      <c r="S507" s="31"/>
+    </row>
+    <row r="508" spans="10:19">
+      <c r="J508"/>
+      <c r="K508"/>
+      <c r="L508"/>
+      <c r="M508"/>
+      <c r="S508" s="31"/>
+    </row>
+    <row r="509" spans="10:19">
+      <c r="J509"/>
+      <c r="K509"/>
+      <c r="L509"/>
+      <c r="M509"/>
+      <c r="S509" s="31"/>
+    </row>
+    <row r="510" spans="10:19">
+      <c r="J510"/>
+      <c r="K510"/>
+      <c r="L510"/>
+      <c r="M510"/>
+      <c r="S510" s="31"/>
+    </row>
+    <row r="511" spans="10:19">
+      <c r="J511"/>
+      <c r="K511"/>
+      <c r="L511"/>
+      <c r="M511"/>
+      <c r="S511" s="31"/>
+    </row>
+    <row r="512" spans="10:19">
+      <c r="J512"/>
+      <c r="K512"/>
+      <c r="L512"/>
+      <c r="M512"/>
+      <c r="S512" s="31"/>
+    </row>
+    <row r="513" spans="10:19">
+      <c r="J513"/>
+      <c r="K513"/>
+      <c r="L513"/>
+      <c r="M513"/>
+      <c r="S513" s="31"/>
+    </row>
+    <row r="514" spans="10:19">
+      <c r="J514"/>
+      <c r="K514"/>
+      <c r="L514"/>
+      <c r="M514"/>
+      <c r="S514" s="31"/>
+    </row>
+    <row r="515" spans="10:19">
+      <c r="J515"/>
+      <c r="K515"/>
+      <c r="L515"/>
+      <c r="M515"/>
+      <c r="S515" s="31"/>
+    </row>
+    <row r="516" spans="10:19">
+      <c r="J516"/>
+      <c r="K516"/>
+      <c r="L516"/>
+      <c r="M516"/>
+      <c r="S516" s="31"/>
+    </row>
+    <row r="517" spans="10:19">
+      <c r="J517"/>
+      <c r="K517"/>
+      <c r="L517"/>
+      <c r="M517"/>
+      <c r="S517" s="31"/>
+    </row>
+    <row r="518" spans="10:19">
+      <c r="J518"/>
+      <c r="K518"/>
+      <c r="L518"/>
+      <c r="M518"/>
+      <c r="S518" s="31"/>
+    </row>
+    <row r="519" spans="10:19">
+      <c r="J519"/>
+      <c r="K519"/>
+      <c r="L519"/>
+      <c r="M519"/>
+      <c r="S519" s="31"/>
+    </row>
+    <row r="520" spans="10:19">
+      <c r="J520"/>
+      <c r="K520"/>
+      <c r="L520"/>
+      <c r="M520"/>
+      <c r="S520" s="31"/>
+    </row>
+    <row r="521" spans="10:19">
+      <c r="J521"/>
+      <c r="K521"/>
+      <c r="L521"/>
+      <c r="M521"/>
+      <c r="S521" s="31"/>
+    </row>
+    <row r="522" spans="10:19">
+      <c r="J522"/>
+      <c r="K522"/>
+      <c r="L522"/>
+      <c r="M522"/>
+      <c r="S522" s="31"/>
+    </row>
+    <row r="523" spans="10:19">
+      <c r="J523"/>
+      <c r="K523"/>
+      <c r="L523"/>
+      <c r="M523"/>
+      <c r="S523" s="31"/>
+    </row>
+    <row r="524" spans="10:19">
+      <c r="J524"/>
+      <c r="K524"/>
+      <c r="L524"/>
+      <c r="M524"/>
+      <c r="S524" s="31"/>
+    </row>
+    <row r="525" spans="10:19">
+      <c r="J525"/>
+      <c r="K525"/>
+      <c r="L525"/>
+      <c r="M525"/>
+      <c r="S525" s="31"/>
+    </row>
+    <row r="526" spans="10:19">
+      <c r="J526"/>
+      <c r="K526"/>
+      <c r="L526"/>
+      <c r="M526"/>
+      <c r="S526" s="31"/>
+    </row>
+    <row r="527" spans="10:19">
+      <c r="J527"/>
+      <c r="K527"/>
+      <c r="L527"/>
+      <c r="M527"/>
+      <c r="S527" s="31"/>
+    </row>
+    <row r="528" spans="10:19">
+      <c r="J528"/>
+      <c r="K528"/>
+      <c r="L528"/>
+      <c r="M528"/>
+      <c r="S528" s="31"/>
+    </row>
+    <row r="529" spans="10:19">
+      <c r="J529"/>
+      <c r="K529"/>
+      <c r="L529"/>
+      <c r="M529"/>
+      <c r="S529" s="31"/>
+    </row>
+    <row r="530" spans="10:19">
+      <c r="J530"/>
+      <c r="K530"/>
+      <c r="L530"/>
+      <c r="M530"/>
+      <c r="S530" s="31"/>
+    </row>
+    <row r="531" spans="10:19">
+      <c r="J531"/>
+      <c r="K531"/>
+      <c r="L531"/>
+      <c r="M531"/>
+      <c r="S531" s="31"/>
+    </row>
+    <row r="532" spans="10:19">
+      <c r="J532"/>
+      <c r="K532"/>
+      <c r="L532"/>
+      <c r="M532"/>
+      <c r="S532" s="31"/>
+    </row>
+    <row r="533" spans="10:19">
+      <c r="J533"/>
+      <c r="K533"/>
+      <c r="L533"/>
+      <c r="M533"/>
+      <c r="S533" s="31"/>
+    </row>
+    <row r="534" spans="10:19">
+      <c r="J534"/>
+      <c r="K534"/>
+      <c r="L534"/>
+      <c r="M534"/>
+      <c r="S534" s="31"/>
+    </row>
+    <row r="535" spans="10:19">
+      <c r="J535"/>
+      <c r="K535"/>
+      <c r="L535"/>
+      <c r="M535"/>
+      <c r="S535" s="31"/>
+    </row>
+    <row r="536" spans="10:19">
+      <c r="J536"/>
+      <c r="K536"/>
+      <c r="L536"/>
+      <c r="M536"/>
+      <c r="S536" s="31"/>
+    </row>
+    <row r="537" spans="10:19">
+      <c r="J537"/>
+      <c r="K537"/>
+      <c r="L537"/>
+      <c r="M537"/>
+      <c r="S537" s="31"/>
+    </row>
+    <row r="538" spans="10:19">
+      <c r="J538"/>
+      <c r="K538"/>
+      <c r="L538"/>
+      <c r="M538"/>
+      <c r="S538" s="31"/>
+    </row>
+    <row r="539" spans="10:19">
+      <c r="J539"/>
+      <c r="K539"/>
+      <c r="L539"/>
+      <c r="M539"/>
+      <c r="S539" s="31"/>
+    </row>
+    <row r="540" spans="10:19">
+      <c r="J540"/>
+      <c r="K540"/>
+      <c r="L540"/>
+      <c r="M540"/>
+      <c r="S540" s="31"/>
+    </row>
+    <row r="541" spans="10:19">
+      <c r="J541"/>
+      <c r="K541"/>
+      <c r="L541"/>
+      <c r="M541"/>
+      <c r="S541" s="31"/>
+    </row>
+    <row r="542" spans="10:19">
+      <c r="J542"/>
+      <c r="K542"/>
+      <c r="L542"/>
+      <c r="M542"/>
+      <c r="S542" s="31"/>
+    </row>
+    <row r="543" spans="10:19">
+      <c r="J543"/>
+      <c r="K543"/>
+      <c r="L543"/>
+      <c r="M543"/>
+      <c r="S543" s="31"/>
+    </row>
+    <row r="544" spans="10:19">
+      <c r="J544"/>
+      <c r="K544"/>
+      <c r="L544"/>
+      <c r="M544"/>
+      <c r="S544" s="31"/>
+    </row>
+    <row r="545" spans="10:19">
+      <c r="J545"/>
+      <c r="K545"/>
+      <c r="L545"/>
+      <c r="M545"/>
+      <c r="S545" s="31"/>
+    </row>
+    <row r="546" spans="10:19">
+      <c r="J546"/>
+      <c r="K546"/>
+      <c r="L546"/>
+      <c r="M546"/>
+      <c r="S546" s="31"/>
+    </row>
+    <row r="547" spans="10:19">
+      <c r="J547"/>
+      <c r="K547"/>
+      <c r="L547"/>
+      <c r="M547"/>
+      <c r="S547" s="31"/>
+    </row>
+    <row r="548" spans="10:19">
+      <c r="J548"/>
+      <c r="K548"/>
+      <c r="L548"/>
+      <c r="M548"/>
+      <c r="S548" s="31"/>
+    </row>
+    <row r="549" spans="10:19">
+      <c r="J549"/>
+      <c r="K549"/>
+      <c r="L549"/>
+      <c r="M549"/>
+      <c r="S549" s="31"/>
+    </row>
+    <row r="550" spans="10:19">
+      <c r="J550"/>
+      <c r="K550"/>
+      <c r="L550"/>
+      <c r="M550"/>
+      <c r="S550" s="31"/>
+    </row>
+    <row r="551" spans="10:19">
+      <c r="J551"/>
+      <c r="K551"/>
+      <c r="L551"/>
+      <c r="M551"/>
+      <c r="S551" s="31"/>
+    </row>
+    <row r="552" spans="10:19">
+      <c r="J552"/>
+      <c r="K552"/>
+      <c r="L552"/>
+      <c r="M552"/>
+      <c r="S552" s="31"/>
+    </row>
+    <row r="553" spans="10:19">
+      <c r="J553"/>
+      <c r="K553"/>
+      <c r="L553"/>
+      <c r="M553"/>
+      <c r="S553" s="31"/>
+    </row>
+    <row r="554" spans="10:19">
+      <c r="J554"/>
+      <c r="K554"/>
+      <c r="L554"/>
+      <c r="M554"/>
+      <c r="S554" s="31"/>
+    </row>
+    <row r="555" spans="10:19">
+      <c r="J555"/>
+      <c r="K555"/>
+      <c r="L555"/>
+      <c r="M555"/>
+      <c r="S555" s="31"/>
+    </row>
+    <row r="556" spans="10:19">
+      <c r="J556"/>
+      <c r="K556"/>
+      <c r="L556"/>
+      <c r="M556"/>
+      <c r="S556" s="31"/>
+    </row>
+    <row r="557" spans="10:19">
+      <c r="J557"/>
+      <c r="K557"/>
+      <c r="L557"/>
+      <c r="M557"/>
+      <c r="S557" s="31"/>
+    </row>
+    <row r="558" spans="10:19">
+      <c r="J558"/>
+      <c r="K558"/>
+      <c r="L558"/>
+      <c r="M558"/>
+      <c r="S558" s="31"/>
+    </row>
+    <row r="559" spans="10:19">
+      <c r="J559"/>
+      <c r="K559"/>
+      <c r="L559"/>
+      <c r="M559"/>
+      <c r="S559" s="31"/>
+    </row>
+    <row r="560" spans="10:19">
+      <c r="J560"/>
+      <c r="K560"/>
+      <c r="L560"/>
+      <c r="M560"/>
+      <c r="S560" s="31"/>
+    </row>
+    <row r="561" spans="10:19">
+      <c r="J561"/>
+      <c r="K561"/>
+      <c r="L561"/>
+      <c r="M561"/>
+      <c r="S561" s="31"/>
+    </row>
+    <row r="562" spans="10:19">
+      <c r="J562"/>
+      <c r="K562"/>
+      <c r="L562"/>
+      <c r="M562"/>
+      <c r="S562" s="31"/>
+    </row>
+    <row r="563" spans="10:19">
+      <c r="J563"/>
+      <c r="K563"/>
+      <c r="L563"/>
+      <c r="M563"/>
+      <c r="S563" s="31"/>
+    </row>
+    <row r="564" spans="10:19">
+      <c r="J564"/>
+      <c r="K564"/>
+      <c r="L564"/>
+      <c r="M564"/>
+      <c r="S564" s="31"/>
+    </row>
+    <row r="565" spans="10:19">
+      <c r="J565"/>
+      <c r="K565"/>
+      <c r="L565"/>
+      <c r="M565"/>
+      <c r="S565" s="31"/>
+    </row>
+    <row r="566" spans="10:19">
+      <c r="J566"/>
+      <c r="K566"/>
+      <c r="L566"/>
+      <c r="M566"/>
+      <c r="S566" s="31"/>
+    </row>
+    <row r="567" spans="10:19">
+      <c r="J567"/>
+      <c r="K567"/>
+      <c r="L567"/>
+      <c r="M567"/>
+      <c r="S567" s="31"/>
+    </row>
+    <row r="568" spans="10:19">
+      <c r="J568"/>
+      <c r="K568"/>
+      <c r="L568"/>
+      <c r="M568"/>
+      <c r="S568" s="31"/>
+    </row>
+    <row r="569" spans="10:19">
+      <c r="J569"/>
+      <c r="K569"/>
+      <c r="L569"/>
+      <c r="M569"/>
+      <c r="S569" s="31"/>
+    </row>
+    <row r="570" spans="10:19">
+      <c r="J570"/>
+      <c r="K570"/>
+      <c r="L570"/>
+      <c r="M570"/>
+      <c r="S570" s="31"/>
+    </row>
+    <row r="571" spans="10:19">
+      <c r="J571"/>
+      <c r="K571"/>
+      <c r="L571"/>
+      <c r="M571"/>
+      <c r="S571" s="31"/>
+    </row>
+    <row r="572" spans="10:19">
+      <c r="J572"/>
+      <c r="K572"/>
+      <c r="L572"/>
+      <c r="M572"/>
+      <c r="S572" s="31"/>
+    </row>
+    <row r="573" spans="10:19">
+      <c r="J573"/>
+      <c r="K573"/>
+      <c r="L573"/>
+      <c r="M573"/>
+      <c r="S573" s="31"/>
+    </row>
+    <row r="574" spans="10:19">
+      <c r="J574"/>
+      <c r="K574"/>
+      <c r="L574"/>
+      <c r="M574"/>
+      <c r="S574" s="31"/>
+    </row>
+    <row r="575" spans="10:19">
+      <c r="J575"/>
+      <c r="K575"/>
+      <c r="L575"/>
+      <c r="M575"/>
+      <c r="S575" s="31"/>
+    </row>
+    <row r="576" spans="10:19">
+      <c r="J576"/>
+      <c r="K576"/>
+      <c r="L576"/>
+      <c r="M576"/>
+      <c r="S576" s="31"/>
+    </row>
+    <row r="577" spans="10:19">
+      <c r="J577"/>
+      <c r="K577"/>
+      <c r="L577"/>
+      <c r="M577"/>
+      <c r="S577" s="31"/>
+    </row>
+    <row r="578" spans="10:19">
+      <c r="J578"/>
+      <c r="K578"/>
+      <c r="L578"/>
+      <c r="M578"/>
+      <c r="S578" s="31"/>
+    </row>
+    <row r="579" spans="10:19">
+      <c r="J579"/>
+      <c r="K579"/>
+      <c r="L579"/>
+      <c r="M579"/>
+      <c r="S579" s="31"/>
+    </row>
+    <row r="580" spans="10:19">
+      <c r="J580"/>
+      <c r="K580"/>
+      <c r="L580"/>
+      <c r="M580"/>
+      <c r="S580" s="31"/>
+    </row>
+    <row r="581" spans="10:19">
+      <c r="J581"/>
+      <c r="K581"/>
+      <c r="L581"/>
+      <c r="M581"/>
+      <c r="S581" s="31"/>
+    </row>
+    <row r="582" spans="10:19">
+      <c r="J582"/>
+      <c r="K582"/>
+      <c r="L582"/>
+      <c r="M582"/>
+      <c r="S582" s="31"/>
+    </row>
+    <row r="583" spans="10:19">
+      <c r="J583"/>
+      <c r="K583"/>
+      <c r="L583"/>
+      <c r="M583"/>
+      <c r="S583" s="31"/>
+    </row>
+    <row r="584" spans="10:19">
+      <c r="J584"/>
+      <c r="K584"/>
+      <c r="L584"/>
+      <c r="M584"/>
+      <c r="S584" s="31"/>
+    </row>
+    <row r="585" spans="10:19">
+      <c r="J585"/>
+      <c r="K585"/>
+      <c r="L585"/>
+      <c r="M585"/>
+      <c r="S585" s="31"/>
+    </row>
+    <row r="586" spans="10:19">
+      <c r="J586"/>
+      <c r="K586"/>
+      <c r="L586"/>
+      <c r="M586"/>
+      <c r="S586" s="31"/>
+    </row>
+    <row r="587" spans="10:19">
+      <c r="J587"/>
+      <c r="K587"/>
+      <c r="L587"/>
+      <c r="M587"/>
+      <c r="S587" s="31"/>
+    </row>
+    <row r="588" spans="10:19">
+      <c r="J588"/>
+      <c r="K588"/>
+      <c r="L588"/>
+      <c r="M588"/>
+      <c r="S588" s="31"/>
+    </row>
+    <row r="589" spans="10:19">
+      <c r="J589"/>
+      <c r="K589"/>
+      <c r="L589"/>
+      <c r="M589"/>
+      <c r="S589" s="31"/>
+    </row>
+    <row r="590" spans="10:19">
+      <c r="J590"/>
+      <c r="K590"/>
+      <c r="L590"/>
+      <c r="M590"/>
+      <c r="S590" s="31"/>
+    </row>
+    <row r="591" spans="10:19">
+      <c r="J591"/>
+      <c r="K591"/>
+      <c r="L591"/>
+      <c r="M591"/>
+      <c r="S591" s="31"/>
+    </row>
+    <row r="592" spans="10:19">
+      <c r="J592"/>
+      <c r="K592"/>
+      <c r="L592"/>
+      <c r="M592"/>
+      <c r="S592" s="31"/>
+    </row>
+    <row r="593" spans="10:19">
+      <c r="J593"/>
+      <c r="K593"/>
+      <c r="L593"/>
+      <c r="M593"/>
+      <c r="S593" s="31"/>
+    </row>
+    <row r="594" spans="10:19">
+      <c r="J594"/>
+      <c r="K594"/>
+      <c r="L594"/>
+      <c r="M594"/>
+      <c r="S594" s="31"/>
+    </row>
+    <row r="595" spans="10:19">
+      <c r="J595"/>
+      <c r="K595"/>
+      <c r="L595"/>
+      <c r="M595"/>
+      <c r="S595" s="31"/>
+    </row>
+    <row r="596" spans="10:19">
+      <c r="J596"/>
+      <c r="K596"/>
+      <c r="L596"/>
+      <c r="M596"/>
+      <c r="S596" s="31"/>
+    </row>
+    <row r="597" spans="10:19">
+      <c r="J597"/>
+      <c r="K597"/>
+      <c r="L597"/>
+      <c r="M597"/>
+      <c r="S597" s="31"/>
+    </row>
+    <row r="598" spans="10:19">
+      <c r="J598"/>
+      <c r="K598"/>
+      <c r="L598"/>
+      <c r="M598"/>
+      <c r="S598" s="31"/>
+    </row>
+    <row r="599" spans="10:19">
+      <c r="J599"/>
+      <c r="K599"/>
+      <c r="L599"/>
+      <c r="M599"/>
+      <c r="S599" s="31"/>
+    </row>
+    <row r="600" spans="10:19">
+      <c r="J600"/>
+      <c r="K600"/>
+      <c r="L600"/>
+      <c r="M600"/>
+      <c r="S600" s="31"/>
+    </row>
+    <row r="601" spans="10:19">
+      <c r="J601"/>
+      <c r="K601"/>
+      <c r="L601"/>
+      <c r="M601"/>
+      <c r="S601" s="31"/>
+    </row>
+    <row r="602" spans="10:19">
+      <c r="J602"/>
+      <c r="K602"/>
+      <c r="L602"/>
+      <c r="M602"/>
+      <c r="S602" s="31"/>
+    </row>
+    <row r="603" spans="10:19">
+      <c r="J603"/>
+      <c r="K603"/>
+      <c r="L603"/>
+      <c r="M603"/>
+      <c r="S603" s="31"/>
+    </row>
+    <row r="604" spans="10:19">
+      <c r="J604"/>
+      <c r="K604"/>
+      <c r="L604"/>
+      <c r="M604"/>
+      <c r="S604" s="31"/>
+    </row>
+    <row r="605" spans="10:19">
+      <c r="J605"/>
+      <c r="K605"/>
+      <c r="L605"/>
+      <c r="M605"/>
+      <c r="S605" s="31"/>
+    </row>
+    <row r="606" spans="10:19">
+      <c r="J606"/>
+      <c r="K606"/>
+      <c r="L606"/>
+      <c r="M606"/>
+      <c r="S606" s="31"/>
+    </row>
+    <row r="607" spans="10:19">
+      <c r="J607"/>
+      <c r="K607"/>
+      <c r="L607"/>
+      <c r="M607"/>
+      <c r="S607" s="31"/>
+    </row>
+    <row r="608" spans="10:19">
+      <c r="J608"/>
+      <c r="K608"/>
+      <c r="L608"/>
+      <c r="M608"/>
+      <c r="S608" s="31"/>
+    </row>
+    <row r="609" spans="10:19">
+      <c r="J609"/>
+      <c r="K609"/>
+      <c r="L609"/>
+      <c r="M609"/>
+      <c r="S609" s="31"/>
+    </row>
+    <row r="610" spans="10:19">
+      <c r="J610"/>
+      <c r="K610"/>
+      <c r="L610"/>
+      <c r="M610"/>
+      <c r="S610" s="31"/>
+    </row>
+    <row r="611" spans="10:19">
+      <c r="J611"/>
+      <c r="K611"/>
+      <c r="L611"/>
+      <c r="M611"/>
+      <c r="S611" s="31"/>
+    </row>
+    <row r="612" spans="10:19">
+      <c r="J612"/>
+      <c r="K612"/>
+      <c r="L612"/>
+      <c r="M612"/>
+      <c r="S612" s="31"/>
+    </row>
+    <row r="613" spans="10:19">
+      <c r="J613"/>
+      <c r="K613"/>
+      <c r="L613"/>
+      <c r="M613"/>
+      <c r="S613" s="31"/>
+    </row>
+    <row r="614" spans="10:19">
+      <c r="J614"/>
+      <c r="K614"/>
+      <c r="L614"/>
+      <c r="M614"/>
+      <c r="S614" s="31"/>
+    </row>
+    <row r="615" spans="10:19">
+      <c r="J615"/>
+      <c r="K615"/>
+      <c r="L615"/>
+      <c r="M615"/>
+      <c r="S615" s="31"/>
+    </row>
+    <row r="616" spans="10:19">
+      <c r="J616"/>
+      <c r="K616"/>
+      <c r="L616"/>
+      <c r="M616"/>
+      <c r="S616" s="31"/>
+    </row>
+    <row r="617" spans="10:19">
+      <c r="J617"/>
+      <c r="K617"/>
+      <c r="L617"/>
+      <c r="M617"/>
+      <c r="S617" s="31"/>
+    </row>
+    <row r="618" spans="10:19">
+      <c r="J618"/>
+      <c r="K618"/>
+      <c r="L618"/>
+      <c r="M618"/>
+      <c r="S618" s="31"/>
+    </row>
+    <row r="619" spans="10:19">
+      <c r="J619"/>
+      <c r="K619"/>
+      <c r="L619"/>
+      <c r="M619"/>
+      <c r="S619" s="31"/>
+    </row>
+    <row r="620" spans="10:19">
+      <c r="J620"/>
+      <c r="K620"/>
+      <c r="L620"/>
+      <c r="M620"/>
+      <c r="S620" s="31"/>
+    </row>
+    <row r="621" spans="10:19">
+      <c r="J621"/>
+      <c r="K621"/>
+      <c r="L621"/>
+      <c r="M621"/>
+      <c r="S621" s="31"/>
+    </row>
+    <row r="622" spans="10:19">
+      <c r="J622"/>
+      <c r="K622"/>
+      <c r="L622"/>
+      <c r="M622"/>
+      <c r="S622" s="31"/>
+    </row>
+    <row r="623" spans="10:19">
+      <c r="J623"/>
+      <c r="K623"/>
+      <c r="L623"/>
+      <c r="M623"/>
+      <c r="S623" s="31"/>
+    </row>
+    <row r="624" spans="10:19">
+      <c r="J624"/>
+      <c r="K624"/>
+      <c r="L624"/>
+      <c r="M624"/>
+      <c r="S624" s="31"/>
+    </row>
+    <row r="625" spans="10:19">
+      <c r="J625"/>
+      <c r="K625"/>
+      <c r="L625"/>
+      <c r="M625"/>
+      <c r="S625" s="31"/>
+    </row>
+    <row r="626" spans="10:19">
+      <c r="J626"/>
+      <c r="K626"/>
+      <c r="L626"/>
+      <c r="M626"/>
+      <c r="S626" s="31"/>
+    </row>
+    <row r="627" spans="10:19">
+      <c r="J627"/>
+      <c r="K627"/>
+      <c r="L627"/>
+      <c r="M627"/>
+      <c r="S627" s="31"/>
+    </row>
+    <row r="628" spans="10:19">
+      <c r="J628"/>
+      <c r="K628"/>
+      <c r="L628"/>
+      <c r="M628"/>
+      <c r="S628" s="31"/>
+    </row>
+    <row r="629" spans="10:19">
+      <c r="J629"/>
+      <c r="K629"/>
+      <c r="L629"/>
+      <c r="M629"/>
+      <c r="S629" s="31"/>
+    </row>
+    <row r="630" spans="10:19">
+      <c r="J630"/>
+      <c r="K630"/>
+      <c r="L630"/>
+      <c r="M630"/>
+      <c r="S630" s="31"/>
+    </row>
+    <row r="631" spans="10:19">
+      <c r="J631"/>
+      <c r="K631"/>
+      <c r="L631"/>
+      <c r="M631"/>
+      <c r="S631" s="31"/>
+    </row>
+    <row r="632" spans="10:19">
+      <c r="J632"/>
+      <c r="K632"/>
+      <c r="L632"/>
+      <c r="M632"/>
+      <c r="S632" s="31"/>
+    </row>
+    <row r="633" spans="10:19">
+      <c r="J633"/>
+      <c r="K633"/>
+      <c r="L633"/>
+      <c r="M633"/>
+      <c r="S633" s="31"/>
+    </row>
+    <row r="634" spans="10:19">
+      <c r="J634"/>
+      <c r="K634"/>
+      <c r="L634"/>
+      <c r="M634"/>
+      <c r="S634" s="31"/>
+    </row>
+    <row r="635" spans="10:19">
+      <c r="J635"/>
+      <c r="K635"/>
+      <c r="L635"/>
+      <c r="M635"/>
+      <c r="S635" s="31"/>
+    </row>
+    <row r="636" spans="10:19">
+      <c r="J636"/>
+      <c r="K636"/>
+      <c r="L636"/>
+      <c r="M636"/>
+      <c r="S636" s="31"/>
+    </row>
+    <row r="637" spans="10:19">
+      <c r="J637"/>
+      <c r="K637"/>
+      <c r="L637"/>
+      <c r="M637"/>
+      <c r="S637" s="31"/>
+    </row>
+    <row r="638" spans="10:19">
+      <c r="J638"/>
+      <c r="K638"/>
+      <c r="L638"/>
+      <c r="M638"/>
+      <c r="S638" s="31"/>
+    </row>
+    <row r="639" spans="10:19">
+      <c r="J639"/>
+      <c r="K639"/>
+      <c r="L639"/>
+      <c r="M639"/>
+      <c r="S639" s="31"/>
+    </row>
+    <row r="640" spans="10:19">
+      <c r="J640"/>
+      <c r="K640"/>
+      <c r="L640"/>
+      <c r="M640"/>
+      <c r="S640" s="31"/>
+    </row>
+    <row r="641" spans="10:19">
+      <c r="J641"/>
+      <c r="K641"/>
+      <c r="L641"/>
+      <c r="M641"/>
+      <c r="S641" s="31"/>
+    </row>
+    <row r="642" spans="10:19">
+      <c r="J642"/>
+      <c r="K642"/>
+      <c r="L642"/>
+      <c r="M642"/>
+      <c r="S642" s="31"/>
+    </row>
+    <row r="643" spans="10:19">
+      <c r="J643"/>
+      <c r="K643"/>
+      <c r="L643"/>
+      <c r="M643"/>
+      <c r="S643" s="31"/>
+    </row>
+    <row r="644" spans="10:19">
+      <c r="J644"/>
+      <c r="K644"/>
+      <c r="L644"/>
+      <c r="M644"/>
+      <c r="S644" s="31"/>
+    </row>
+    <row r="645" spans="10:19">
+      <c r="J645"/>
+      <c r="K645"/>
+      <c r="L645"/>
+      <c r="M645"/>
+      <c r="S645" s="31"/>
+    </row>
+    <row r="646" spans="10:19">
+      <c r="J646"/>
+      <c r="K646"/>
+      <c r="L646"/>
+      <c r="M646"/>
+      <c r="S646" s="31"/>
+    </row>
+    <row r="647" spans="10:19">
+      <c r="J647"/>
+      <c r="K647"/>
+      <c r="L647"/>
+      <c r="M647"/>
+      <c r="S647" s="31"/>
+    </row>
+    <row r="648" spans="10:19">
+      <c r="J648"/>
+      <c r="K648"/>
+      <c r="L648"/>
+      <c r="M648"/>
+      <c r="S648" s="31"/>
+    </row>
+    <row r="649" spans="10:19">
+      <c r="J649"/>
+      <c r="K649"/>
+      <c r="L649"/>
+      <c r="M649"/>
+      <c r="S649" s="31"/>
+    </row>
+    <row r="650" spans="10:19">
+      <c r="J650"/>
+      <c r="K650"/>
+      <c r="L650"/>
+      <c r="M650"/>
+      <c r="S650" s="31"/>
+    </row>
+    <row r="651" spans="10:19">
+      <c r="J651"/>
+      <c r="K651"/>
+      <c r="L651"/>
+      <c r="M651"/>
+      <c r="S651" s="31"/>
+    </row>
+    <row r="652" spans="10:19">
+      <c r="J652"/>
+      <c r="K652"/>
+      <c r="L652"/>
+      <c r="M652"/>
+      <c r="S652" s="31"/>
+    </row>
+    <row r="653" spans="10:19">
+      <c r="J653"/>
+      <c r="K653"/>
+      <c r="L653"/>
+      <c r="M653"/>
+      <c r="S653" s="31"/>
+    </row>
+    <row r="654" spans="10:19">
+      <c r="J654"/>
+      <c r="K654"/>
+      <c r="L654"/>
+      <c r="M654"/>
+      <c r="S654" s="31"/>
+    </row>
+    <row r="655" spans="10:19">
+      <c r="J655"/>
+      <c r="K655"/>
+      <c r="L655"/>
+      <c r="M655"/>
+      <c r="S655" s="31"/>
+    </row>
+    <row r="656" spans="10:19">
+      <c r="J656"/>
+      <c r="K656"/>
+      <c r="L656"/>
+      <c r="M656"/>
+      <c r="S656" s="31"/>
+    </row>
+    <row r="657" spans="10:19">
+      <c r="J657"/>
+      <c r="K657"/>
+      <c r="L657"/>
+      <c r="M657"/>
+      <c r="S657" s="31"/>
+    </row>
+    <row r="658" spans="10:19">
+      <c r="J658"/>
+      <c r="K658"/>
+      <c r="L658"/>
+      <c r="M658"/>
+      <c r="S658" s="31"/>
+    </row>
+    <row r="659" spans="10:19">
+      <c r="J659"/>
+      <c r="K659"/>
+      <c r="L659"/>
+      <c r="M659"/>
+      <c r="S659" s="31"/>
+    </row>
+    <row r="660" spans="10:19">
+      <c r="J660"/>
+      <c r="K660"/>
+      <c r="L660"/>
+      <c r="M660"/>
+      <c r="S660" s="31"/>
+    </row>
+    <row r="661" spans="10:19">
+      <c r="J661"/>
+      <c r="K661"/>
+      <c r="L661"/>
+      <c r="M661"/>
+      <c r="S661" s="31"/>
+    </row>
+    <row r="662" spans="10:19">
+      <c r="J662"/>
+      <c r="K662"/>
+      <c r="L662"/>
+      <c r="M662"/>
+      <c r="S662" s="31"/>
+    </row>
+    <row r="663" spans="10:19">
+      <c r="J663"/>
+      <c r="K663"/>
+      <c r="L663"/>
+      <c r="M663"/>
+      <c r="S663" s="31"/>
+    </row>
+    <row r="664" spans="10:19">
+      <c r="J664"/>
+      <c r="K664"/>
+      <c r="L664"/>
+      <c r="M664"/>
+      <c r="S664" s="31"/>
+    </row>
+    <row r="665" spans="10:19">
+      <c r="J665"/>
+      <c r="K665"/>
+      <c r="L665"/>
+      <c r="M665"/>
+      <c r="S665" s="31"/>
+    </row>
+    <row r="666" spans="10:19">
+      <c r="J666"/>
+      <c r="K666"/>
+      <c r="L666"/>
+      <c r="M666"/>
+      <c r="S666" s="31"/>
+    </row>
+    <row r="667" spans="10:19">
+      <c r="J667"/>
+      <c r="K667"/>
+      <c r="L667"/>
+      <c r="M667"/>
+      <c r="S667" s="31"/>
+    </row>
+    <row r="668" spans="10:19">
+      <c r="J668"/>
+      <c r="K668"/>
+      <c r="L668"/>
+      <c r="M668"/>
+      <c r="S668" s="31"/>
+    </row>
+    <row r="669" spans="10:19">
+      <c r="J669"/>
+      <c r="K669"/>
+      <c r="L669"/>
+      <c r="M669"/>
+      <c r="S669" s="31"/>
+    </row>
+    <row r="670" spans="10:19">
+      <c r="J670"/>
+      <c r="K670"/>
+      <c r="L670"/>
+      <c r="M670"/>
+      <c r="S670" s="31"/>
+    </row>
+    <row r="671" spans="10:19">
+      <c r="J671"/>
+      <c r="K671"/>
+      <c r="L671"/>
+      <c r="M671"/>
+      <c r="S671" s="31"/>
+    </row>
+    <row r="672" spans="10:19">
+      <c r="J672"/>
+      <c r="K672"/>
+      <c r="L672"/>
+      <c r="M672"/>
+      <c r="S672" s="31"/>
+    </row>
+    <row r="673" spans="10:19">
+      <c r="J673"/>
+      <c r="K673"/>
+      <c r="L673"/>
+      <c r="M673"/>
+      <c r="S673" s="31"/>
+    </row>
+    <row r="674" spans="10:19">
+      <c r="J674"/>
+      <c r="K674"/>
+      <c r="L674"/>
+      <c r="M674"/>
+      <c r="S674" s="31"/>
+    </row>
+    <row r="675" spans="10:19">
+      <c r="J675"/>
+      <c r="K675"/>
+      <c r="L675"/>
+      <c r="M675"/>
+      <c r="S675" s="31"/>
+    </row>
+    <row r="676" spans="10:19">
+      <c r="J676"/>
+      <c r="K676"/>
+      <c r="L676"/>
+      <c r="M676"/>
+      <c r="S676" s="31"/>
+    </row>
+    <row r="677" spans="10:19">
+      <c r="J677"/>
+      <c r="K677"/>
+      <c r="L677"/>
+      <c r="M677"/>
+      <c r="S677" s="31"/>
+    </row>
+    <row r="678" spans="10:19">
+      <c r="J678"/>
+      <c r="K678"/>
+      <c r="L678"/>
+      <c r="M678"/>
+      <c r="S678" s="31"/>
+    </row>
+    <row r="679" spans="10:19">
+      <c r="J679"/>
+      <c r="K679"/>
+      <c r="L679"/>
+      <c r="M679"/>
+      <c r="S679" s="31"/>
+    </row>
+    <row r="680" spans="10:19">
+      <c r="J680"/>
+      <c r="K680"/>
+      <c r="L680"/>
+      <c r="M680"/>
+      <c r="S680" s="31"/>
+    </row>
+    <row r="681" spans="10:19">
+      <c r="J681"/>
+      <c r="K681"/>
+      <c r="L681"/>
+      <c r="M681"/>
+      <c r="S681" s="31"/>
+    </row>
+    <row r="682" spans="10:19">
+      <c r="J682"/>
+      <c r="K682"/>
+      <c r="L682"/>
+      <c r="M682"/>
+      <c r="S682" s="31"/>
+    </row>
+    <row r="683" spans="10:19">
+      <c r="J683"/>
+      <c r="K683"/>
+      <c r="L683"/>
+      <c r="M683"/>
+      <c r="S683" s="31"/>
+    </row>
+    <row r="684" spans="10:19">
+      <c r="J684"/>
+      <c r="K684"/>
+      <c r="L684"/>
+      <c r="M684"/>
+      <c r="S684" s="31"/>
+    </row>
+    <row r="685" spans="10:19">
+      <c r="J685"/>
+      <c r="K685"/>
+      <c r="L685"/>
+      <c r="M685"/>
+      <c r="S685" s="31"/>
+    </row>
+    <row r="686" spans="10:19">
+      <c r="J686"/>
+      <c r="K686"/>
+      <c r="L686"/>
+      <c r="M686"/>
+      <c r="S686" s="31"/>
+    </row>
+    <row r="687" spans="10:19">
+      <c r="J687"/>
+      <c r="K687"/>
+      <c r="L687"/>
+      <c r="M687"/>
+      <c r="S687" s="31"/>
+    </row>
+    <row r="688" spans="10:19">
+      <c r="J688"/>
+      <c r="K688"/>
+      <c r="L688"/>
+      <c r="M688"/>
+      <c r="S688" s="31"/>
+    </row>
+    <row r="689" spans="10:19">
+      <c r="J689"/>
+      <c r="K689"/>
+      <c r="L689"/>
+      <c r="M689"/>
+      <c r="S689" s="31"/>
+    </row>
+    <row r="690" spans="10:19">
+      <c r="J690"/>
+      <c r="K690"/>
+      <c r="L690"/>
+      <c r="M690"/>
+      <c r="S690" s="31"/>
+    </row>
+    <row r="691" spans="10:19">
+      <c r="J691"/>
+      <c r="K691"/>
+      <c r="L691"/>
+      <c r="M691"/>
+      <c r="S691" s="31"/>
+    </row>
+    <row r="692" spans="10:19">
+      <c r="J692"/>
+      <c r="K692"/>
+      <c r="L692"/>
+      <c r="M692"/>
+      <c r="S692" s="31"/>
+    </row>
+    <row r="693" spans="10:19">
+      <c r="J693"/>
+      <c r="K693"/>
+      <c r="L693"/>
+      <c r="M693"/>
+      <c r="S693" s="31"/>
+    </row>
+    <row r="694" spans="10:19">
+      <c r="J694"/>
+      <c r="K694"/>
+      <c r="L694"/>
+      <c r="M694"/>
+      <c r="S694" s="31"/>
+    </row>
+    <row r="695" spans="10:19">
+      <c r="J695"/>
+      <c r="K695"/>
+      <c r="L695"/>
+      <c r="M695"/>
+      <c r="S695" s="31"/>
+    </row>
+    <row r="696" spans="10:19">
+      <c r="J696"/>
+      <c r="K696"/>
+      <c r="L696"/>
+      <c r="M696"/>
+      <c r="S696" s="31"/>
+    </row>
+    <row r="697" spans="10:19">
+      <c r="J697"/>
+      <c r="K697"/>
+      <c r="L697"/>
+      <c r="M697"/>
+      <c r="S697" s="31"/>
+    </row>
+    <row r="698" spans="10:19">
+      <c r="J698"/>
+      <c r="K698"/>
+      <c r="L698"/>
+      <c r="M698"/>
+      <c r="S698" s="31"/>
+    </row>
+    <row r="699" spans="10:19">
+      <c r="J699"/>
+      <c r="K699"/>
+      <c r="L699"/>
+      <c r="M699"/>
+      <c r="S699" s="31"/>
+    </row>
+    <row r="700" spans="10:19">
+      <c r="J700"/>
+      <c r="K700"/>
+      <c r="L700"/>
+      <c r="M700"/>
+      <c r="S700" s="31"/>
+    </row>
+    <row r="701" spans="10:19">
+      <c r="J701"/>
+      <c r="K701"/>
+      <c r="L701"/>
+      <c r="M701"/>
+      <c r="S701" s="31"/>
+    </row>
+    <row r="702" spans="10:19">
+      <c r="J702"/>
+      <c r="K702"/>
+      <c r="L702"/>
+      <c r="M702"/>
+      <c r="S702" s="31"/>
+    </row>
+    <row r="703" spans="10:19">
+      <c r="J703"/>
+      <c r="K703"/>
+      <c r="L703"/>
+      <c r="M703"/>
+      <c r="S703" s="31"/>
+    </row>
+    <row r="704" spans="10:19">
+      <c r="J704"/>
+      <c r="K704"/>
+      <c r="L704"/>
+      <c r="M704"/>
+      <c r="S704" s="31"/>
+    </row>
+    <row r="705" spans="10:19">
+      <c r="J705"/>
+      <c r="K705"/>
+      <c r="L705"/>
+      <c r="M705"/>
+      <c r="S705" s="31"/>
+    </row>
+    <row r="706" spans="10:19">
+      <c r="J706"/>
+      <c r="K706"/>
+      <c r="L706"/>
+      <c r="M706"/>
+      <c r="S706" s="31"/>
+    </row>
+    <row r="707" spans="10:19">
+      <c r="J707"/>
+      <c r="K707"/>
+      <c r="L707"/>
+      <c r="M707"/>
+      <c r="S707" s="31"/>
+    </row>
+    <row r="708" spans="10:19">
+      <c r="J708"/>
+      <c r="K708"/>
+      <c r="L708"/>
+      <c r="M708"/>
+      <c r="S708" s="31"/>
+    </row>
+    <row r="709" spans="10:19">
+      <c r="J709"/>
+      <c r="K709"/>
+      <c r="L709"/>
+      <c r="M709"/>
+      <c r="S709" s="31"/>
+    </row>
+    <row r="710" spans="10:19">
+      <c r="J710"/>
+      <c r="K710"/>
+      <c r="L710"/>
+      <c r="M710"/>
+      <c r="S710" s="31"/>
+    </row>
+    <row r="711" spans="10:19">
+      <c r="J711"/>
+      <c r="K711"/>
+      <c r="L711"/>
+      <c r="M711"/>
+      <c r="S711" s="31"/>
+    </row>
+    <row r="712" spans="10:19">
+      <c r="J712"/>
+      <c r="K712"/>
+      <c r="L712"/>
+      <c r="M712"/>
+      <c r="S712" s="31"/>
+    </row>
+    <row r="713" spans="10:19">
+      <c r="J713"/>
+      <c r="K713"/>
+      <c r="L713"/>
+      <c r="M713"/>
+      <c r="S713" s="31"/>
+    </row>
+    <row r="714" spans="10:19">
+      <c r="J714"/>
+      <c r="K714"/>
+      <c r="L714"/>
+      <c r="M714"/>
+      <c r="S714" s="31"/>
+    </row>
+    <row r="715" spans="10:19">
+      <c r="J715"/>
+      <c r="K715"/>
+      <c r="L715"/>
+      <c r="M715"/>
+      <c r="S715" s="31"/>
+    </row>
+    <row r="716" spans="10:19">
+      <c r="J716"/>
+      <c r="K716"/>
+      <c r="L716"/>
+      <c r="M716"/>
+      <c r="S716" s="31"/>
+    </row>
+    <row r="717" spans="10:19">
+      <c r="J717"/>
+      <c r="K717"/>
+      <c r="L717"/>
+      <c r="M717"/>
+      <c r="S717" s="31"/>
+    </row>
+    <row r="718" spans="10:19">
+      <c r="J718"/>
+      <c r="K718"/>
+      <c r="L718"/>
+      <c r="M718"/>
+      <c r="S718" s="31"/>
+    </row>
+    <row r="719" spans="10:19">
+      <c r="J719"/>
+      <c r="K719"/>
+      <c r="L719"/>
+      <c r="M719"/>
+      <c r="S719" s="31"/>
+    </row>
+    <row r="720" spans="10:19">
+      <c r="J720"/>
+      <c r="K720"/>
+      <c r="L720"/>
+      <c r="M720"/>
+      <c r="S720" s="31"/>
+    </row>
+    <row r="721" spans="10:19">
+      <c r="J721"/>
+      <c r="K721"/>
+      <c r="L721"/>
+      <c r="M721"/>
+      <c r="S721" s="31"/>
+    </row>
+    <row r="722" spans="10:19">
+      <c r="J722"/>
+      <c r="K722"/>
+      <c r="L722"/>
+      <c r="M722"/>
+      <c r="S722" s="31"/>
+    </row>
+    <row r="723" spans="10:19">
+      <c r="J723"/>
+      <c r="K723"/>
+      <c r="L723"/>
+      <c r="M723"/>
+      <c r="S723" s="31"/>
+    </row>
+    <row r="724" spans="10:19">
+      <c r="J724"/>
+      <c r="K724"/>
+      <c r="L724"/>
+      <c r="M724"/>
+      <c r="S724" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
+      <formula1>$AD$1:$AH$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C319 C3:C32">
+      <formula1>$AD$2:$AG$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33:B319 B5:B32">
+      <formula1>$AD$1:$AG$1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/assay_data/TB_assays.xlsx
+++ b/assay_data/TB_assays.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="2060" windowWidth="39580" windowHeight="23100" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21960" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TB" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>/NT</t>
@@ -128,7 +127,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Sequence</t>
@@ -1778,12 +1776,6 @@
     <t>7581-7583</t>
   </si>
   <si>
-    <t>A504V</t>
-  </si>
-  <si>
-    <t>E459K</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -2706,6 +2698,12 @@
   <si>
     <t>references/ASM19595v2.fasta</t>
   </si>
+  <si>
+    <t>E459</t>
+  </si>
+  <si>
+    <t>A504</t>
+  </si>
 </sst>
 </file>
 
@@ -2717,7 +2715,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3568,6 +3565,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3603,12 +3606,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="449">
@@ -4419,37 +4416,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="68" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="69" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="66" t="s">
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="67"/>
+      <c r="S1" s="69"/>
       <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
@@ -9712,37 +9709,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="68" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="69" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="66" t="s">
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="67"/>
+      <c r="S1" s="69"/>
       <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
@@ -15057,37 +15054,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="38" customFormat="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="74" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75" t="s">
+      <c r="I1" s="76"/>
+      <c r="J1" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="75" t="s">
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="72" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="73"/>
+      <c r="S1" s="75"/>
       <c r="AD1" s="64" t="s">
         <v>19</v>
       </c>
@@ -18600,7 +18597,7 @@
   <dimension ref="A1:AH724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18627,37 +18624,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="68" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="69" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="66" t="s">
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="67"/>
+      <c r="S1" s="69"/>
       <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
@@ -18756,22 +18753,22 @@
         <v>25</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N3" t="s">
+        <v>555</v>
+      </c>
+      <c r="O3" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q3" t="s">
         <v>280</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>283</v>
-      </c>
-      <c r="P3" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>282</v>
-      </c>
-      <c r="R3" t="s">
-        <v>285</v>
       </c>
       <c r="S3" s="31" t="s">
         <v>60</v>
@@ -18780,10 +18777,10 @@
     <row r="4" spans="1:34">
       <c r="I4" s="8"/>
       <c r="N4" t="s">
-        <v>279</v>
+        <v>556</v>
       </c>
       <c r="O4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P4" t="s">
         <v>46</v>
@@ -18792,7 +18789,7 @@
         <v>269</v>
       </c>
       <c r="R4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S4" s="31" t="s">
         <v>60</v>
@@ -18910,31 +18907,31 @@
     <row r="10" spans="1:34">
       <c r="I10" s="8"/>
       <c r="N10" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="21" t="s">
         <v>271</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="S10" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="I11" s="8"/>
       <c r="N11" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P11" s="21" t="s">
         <v>270</v>
@@ -18943,196 +18940,196 @@
         <v>42</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="S11" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="I12" s="8"/>
       <c r="N12" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="S12" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="I13" s="8"/>
       <c r="N13" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P13" s="21" t="s">
         <v>268</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="S13" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="I14" s="8"/>
       <c r="N14" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P14" s="21" t="s">
         <v>270</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="S14" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="I15" s="8"/>
       <c r="N15" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S15" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="I16" s="8"/>
       <c r="N16" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>270</v>
       </c>
       <c r="Q16" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="R16" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="R16" s="21" t="s">
-        <v>522</v>
-      </c>
       <c r="S16" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="9:19">
       <c r="I17" s="8"/>
       <c r="N17" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="21" t="s">
         <v>271</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="S17" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="9:19">
       <c r="I18" s="8"/>
       <c r="N18" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="O18" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="O18" s="21" t="s">
-        <v>526</v>
-      </c>
       <c r="P18" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="S18" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="9:19">
       <c r="I19" s="8"/>
       <c r="N19" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="O19" s="21" t="s">
         <v>527</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>529</v>
       </c>
       <c r="P19" s="21" t="s">
         <v>268</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="S19" s="46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="9:19">
       <c r="I20" s="8"/>
       <c r="N20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P20" s="21" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="R20" s="78" t="s">
-        <v>545</v>
+        <v>294</v>
+      </c>
+      <c r="R20" s="66" t="s">
+        <v>543</v>
       </c>
       <c r="S20" s="31" t="s">
         <v>232</v>
@@ -19141,19 +19138,19 @@
     <row r="21" spans="9:19">
       <c r="I21" s="8"/>
       <c r="N21" t="s">
+        <v>544</v>
+      </c>
+      <c r="O21" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="P21" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q21" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="P21" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q21" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="R21" s="78" t="s">
-        <v>551</v>
+      <c r="R21" s="66" t="s">
+        <v>549</v>
       </c>
       <c r="S21" s="31" t="s">
         <v>232</v>
@@ -19162,19 +19159,19 @@
     <row r="22" spans="9:19">
       <c r="I22" s="8"/>
       <c r="N22" t="s">
+        <v>545</v>
+      </c>
+      <c r="O22" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="O22" s="21" t="s">
-        <v>549</v>
-      </c>
       <c r="P22" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="R22" s="78" t="s">
-        <v>552</v>
+        <v>398</v>
+      </c>
+      <c r="R22" s="66" t="s">
+        <v>550</v>
       </c>
       <c r="S22" s="31" t="s">
         <v>232</v>
@@ -19183,7 +19180,7 @@
     <row r="23" spans="9:19">
       <c r="I23" s="8"/>
       <c r="J23" s="28" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K23" s="28">
         <v>1472307</v>
@@ -19195,7 +19192,7 @@
         <v>42</v>
       </c>
       <c r="R23" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="S23" s="31" t="s">
         <v>232</v>
@@ -19204,7 +19201,7 @@
     <row r="24" spans="9:19">
       <c r="I24" s="8"/>
       <c r="J24" s="28" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K24" s="28">
         <v>1472358</v>
@@ -19216,7 +19213,7 @@
         <v>42</v>
       </c>
       <c r="R24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S24" s="31" t="s">
         <v>232</v>
@@ -19225,7 +19222,7 @@
     <row r="25" spans="9:19">
       <c r="I25" s="8"/>
       <c r="J25" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K25" s="28">
         <v>1472359</v>
@@ -19237,7 +19234,7 @@
         <v>45</v>
       </c>
       <c r="R25" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="S25" s="31" t="s">
         <v>232</v>
@@ -19246,7 +19243,7 @@
     <row r="26" spans="9:19">
       <c r="I26" s="8"/>
       <c r="J26" s="28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K26" s="28">
         <v>1472359</v>
@@ -19258,7 +19255,7 @@
         <v>42</v>
       </c>
       <c r="R26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S26" s="31" t="s">
         <v>232</v>
@@ -19267,7 +19264,7 @@
     <row r="27" spans="9:19">
       <c r="I27" s="8"/>
       <c r="J27" s="28" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K27" s="28">
         <v>1472362</v>
@@ -19279,7 +19276,7 @@
         <v>42</v>
       </c>
       <c r="R27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S27" s="31" t="s">
         <v>232</v>
@@ -19288,7 +19285,7 @@
     <row r="28" spans="9:19">
       <c r="I28" s="8"/>
       <c r="J28" s="28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K28" s="28">
         <v>1473246</v>
@@ -19309,7 +19306,7 @@
     <row r="29" spans="9:19">
       <c r="I29" s="8"/>
       <c r="J29" s="28" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K29" s="28">
         <v>1473247</v>
@@ -19330,7 +19327,7 @@
     <row r="30" spans="9:19">
       <c r="I30" s="8"/>
       <c r="J30" s="28" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K30" s="28">
         <v>1473329</v>
@@ -19351,7 +19348,7 @@
     <row r="31" spans="9:19">
       <c r="I31" s="8"/>
       <c r="J31" s="35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K31" s="28">
         <v>1673425</v>
@@ -19372,19 +19369,19 @@
     <row r="32" spans="9:19">
       <c r="I32" s="8"/>
       <c r="N32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="P32" s="21" t="s">
         <v>34</v>
       </c>
       <c r="Q32" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="R32" s="78" t="s">
-        <v>555</v>
+        <v>280</v>
+      </c>
+      <c r="R32" s="66" t="s">
+        <v>553</v>
       </c>
       <c r="S32" s="31" t="s">
         <v>128</v>
@@ -19393,19 +19390,19 @@
     <row r="33" spans="9:19">
       <c r="I33" s="8"/>
       <c r="N33" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>270</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="S33" s="31" t="s">
         <v>43</v>
@@ -19414,9 +19411,9 @@
     <row r="34" spans="9:19">
       <c r="I34" s="8"/>
       <c r="J34" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="K34" s="79">
+        <v>367</v>
+      </c>
+      <c r="K34" s="67">
         <v>2289248</v>
       </c>
       <c r="L34" s="46" t="s">
@@ -19428,8 +19425,8 @@
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
-      <c r="R34" s="78" t="s">
-        <v>371</v>
+      <c r="R34" s="66" t="s">
+        <v>369</v>
       </c>
       <c r="S34" s="46" t="s">
         <v>36</v>
@@ -19438,9 +19435,9 @@
     <row r="35" spans="9:19">
       <c r="I35" s="8"/>
       <c r="J35" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="K35" s="79">
+        <v>289</v>
+      </c>
+      <c r="K35" s="67">
         <v>2289252</v>
       </c>
       <c r="L35" s="46" t="s">
@@ -19452,8 +19449,8 @@
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
-      <c r="R35" s="78" t="s">
-        <v>292</v>
+      <c r="R35" s="66" t="s">
+        <v>290</v>
       </c>
       <c r="S35" s="46" t="s">
         <v>36</v>
@@ -19462,9 +19459,9 @@
     <row r="36" spans="9:19">
       <c r="I36" s="8"/>
       <c r="J36" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="K36" s="79">
+        <v>368</v>
+      </c>
+      <c r="K36" s="67">
         <v>2289253</v>
       </c>
       <c r="L36" s="46" t="s">
@@ -19476,8 +19473,8 @@
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
-      <c r="R36" s="78" t="s">
-        <v>372</v>
+      <c r="R36" s="66" t="s">
+        <v>370</v>
       </c>
       <c r="S36" s="46" t="s">
         <v>36</v>
@@ -19490,19 +19487,19 @@
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>46</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="R37" s="78" t="s">
-        <v>294</v>
+        <v>279</v>
+      </c>
+      <c r="R37" s="66" t="s">
+        <v>292</v>
       </c>
       <c r="S37" s="46" t="s">
         <v>36</v>
@@ -19515,19 +19512,19 @@
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q38" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="R38" s="78" t="s">
-        <v>375</v>
+      <c r="R38" s="66" t="s">
+        <v>373</v>
       </c>
       <c r="S38" s="46" t="s">
         <v>36</v>
@@ -19540,19 +19537,19 @@
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q39" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="R39" s="78" t="s">
-        <v>297</v>
+      <c r="R39" s="66" t="s">
+        <v>295</v>
       </c>
       <c r="S39" s="46" t="s">
         <v>36</v>
@@ -19565,10 +19562,10 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P40" s="21" t="s">
         <v>269</v>
@@ -19576,8 +19573,8 @@
       <c r="Q40" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="R40" s="78" t="s">
-        <v>299</v>
+      <c r="R40" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>36</v>
@@ -19590,19 +19587,19 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P41" s="21" t="s">
         <v>268</v>
       </c>
       <c r="Q41" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="R41" s="78" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="R41" s="66" t="s">
+        <v>381</v>
       </c>
       <c r="S41" s="46" t="s">
         <v>36</v>
@@ -19615,19 +19612,19 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R42" s="78" t="s">
-        <v>303</v>
+      <c r="R42" s="66" t="s">
+        <v>301</v>
       </c>
       <c r="S42" s="46" t="s">
         <v>36</v>
@@ -19640,19 +19637,19 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P43" s="21" t="s">
         <v>268</v>
       </c>
       <c r="Q43" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="R43" s="78" t="s">
-        <v>384</v>
+        <v>303</v>
+      </c>
+      <c r="R43" s="66" t="s">
+        <v>382</v>
       </c>
       <c r="S43" s="46" t="s">
         <v>36</v>
@@ -19665,19 +19662,19 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P44" s="21" t="s">
         <v>45</v>
       </c>
       <c r="Q44" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="R44" s="78" t="s">
-        <v>308</v>
+        <v>305</v>
+      </c>
+      <c r="R44" s="66" t="s">
+        <v>306</v>
       </c>
       <c r="S44" s="46" t="s">
         <v>36</v>
@@ -19690,10 +19687,10 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" s="21" t="s">
         <v>385</v>
-      </c>
-      <c r="O45" s="21" t="s">
-        <v>387</v>
       </c>
       <c r="P45" s="21" t="s">
         <v>41</v>
@@ -19701,8 +19698,8 @@
       <c r="Q45" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="R45" s="78" t="s">
-        <v>386</v>
+      <c r="R45" s="66" t="s">
+        <v>384</v>
       </c>
       <c r="S45" s="46" t="s">
         <v>36</v>
@@ -19715,19 +19712,19 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R46" s="78" t="s">
-        <v>388</v>
+      <c r="R46" s="66" t="s">
+        <v>386</v>
       </c>
       <c r="S46" s="46" t="s">
         <v>36</v>
@@ -19740,10 +19737,10 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" t="s">
+        <v>389</v>
+      </c>
+      <c r="O47" s="21" t="s">
         <v>391</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>393</v>
       </c>
       <c r="P47" s="21" t="s">
         <v>41</v>
@@ -19751,8 +19748,8 @@
       <c r="Q47" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="R47" s="78" t="s">
-        <v>392</v>
+      <c r="R47" s="66" t="s">
+        <v>390</v>
       </c>
       <c r="S47" s="46" t="s">
         <v>36</v>
@@ -19765,10 +19762,10 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P48" s="21" t="s">
         <v>131</v>
@@ -19776,8 +19773,8 @@
       <c r="Q48" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="R48" s="78" t="s">
-        <v>310</v>
+      <c r="R48" s="66" t="s">
+        <v>308</v>
       </c>
       <c r="S48" s="46" t="s">
         <v>36</v>
@@ -19790,10 +19787,10 @@
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
       <c r="N49" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P49" s="21" t="s">
         <v>46</v>
@@ -19801,8 +19798,8 @@
       <c r="Q49" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="R49" s="78" t="s">
-        <v>312</v>
+      <c r="R49" s="66" t="s">
+        <v>310</v>
       </c>
       <c r="S49" s="46" t="s">
         <v>36</v>
@@ -19815,19 +19812,19 @@
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
       <c r="N50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q50" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="R50" s="78" t="s">
-        <v>314</v>
+      <c r="R50" s="66" t="s">
+        <v>312</v>
       </c>
       <c r="S50" s="46" t="s">
         <v>36</v>
@@ -19840,19 +19837,19 @@
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
       <c r="N51" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P51" s="21" t="s">
         <v>268</v>
       </c>
       <c r="Q51" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="R51" s="78" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="R51" s="66" t="s">
+        <v>397</v>
       </c>
       <c r="S51" s="46" t="s">
         <v>36</v>
@@ -19865,19 +19862,19 @@
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
       <c r="N52" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q52" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="R52" s="78" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="R52" s="66" t="s">
+        <v>399</v>
       </c>
       <c r="S52" s="46" t="s">
         <v>36</v>
@@ -19890,19 +19887,19 @@
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
       <c r="N53" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P53" s="21" t="s">
         <v>271</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="R53" s="78" t="s">
-        <v>405</v>
+        <v>337</v>
+      </c>
+      <c r="R53" s="66" t="s">
+        <v>403</v>
       </c>
       <c r="S53" s="46" t="s">
         <v>36</v>
@@ -19915,19 +19912,19 @@
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
       <c r="N54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q54" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="R54" s="66" t="s">
         <v>404</v>
-      </c>
-      <c r="R54" s="78" t="s">
-        <v>406</v>
       </c>
       <c r="S54" s="46" t="s">
         <v>36</v>
@@ -19940,10 +19937,10 @@
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
       <c r="N55" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P55" s="21" t="s">
         <v>270</v>
@@ -19951,8 +19948,8 @@
       <c r="Q55" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R55" s="78" t="s">
-        <v>410</v>
+      <c r="R55" s="66" t="s">
+        <v>408</v>
       </c>
       <c r="S55" s="46" t="s">
         <v>36</v>
@@ -19965,19 +19962,19 @@
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
       <c r="N56" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="P56" s="21" t="s">
         <v>271</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="R56" s="78" t="s">
-        <v>412</v>
+        <v>409</v>
+      </c>
+      <c r="R56" s="66" t="s">
+        <v>410</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>36</v>
@@ -19990,10 +19987,10 @@
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P57" s="21" t="s">
         <v>268</v>
@@ -20001,8 +19998,8 @@
       <c r="Q57" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="R57" s="78" t="s">
-        <v>322</v>
+      <c r="R57" s="66" t="s">
+        <v>320</v>
       </c>
       <c r="S57" s="46" t="s">
         <v>36</v>
@@ -20015,10 +20012,10 @@
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P58" s="21" t="s">
         <v>270</v>
@@ -20026,8 +20023,8 @@
       <c r="Q58" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R58" s="78" t="s">
-        <v>416</v>
+      <c r="R58" s="66" t="s">
+        <v>414</v>
       </c>
       <c r="S58" s="46" t="s">
         <v>36</v>
@@ -20040,10 +20037,10 @@
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
       <c r="N59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P59" s="21" t="s">
         <v>270</v>
@@ -20051,8 +20048,8 @@
       <c r="Q59" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R59" s="78" t="s">
-        <v>324</v>
+      <c r="R59" s="66" t="s">
+        <v>322</v>
       </c>
       <c r="S59" s="46" t="s">
         <v>36</v>
@@ -20065,19 +20062,19 @@
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
       <c r="N60" t="s">
+        <v>323</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q60" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="R60" s="66" t="s">
         <v>325</v>
-      </c>
-      <c r="O60" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="P60" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q60" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="R60" s="78" t="s">
-        <v>327</v>
       </c>
       <c r="S60" s="46" t="s">
         <v>36</v>
@@ -20090,19 +20087,19 @@
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
       <c r="N61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P61" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="R61" s="78" t="s">
-        <v>423</v>
+        <v>420</v>
+      </c>
+      <c r="R61" s="66" t="s">
+        <v>421</v>
       </c>
       <c r="S61" s="46" t="s">
         <v>36</v>
@@ -20116,19 +20113,19 @@
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P62" s="21" t="s">
         <v>45</v>
       </c>
       <c r="Q62" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="R62" s="78" t="s">
-        <v>330</v>
+        <v>305</v>
+      </c>
+      <c r="R62" s="66" t="s">
+        <v>328</v>
       </c>
       <c r="S62" s="46" t="s">
         <v>36</v>
@@ -20142,10 +20139,10 @@
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
       <c r="N63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P63" s="21" t="s">
         <v>42</v>
@@ -20153,8 +20150,8 @@
       <c r="Q63" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R63" s="78" t="s">
-        <v>332</v>
+      <c r="R63" s="66" t="s">
+        <v>330</v>
       </c>
       <c r="S63" s="46" t="s">
         <v>36</v>
@@ -20167,19 +20164,19 @@
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
       <c r="N64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P64" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q64" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="R64" s="78" t="s">
-        <v>334</v>
+        <v>305</v>
+      </c>
+      <c r="R64" s="66" t="s">
+        <v>332</v>
       </c>
       <c r="S64" s="46" t="s">
         <v>36</v>
@@ -20192,19 +20189,19 @@
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
       <c r="N65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O65" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="R65" s="66" t="s">
         <v>428</v>
-      </c>
-      <c r="P65" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q65" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="R65" s="78" t="s">
-        <v>430</v>
       </c>
       <c r="S65" s="46" t="s">
         <v>36</v>
@@ -20218,19 +20215,19 @@
       <c r="L66" s="38"/>
       <c r="M66" s="38"/>
       <c r="N66" t="s">
+        <v>335</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q66" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="O66" s="21" t="s">
+      <c r="R66" s="66" t="s">
         <v>429</v>
-      </c>
-      <c r="P66" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q66" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="R66" s="78" t="s">
-        <v>431</v>
       </c>
       <c r="S66" s="46" t="s">
         <v>36</v>
@@ -20244,19 +20241,19 @@
       <c r="L67" s="38"/>
       <c r="M67" s="38"/>
       <c r="N67" t="s">
+        <v>430</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="P67" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q67" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="R67" s="66" t="s">
         <v>432</v>
-      </c>
-      <c r="O67" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="P67" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q67" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="R67" s="78" t="s">
-        <v>434</v>
       </c>
       <c r="S67" s="46" t="s">
         <v>36</v>
@@ -20270,19 +20267,19 @@
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
       <c r="N68" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P68" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q68" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="R68" s="78" t="s">
-        <v>467</v>
+        <v>434</v>
+      </c>
+      <c r="R68" s="66" t="s">
+        <v>465</v>
       </c>
       <c r="S68" s="46" t="s">
         <v>36</v>
@@ -20296,19 +20293,19 @@
       <c r="L69" s="38"/>
       <c r="M69" s="38"/>
       <c r="N69" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P69" s="21" t="s">
         <v>131</v>
       </c>
       <c r="Q69" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="R69" s="78" t="s">
-        <v>342</v>
+        <v>315</v>
+      </c>
+      <c r="R69" s="66" t="s">
+        <v>340</v>
       </c>
       <c r="S69" s="46" t="s">
         <v>36</v>
@@ -20322,19 +20319,19 @@
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
       <c r="N70" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P70" s="21" t="s">
         <v>270</v>
       </c>
       <c r="Q70" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="R70" s="78" t="s">
-        <v>344</v>
+        <v>305</v>
+      </c>
+      <c r="R70" s="66" t="s">
+        <v>342</v>
       </c>
       <c r="S70" s="46" t="s">
         <v>36</v>
@@ -20347,19 +20344,19 @@
       <c r="L71" s="38"/>
       <c r="M71" s="38"/>
       <c r="N71" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P71" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="R71" s="78" t="s">
-        <v>346</v>
+        <v>305</v>
+      </c>
+      <c r="R71" s="66" t="s">
+        <v>344</v>
       </c>
       <c r="S71" s="46" t="s">
         <v>36</v>
@@ -20372,19 +20369,19 @@
       <c r="L72" s="38"/>
       <c r="M72" s="38"/>
       <c r="N72" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="R72" s="78" t="s">
-        <v>440</v>
+        <v>334</v>
+      </c>
+      <c r="R72" s="66" t="s">
+        <v>438</v>
       </c>
       <c r="S72" s="46" t="s">
         <v>36</v>
@@ -20397,19 +20394,19 @@
       <c r="L73" s="38"/>
       <c r="M73" s="38"/>
       <c r="N73" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P73" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q73" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R73" s="78" t="s">
-        <v>349</v>
+      <c r="R73" s="66" t="s">
+        <v>347</v>
       </c>
       <c r="S73" s="46" t="s">
         <v>36</v>
@@ -20422,19 +20419,19 @@
       <c r="L74" s="38"/>
       <c r="M74" s="38"/>
       <c r="N74" t="s">
+        <v>441</v>
+      </c>
+      <c r="O74" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="O74" s="21" t="s">
-        <v>445</v>
-      </c>
       <c r="P74" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q74" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R74" s="78" t="s">
-        <v>444</v>
+      <c r="R74" s="66" t="s">
+        <v>442</v>
       </c>
       <c r="S74" s="46" t="s">
         <v>36</v>
@@ -20447,19 +20444,19 @@
       <c r="L75" s="38"/>
       <c r="M75" s="38"/>
       <c r="N75" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P75" s="21" t="s">
         <v>269</v>
       </c>
       <c r="Q75" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="R75" s="78" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="R75" s="66" t="s">
+        <v>445</v>
       </c>
       <c r="S75" s="46" t="s">
         <v>36</v>
@@ -20472,10 +20469,10 @@
       <c r="L76" s="38"/>
       <c r="M76" s="38"/>
       <c r="N76" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P76" s="21" t="s">
         <v>269</v>
@@ -20483,8 +20480,8 @@
       <c r="Q76" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="R76" s="78" t="s">
-        <v>352</v>
+      <c r="R76" s="66" t="s">
+        <v>350</v>
       </c>
       <c r="S76" s="46" t="s">
         <v>36</v>
@@ -20497,19 +20494,19 @@
       <c r="L77" s="38"/>
       <c r="M77" s="38"/>
       <c r="N77" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P77" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q77" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="R77" s="78" t="s">
-        <v>452</v>
+        <v>449</v>
+      </c>
+      <c r="R77" s="66" t="s">
+        <v>450</v>
       </c>
       <c r="S77" s="46" t="s">
         <v>36</v>
@@ -20522,10 +20519,10 @@
       <c r="L78" s="38"/>
       <c r="M78" s="38"/>
       <c r="N78" t="s">
+        <v>452</v>
+      </c>
+      <c r="O78" s="21" t="s">
         <v>454</v>
-      </c>
-      <c r="O78" s="21" t="s">
-        <v>456</v>
       </c>
       <c r="P78" s="21" t="s">
         <v>46</v>
@@ -20533,8 +20530,8 @@
       <c r="Q78" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="R78" s="78" t="s">
-        <v>455</v>
+      <c r="R78" s="66" t="s">
+        <v>453</v>
       </c>
       <c r="S78" s="46" t="s">
         <v>36</v>
@@ -20547,19 +20544,19 @@
       <c r="L79" s="38"/>
       <c r="M79" s="38"/>
       <c r="N79" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P79" s="21" t="s">
         <v>42</v>
       </c>
       <c r="Q79" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="R79" s="78" t="s">
-        <v>465</v>
+        <v>352</v>
+      </c>
+      <c r="R79" s="66" t="s">
+        <v>463</v>
       </c>
       <c r="S79" s="46" t="s">
         <v>36</v>
@@ -20572,19 +20569,19 @@
       <c r="L80" s="38"/>
       <c r="M80" s="38"/>
       <c r="N80" t="s">
+        <v>456</v>
+      </c>
+      <c r="O80" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="O80" s="21" t="s">
-        <v>460</v>
-      </c>
       <c r="P80" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q80" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R80" s="78" t="s">
-        <v>459</v>
+      <c r="R80" s="66" t="s">
+        <v>457</v>
       </c>
       <c r="S80" s="46" t="s">
         <v>36</v>
@@ -20597,10 +20594,10 @@
       <c r="L81" s="38"/>
       <c r="M81" s="38"/>
       <c r="N81" t="s">
+        <v>459</v>
+      </c>
+      <c r="O81" s="21" t="s">
         <v>461</v>
-      </c>
-      <c r="O81" s="21" t="s">
-        <v>463</v>
       </c>
       <c r="P81" s="21" t="s">
         <v>45</v>
@@ -20608,8 +20605,8 @@
       <c r="Q81" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="R81" s="78" t="s">
-        <v>462</v>
+      <c r="R81" s="66" t="s">
+        <v>460</v>
       </c>
       <c r="S81" s="46" t="s">
         <v>36</v>
@@ -20622,19 +20619,19 @@
       <c r="L82" s="38"/>
       <c r="M82" s="38"/>
       <c r="N82" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P82" s="21" t="s">
         <v>269</v>
       </c>
       <c r="Q82" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="R82" s="78" t="s">
-        <v>466</v>
+        <v>354</v>
+      </c>
+      <c r="R82" s="66" t="s">
+        <v>464</v>
       </c>
       <c r="S82" s="46" t="s">
         <v>36</v>
@@ -20647,19 +20644,19 @@
       <c r="L83" s="38"/>
       <c r="M83" s="38"/>
       <c r="N83" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P83" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R83" s="78" t="s">
-        <v>358</v>
+      <c r="R83" s="66" t="s">
+        <v>356</v>
       </c>
       <c r="S83" s="46" t="s">
         <v>36</v>
@@ -20672,19 +20669,19 @@
       <c r="L84" s="38"/>
       <c r="M84" s="38"/>
       <c r="N84" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P84" s="21" t="s">
         <v>42</v>
       </c>
       <c r="Q84" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="R84" s="78" t="s">
-        <v>470</v>
+        <v>358</v>
+      </c>
+      <c r="R84" s="66" t="s">
+        <v>468</v>
       </c>
       <c r="S84" s="46" t="s">
         <v>36</v>
@@ -20697,19 +20694,19 @@
       <c r="L85" s="38"/>
       <c r="M85" s="38"/>
       <c r="N85" t="s">
+        <v>469</v>
+      </c>
+      <c r="O85" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="O85" s="21" t="s">
-        <v>473</v>
-      </c>
       <c r="P85" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q85" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="R85" s="78" t="s">
-        <v>472</v>
+      <c r="R85" s="66" t="s">
+        <v>470</v>
       </c>
       <c r="S85" s="46" t="s">
         <v>36</v>
@@ -20723,10 +20720,10 @@
       <c r="L86" s="38"/>
       <c r="M86" s="38"/>
       <c r="N86" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P86" s="21" t="s">
         <v>269</v>
@@ -20734,8 +20731,8 @@
       <c r="Q86" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="R86" s="78" t="s">
-        <v>362</v>
+      <c r="R86" s="66" t="s">
+        <v>360</v>
       </c>
       <c r="S86" s="46" t="s">
         <v>36</v>
@@ -20750,19 +20747,19 @@
       <c r="L87" s="38"/>
       <c r="M87" s="38"/>
       <c r="N87" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P87" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q87" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R87" s="78" t="s">
-        <v>479</v>
+      <c r="R87" s="66" t="s">
+        <v>477</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>36</v>
@@ -20777,10 +20774,10 @@
       <c r="L88" s="38"/>
       <c r="M88" s="38"/>
       <c r="N88" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P88" s="21" t="s">
         <v>42</v>
@@ -20788,8 +20785,8 @@
       <c r="Q88" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R88" s="78" t="s">
-        <v>482</v>
+      <c r="R88" s="66" t="s">
+        <v>480</v>
       </c>
       <c r="S88" s="46" t="s">
         <v>36</v>
@@ -20804,10 +20801,10 @@
       <c r="L89" s="38"/>
       <c r="M89" s="38"/>
       <c r="N89" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P89" s="21" t="s">
         <v>41</v>
@@ -20815,8 +20812,8 @@
       <c r="Q89" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="R89" s="78" t="s">
-        <v>484</v>
+      <c r="R89" s="66" t="s">
+        <v>482</v>
       </c>
       <c r="S89" s="46" t="s">
         <v>36</v>
@@ -20831,10 +20828,10 @@
       <c r="L90" s="38"/>
       <c r="M90" s="38"/>
       <c r="N90" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P90" s="21" t="s">
         <v>42</v>
@@ -20842,8 +20839,8 @@
       <c r="Q90" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R90" s="78" t="s">
-        <v>486</v>
+      <c r="R90" s="66" t="s">
+        <v>484</v>
       </c>
       <c r="S90" s="46" t="s">
         <v>36</v>
@@ -20858,19 +20855,19 @@
       <c r="L91" s="38"/>
       <c r="M91" s="38"/>
       <c r="N91" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P91" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q91" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R91" s="78" t="s">
-        <v>364</v>
+      <c r="R91" s="66" t="s">
+        <v>362</v>
       </c>
       <c r="S91" s="46" t="s">
         <v>36</v>
@@ -20883,19 +20880,19 @@
       <c r="L92" s="38"/>
       <c r="M92" s="38"/>
       <c r="N92" t="s">
+        <v>363</v>
+      </c>
+      <c r="O92" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="P92" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q92" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="R92" s="66" t="s">
         <v>365</v>
-      </c>
-      <c r="O92" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="P92" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q92" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="R92" s="78" t="s">
-        <v>367</v>
       </c>
       <c r="S92" s="46" t="s">
         <v>36</v>
@@ -20909,19 +20906,19 @@
       <c r="L93" s="38"/>
       <c r="M93" s="38"/>
       <c r="N93" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="P93" s="21" t="s">
         <v>269</v>
       </c>
       <c r="Q93" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="R93" s="78" t="s">
-        <v>492</v>
+        <v>444</v>
+      </c>
+      <c r="R93" s="66" t="s">
+        <v>490</v>
       </c>
       <c r="S93" s="46" t="s">
         <v>36</v>
@@ -25164,12 +25161,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">

--- a/assay_data/TB_assays.xlsx
+++ b/assay_data/TB_assays.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21960" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="9060" yWindow="3860" windowWidth="38400" windowHeight="21960" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TB" sheetId="1" r:id="rId1"/>
@@ -2412,44 +2412,270 @@
     <t>pncA V180 mutation present which is associated with pyrazinamide resistance.</t>
   </si>
   <si>
-    <t>L511</t>
-  </si>
-  <si>
-    <t>Q513</t>
-  </si>
-  <si>
     <t>K,L,P</t>
   </si>
   <si>
-    <t>D516</t>
-  </si>
-  <si>
-    <t>S522</t>
-  </si>
-  <si>
     <t>Q,L</t>
   </si>
   <si>
-    <t>H526</t>
-  </si>
-  <si>
-    <t>S531</t>
-  </si>
-  <si>
-    <t>L533</t>
-  </si>
-  <si>
     <t>Rifampicin</t>
   </si>
   <si>
-    <t>rpoB L511P mutation present which is associated with rifampicin resistance. Minimal-confidence mutation in Miotto et al. 2017.</t>
-  </si>
-  <si>
     <t>katG S315 mutation present which is associated with isoniazid resistance.</t>
   </si>
   <si>
+    <t>761094-761096</t>
+  </si>
+  <si>
+    <t>761100-761102</t>
+  </si>
+  <si>
+    <t>761097-761099</t>
+  </si>
+  <si>
+    <t>A,F,G,N,V,Y</t>
+  </si>
+  <si>
+    <t>761109-761111</t>
+  </si>
+  <si>
+    <t>761127-761129</t>
+  </si>
+  <si>
+    <t>C,D,F,G,L,N,R,Y</t>
+  </si>
+  <si>
+    <t>761139-761141</t>
+  </si>
+  <si>
+    <t>F,L,Q,W,Y</t>
+  </si>
+  <si>
+    <t>761154-761156</t>
+  </si>
+  <si>
+    <t>761160-761162</t>
+  </si>
+  <si>
+    <t>761277-761279</t>
+  </si>
+  <si>
+    <t>761439-761441</t>
+  </si>
+  <si>
+    <t>a1401g</t>
+  </si>
+  <si>
+    <t>c1402t</t>
+  </si>
+  <si>
+    <t>g1484t</t>
+  </si>
+  <si>
+    <t>a514c</t>
+  </si>
+  <si>
+    <t>a514t</t>
+  </si>
+  <si>
+    <t>rrs a514t mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>rrs a514c mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>c513t</t>
+  </si>
+  <si>
+    <t>rrs c513t mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>c517t</t>
+  </si>
+  <si>
+    <t>rrs c517t mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>c462t</t>
+  </si>
+  <si>
+    <t>rrs c462t mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>781677-781679</t>
+  </si>
+  <si>
+    <t>rpsL T40I mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>K43</t>
+  </si>
+  <si>
+    <t>K88</t>
+  </si>
+  <si>
+    <t>781686-781688</t>
+  </si>
+  <si>
+    <t>781821-781823</t>
+  </si>
+  <si>
+    <t>R,T</t>
+  </si>
+  <si>
+    <t>rpsL K43 mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>rpsL K88 mutation present which is associated with streptomycin resistance.</t>
+  </si>
+  <si>
+    <t>N236</t>
+  </si>
+  <si>
+    <t>1918645-1918647</t>
+  </si>
+  <si>
+    <t>tlyA N236K mutation present which is associated with capreomycin resistance.</t>
+  </si>
+  <si>
+    <t>references/ASM19595v2.fasta</t>
+  </si>
+  <si>
+    <t>E459</t>
+  </si>
+  <si>
+    <t>A504</t>
+  </si>
+  <si>
+    <t>L430</t>
+  </si>
+  <si>
+    <t>S431</t>
+  </si>
+  <si>
+    <t>Q432</t>
+  </si>
+  <si>
+    <t>D435</t>
+  </si>
+  <si>
+    <t>H445</t>
+  </si>
+  <si>
+    <t>S441</t>
+  </si>
+  <si>
+    <t>S450</t>
+  </si>
+  <si>
+    <t>L452</t>
+  </si>
+  <si>
+    <t>I491</t>
+  </si>
+  <si>
+    <t>rpoB L430P (L511P) mutation present which is associated with rifampicin resistance. Minimal-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>rpoB S431T (S512T) mutation present which is associated with rifampicin resistance.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">rpoB L533P mutation present which is associated with rifampicin resistance. Moderate-confidence mutation in Miotto </t>
+      <t xml:space="preserve">rpoB Q432 (Q513) mutation present which is associated with rifampicin resistance. Q513K, Q513L, and Q513P are high-confidence mutations in Miotto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2017.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rpoB D435 (D516) mutation present which is associated with rifampicin resistance. D516A, D516F, D516G andD516V are high-confidence mutations in Miotto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2017. D516Y is a moderate-confidence mutation in Miotto et al. 2017</t>
+    </r>
+  </si>
+  <si>
+    <t>rpoB S441 (S522) mutation present which is associated with rifampicin resistance. S522Q is a high-confidence mutation in Miotto et al. 2017. S522L is a moderate-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rpoB H445 (H526) mutation present which is associated with rifampicin resistance. H526C, H526D, H526G, H526L, H526R, and H526Y mutations are high-confidence mutations in Miotto et al. 2017. H526N is a minimal-confidence mutation in Miotto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rpoB S450 (S531) mutation present which is associated with rifampicin resistance. S531F, S531L, S531W are high-confidence mutations in Miotto </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2017.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rpoB L452P (L533P) mutation present which is associated with rifampicin resistance. Moderate-confidence mutation in Miotto </t>
     </r>
     <r>
       <rPr>
@@ -2470,239 +2696,13 @@
     </r>
   </si>
   <si>
-    <t>761094-761096</t>
-  </si>
-  <si>
-    <t>761100-761102</t>
-  </si>
-  <si>
-    <t>S512</t>
-  </si>
-  <si>
-    <t>761097-761099</t>
-  </si>
-  <si>
-    <t>rpoB S512T mutation present which is associated with rifampicin resistance.</t>
-  </si>
-  <si>
-    <t>A,F,G,N,V,Y</t>
-  </si>
-  <si>
-    <t>761109-761111</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rpoB Q513 mutation present which is associated with rifampicin resistance. Q513K, Q513L, and Q513P are high-confidence mutations in Miotto </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2017.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rpoB D516 mutation present which is associated with rifampicin resistance. D516A, D516F, D516G andD516V are high-confidence mutations in Miotto </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2017. D516Y is a moderate-confidence mutation in Miotto et al. 2017</t>
-    </r>
-  </si>
-  <si>
-    <t>rpoB S522 mutation present which is associated with rifampicin resistance. S522Q is a high-confidence mutation in Miotto et al. 2017. S522L is a moderate-confidence mutation in Miotto et al. 2017.</t>
-  </si>
-  <si>
-    <t>761127-761129</t>
-  </si>
-  <si>
-    <t>C,D,F,G,L,N,R,Y</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rpoB H526 mutation present which is associated with rifampicin resistance. H526C, H526D, H526G, H526L, H526R, and H526Y mutations are high-confidence mutations in Miotto et al. 2017. H526N is a minimal-confidence mutation in Miotto </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2017</t>
-    </r>
-  </si>
-  <si>
-    <t>761139-761141</t>
-  </si>
-  <si>
-    <t>F,L,Q,W,Y</t>
-  </si>
-  <si>
-    <t>761154-761156</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rpoB S531 mutation present which is associated with rifampicin resistance. S531F, S531L, S531W are high-confidence mutations in Miotto </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2017.</t>
-    </r>
-  </si>
-  <si>
-    <t>761160-761162</t>
-  </si>
-  <si>
-    <t>I572</t>
-  </si>
-  <si>
-    <t>rpoB I572F mutation present which is associated with rifampicin resistance. Minimal-confidence mutation in Miotto et al. 2017.</t>
-  </si>
-  <si>
-    <t>761277-761279</t>
-  </si>
-  <si>
-    <t>D626</t>
-  </si>
-  <si>
-    <t>rpoB D626E mutation present which is associated with rifampicin resistance.</t>
-  </si>
-  <si>
-    <t>761439-761441</t>
-  </si>
-  <si>
-    <t>a1401g</t>
-  </si>
-  <si>
-    <t>c1402t</t>
-  </si>
-  <si>
-    <t>g1484t</t>
-  </si>
-  <si>
-    <t>a514c</t>
-  </si>
-  <si>
-    <t>a514t</t>
-  </si>
-  <si>
-    <t>rrs a514t mutation present which is associated with streptomycin resistance.</t>
-  </si>
-  <si>
-    <t>rrs a514c mutation present which is associated with streptomycin resistance.</t>
-  </si>
-  <si>
-    <t>c513t</t>
-  </si>
-  <si>
-    <t>rrs c513t mutation present which is associated with streptomycin resistance.</t>
-  </si>
-  <si>
-    <t>c517t</t>
-  </si>
-  <si>
-    <t>rrs c517t mutation present which is associated with streptomycin resistance.</t>
-  </si>
-  <si>
-    <t>c462t</t>
-  </si>
-  <si>
-    <t>rrs c462t mutation present which is associated with streptomycin resistance.</t>
-  </si>
-  <si>
-    <t>T40</t>
-  </si>
-  <si>
-    <t>781677-781679</t>
-  </si>
-  <si>
-    <t>rpsL T40I mutation present which is associated with streptomycin resistance.</t>
-  </si>
-  <si>
-    <t>K43</t>
-  </si>
-  <si>
-    <t>K88</t>
-  </si>
-  <si>
-    <t>781686-781688</t>
-  </si>
-  <si>
-    <t>781821-781823</t>
-  </si>
-  <si>
-    <t>R,T</t>
-  </si>
-  <si>
-    <t>rpsL K43 mutation present which is associated with streptomycin resistance.</t>
-  </si>
-  <si>
-    <t>rpsL K88 mutation present which is associated with streptomycin resistance.</t>
-  </si>
-  <si>
-    <t>N236</t>
-  </si>
-  <si>
-    <t>1918645-1918647</t>
-  </si>
-  <si>
-    <t>tlyA N236K mutation present which is associated with capreomycin resistance.</t>
-  </si>
-  <si>
-    <t>references/ASM19595v2.fasta</t>
-  </si>
-  <si>
-    <t>E459</t>
-  </si>
-  <si>
-    <t>A504</t>
+    <t>rpoB I491F (I572F) mutation present which is associated with rifampicin resistance. Minimal-confidence mutation in Miotto et al. 2017.</t>
+  </si>
+  <si>
+    <t>D545</t>
+  </si>
+  <si>
+    <t>rpoB D545E (D626E) mutation present which is associated with rifampicin resistance.</t>
   </si>
 </sst>
 </file>
@@ -18597,7 +18597,7 @@
   <dimension ref="A1:AH724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18753,10 +18753,10 @@
         <v>25</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="N3" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="O3" t="s">
         <v>281</v>
@@ -18777,7 +18777,7 @@
     <row r="4" spans="1:34">
       <c r="I4" s="8"/>
       <c r="N4" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="O4" t="s">
         <v>282</v>
@@ -18907,10 +18907,10 @@
     <row r="10" spans="1:34">
       <c r="I10" s="8"/>
       <c r="N10" s="21" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P10" s="21" t="s">
         <v>317</v>
@@ -18919,19 +18919,19 @@
         <v>271</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="S10" s="46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="I11" s="8"/>
       <c r="N11" s="21" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="P11" s="21" t="s">
         <v>270</v>
@@ -18940,124 +18940,124 @@
         <v>42</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="S11" s="46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="I12" s="8"/>
       <c r="N12" s="21" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="P12" s="21" t="s">
         <v>300</v>
       </c>
       <c r="Q12" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="S12" s="46" t="s">
         <v>493</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="S12" s="46" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="I13" s="8"/>
       <c r="N13" s="21" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="P13" s="21" t="s">
         <v>268</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="S13" s="46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="I14" s="8"/>
       <c r="N14" s="21" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="P14" s="21" t="s">
         <v>270</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="S14" s="46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="I15" s="8"/>
       <c r="N15" s="21" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="P15" s="21" t="s">
         <v>315</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="S15" s="46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="I16" s="8"/>
       <c r="N16" s="21" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>270</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="S16" s="46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="9:19">
       <c r="I17" s="8"/>
       <c r="N17" s="21" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>317</v>
@@ -19066,19 +19066,19 @@
         <v>271</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="S17" s="46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="9:19">
       <c r="I18" s="8"/>
       <c r="N18" s="21" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>294</v>
@@ -19087,19 +19087,19 @@
         <v>336</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="S18" s="46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="9:19">
       <c r="I19" s="8"/>
       <c r="N19" s="21" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="P19" s="21" t="s">
         <v>268</v>
@@ -19108,19 +19108,19 @@
         <v>279</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="S19" s="46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="9:19">
       <c r="I20" s="8"/>
       <c r="N20" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="P20" s="21" t="s">
         <v>42</v>
@@ -19129,7 +19129,7 @@
         <v>294</v>
       </c>
       <c r="R20" s="66" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="S20" s="31" t="s">
         <v>232</v>
@@ -19138,19 +19138,19 @@
     <row r="21" spans="9:19">
       <c r="I21" s="8"/>
       <c r="N21" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="P21" s="21" t="s">
         <v>280</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="R21" s="66" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="S21" s="31" t="s">
         <v>232</v>
@@ -19159,10 +19159,10 @@
     <row r="22" spans="9:19">
       <c r="I22" s="8"/>
       <c r="N22" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="P22" s="21" t="s">
         <v>280</v>
@@ -19171,7 +19171,7 @@
         <v>398</v>
       </c>
       <c r="R22" s="66" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="S22" s="31" t="s">
         <v>232</v>
@@ -19180,7 +19180,7 @@
     <row r="23" spans="9:19">
       <c r="I23" s="8"/>
       <c r="J23" s="28" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="K23" s="28">
         <v>1472307</v>
@@ -19192,7 +19192,7 @@
         <v>42</v>
       </c>
       <c r="R23" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="S23" s="31" t="s">
         <v>232</v>
@@ -19201,7 +19201,7 @@
     <row r="24" spans="9:19">
       <c r="I24" s="8"/>
       <c r="J24" s="28" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="K24" s="28">
         <v>1472358</v>
@@ -19213,7 +19213,7 @@
         <v>42</v>
       </c>
       <c r="R24" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="S24" s="31" t="s">
         <v>232</v>
@@ -19222,7 +19222,7 @@
     <row r="25" spans="9:19">
       <c r="I25" s="8"/>
       <c r="J25" s="28" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="K25" s="28">
         <v>1472359</v>
@@ -19234,7 +19234,7 @@
         <v>45</v>
       </c>
       <c r="R25" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="S25" s="31" t="s">
         <v>232</v>
@@ -19243,7 +19243,7 @@
     <row r="26" spans="9:19">
       <c r="I26" s="8"/>
       <c r="J26" s="28" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="K26" s="28">
         <v>1472359</v>
@@ -19255,7 +19255,7 @@
         <v>42</v>
       </c>
       <c r="R26" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="S26" s="31" t="s">
         <v>232</v>
@@ -19264,7 +19264,7 @@
     <row r="27" spans="9:19">
       <c r="I27" s="8"/>
       <c r="J27" s="28" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="K27" s="28">
         <v>1472362</v>
@@ -19276,7 +19276,7 @@
         <v>42</v>
       </c>
       <c r="R27" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="S27" s="31" t="s">
         <v>232</v>
@@ -19285,7 +19285,7 @@
     <row r="28" spans="9:19">
       <c r="I28" s="8"/>
       <c r="J28" s="28" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="K28" s="28">
         <v>1473246</v>
@@ -19306,7 +19306,7 @@
     <row r="29" spans="9:19">
       <c r="I29" s="8"/>
       <c r="J29" s="28" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="K29" s="28">
         <v>1473247</v>
@@ -19327,7 +19327,7 @@
     <row r="30" spans="9:19">
       <c r="I30" s="8"/>
       <c r="J30" s="28" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="K30" s="28">
         <v>1473329</v>
@@ -19369,10 +19369,10 @@
     <row r="32" spans="9:19">
       <c r="I32" s="8"/>
       <c r="N32" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="P32" s="21" t="s">
         <v>34</v>
@@ -19381,7 +19381,7 @@
         <v>280</v>
       </c>
       <c r="R32" s="66" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="S32" s="31" t="s">
         <v>128</v>
@@ -19402,7 +19402,7 @@
         <v>288</v>
       </c>
       <c r="R33" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="S33" s="31" t="s">
         <v>43</v>

--- a/assay_data/TB_assays.xlsx
+++ b/assay_data/TB_assays.xlsx
@@ -1713,18 +1713,6 @@
     <t>TB_AMR</t>
   </si>
   <si>
-    <t>g-10a</t>
-  </si>
-  <si>
-    <t>c-12t</t>
-  </si>
-  <si>
-    <t>c-14t</t>
-  </si>
-  <si>
-    <t>g-37t</t>
-  </si>
-  <si>
     <t>G88</t>
   </si>
   <si>
@@ -1794,9 +1782,6 @@
     <t>gyrB 504 mutation present which is associated with resistance to quinolones, but Moxifloxacin may still have clinical activity. Testing for MOX MIC is recommended.</t>
   </si>
   <si>
-    <t>c-15t</t>
-  </si>
-  <si>
     <t>S315</t>
   </si>
   <si>
@@ -1806,9 +1791,6 @@
     <t>I,N,T</t>
   </si>
   <si>
-    <t>a-11g</t>
-  </si>
-  <si>
     <t>pncA a-11g mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
   </si>
   <si>
@@ -2040,12 +2022,6 @@
     <t>2289235-2289233</t>
   </si>
   <si>
-    <t>t-7c</t>
-  </si>
-  <si>
-    <t>t-12c</t>
-  </si>
-  <si>
     <t>pncA t-7c mutation present which is associated with pyrazinamide resistance. High-confidence mutation in Miotto et al. 2017.</t>
   </si>
   <si>
@@ -2463,40 +2439,16 @@
     <t>761439-761441</t>
   </si>
   <si>
-    <t>a1401g</t>
-  </si>
-  <si>
-    <t>c1402t</t>
-  </si>
-  <si>
-    <t>g1484t</t>
-  </si>
-  <si>
-    <t>a514c</t>
-  </si>
-  <si>
-    <t>a514t</t>
-  </si>
-  <si>
     <t>rrs a514t mutation present which is associated with streptomycin resistance.</t>
   </si>
   <si>
     <t>rrs a514c mutation present which is associated with streptomycin resistance.</t>
   </si>
   <si>
-    <t>c513t</t>
-  </si>
-  <si>
     <t>rrs c513t mutation present which is associated with streptomycin resistance.</t>
   </si>
   <si>
-    <t>c517t</t>
-  </si>
-  <si>
     <t>rrs c517t mutation present which is associated with streptomycin resistance.</t>
-  </si>
-  <si>
-    <t>c462t</t>
   </si>
   <si>
     <t>rrs c462t mutation present which is associated with streptomycin resistance.</t>
@@ -2703,6 +2655,54 @@
   </si>
   <si>
     <t>rpoB D545E (D626E) mutation present which is associated with rifampicin resistance.</t>
+  </si>
+  <si>
+    <t>462C&gt;T</t>
+  </si>
+  <si>
+    <t>513C&gt;T</t>
+  </si>
+  <si>
+    <t>514A&gt;C</t>
+  </si>
+  <si>
+    <t>514A&gt;T</t>
+  </si>
+  <si>
+    <t>517C&gt;T</t>
+  </si>
+  <si>
+    <t>1401A&gt;G</t>
+  </si>
+  <si>
+    <t>1402C&gt;T</t>
+  </si>
+  <si>
+    <t>1484G&gt;T</t>
+  </si>
+  <si>
+    <t>-15C&gt;T</t>
+  </si>
+  <si>
+    <t>-7T&gt;C</t>
+  </si>
+  <si>
+    <t>-11A&gt;G</t>
+  </si>
+  <si>
+    <t>-12T&gt;C</t>
+  </si>
+  <si>
+    <t>-10G&gt;A</t>
+  </si>
+  <si>
+    <t>-12C&gt;T</t>
+  </si>
+  <si>
+    <t>-14C&gt;T</t>
+  </si>
+  <si>
+    <t>-37G&gt;T</t>
   </si>
 </sst>
 </file>
@@ -3412,7 +3412,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3606,6 +3606,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="449">
@@ -18597,7 +18600,7 @@
   <dimension ref="A1:AH724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18753,22 +18756,22 @@
         <v>25</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="N3" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="O3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" t="s">
         <v>279</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>280</v>
-      </c>
-      <c r="R3" t="s">
-        <v>283</v>
       </c>
       <c r="S3" s="31" t="s">
         <v>60</v>
@@ -18777,19 +18780,19 @@
     <row r="4" spans="1:34">
       <c r="I4" s="8"/>
       <c r="N4" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="O4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P4" t="s">
         <v>46</v>
       </c>
       <c r="Q4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="R4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S4" s="31" t="s">
         <v>60</v>
@@ -18799,16 +18802,16 @@
       <c r="D5" s="28"/>
       <c r="I5" s="8"/>
       <c r="N5" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P5" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="R5" t="s">
         <v>59</v>
@@ -18821,19 +18824,19 @@
       <c r="D6" s="28"/>
       <c r="I6" s="8"/>
       <c r="N6" s="21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="S6" s="31" t="s">
         <v>60</v>
@@ -18843,16 +18846,16 @@
       <c r="D7" s="8"/>
       <c r="I7" s="8"/>
       <c r="N7" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>46</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="R7" t="s">
         <v>64</v>
@@ -18864,16 +18867,16 @@
     <row r="8" spans="1:34">
       <c r="I8" s="8"/>
       <c r="N8" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R8" t="s">
         <v>65</v>
@@ -18886,16 +18889,16 @@
       <c r="D9" s="8"/>
       <c r="I9" s="8"/>
       <c r="N9" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P9" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q9" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>272</v>
       </c>
       <c r="R9" t="s">
         <v>66</v>
@@ -18907,229 +18910,229 @@
     <row r="10" spans="1:34">
       <c r="I10" s="8"/>
       <c r="N10" s="21" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="S10" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="I11" s="8"/>
       <c r="N11" s="21" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="21" t="s">
         <v>42</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="S11" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="I12" s="8"/>
       <c r="N12" s="21" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="S12" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="I13" s="8"/>
       <c r="N13" s="21" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="S13" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="I14" s="8"/>
       <c r="N14" s="21" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="S14" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="I15" s="8"/>
       <c r="N15" s="21" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="S15" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="I16" s="8"/>
       <c r="N16" s="21" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="S16" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="9:19">
       <c r="I17" s="8"/>
       <c r="N17" s="21" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="S17" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="9:19">
       <c r="I18" s="8"/>
       <c r="N18" s="21" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="S18" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="9:19">
       <c r="I19" s="8"/>
       <c r="N19" s="21" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="S19" s="46" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="9:19">
       <c r="I20" s="8"/>
       <c r="N20" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="P20" s="21" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="R20" s="66" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="S20" s="31" t="s">
         <v>232</v>
@@ -19138,19 +19141,19 @@
     <row r="21" spans="9:19">
       <c r="I21" s="8"/>
       <c r="N21" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="R21" s="66" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="S21" s="31" t="s">
         <v>232</v>
@@ -19159,19 +19162,19 @@
     <row r="22" spans="9:19">
       <c r="I22" s="8"/>
       <c r="N22" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="R22" s="66" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="S22" s="31" t="s">
         <v>232</v>
@@ -19180,7 +19183,7 @@
     <row r="23" spans="9:19">
       <c r="I23" s="8"/>
       <c r="J23" s="28" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="K23" s="28">
         <v>1472307</v>
@@ -19192,7 +19195,7 @@
         <v>42</v>
       </c>
       <c r="R23" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="S23" s="31" t="s">
         <v>232</v>
@@ -19201,7 +19204,7 @@
     <row r="24" spans="9:19">
       <c r="I24" s="8"/>
       <c r="J24" s="28" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="K24" s="28">
         <v>1472358</v>
@@ -19213,7 +19216,7 @@
         <v>42</v>
       </c>
       <c r="R24" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="S24" s="31" t="s">
         <v>232</v>
@@ -19222,7 +19225,7 @@
     <row r="25" spans="9:19">
       <c r="I25" s="8"/>
       <c r="J25" s="28" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="K25" s="28">
         <v>1472359</v>
@@ -19234,7 +19237,7 @@
         <v>45</v>
       </c>
       <c r="R25" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="S25" s="31" t="s">
         <v>232</v>
@@ -19243,7 +19246,7 @@
     <row r="26" spans="9:19">
       <c r="I26" s="8"/>
       <c r="J26" s="28" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="K26" s="28">
         <v>1472359</v>
@@ -19255,7 +19258,7 @@
         <v>42</v>
       </c>
       <c r="R26" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="S26" s="31" t="s">
         <v>232</v>
@@ -19264,7 +19267,7 @@
     <row r="27" spans="9:19">
       <c r="I27" s="8"/>
       <c r="J27" s="28" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="K27" s="28">
         <v>1472362</v>
@@ -19276,7 +19279,7 @@
         <v>42</v>
       </c>
       <c r="R27" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="S27" s="31" t="s">
         <v>232</v>
@@ -19285,7 +19288,7 @@
     <row r="28" spans="9:19">
       <c r="I28" s="8"/>
       <c r="J28" s="28" t="s">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="K28" s="28">
         <v>1473246</v>
@@ -19306,7 +19309,7 @@
     <row r="29" spans="9:19">
       <c r="I29" s="8"/>
       <c r="J29" s="28" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="K29" s="28">
         <v>1473247</v>
@@ -19327,7 +19330,7 @@
     <row r="30" spans="9:19">
       <c r="I30" s="8"/>
       <c r="J30" s="28" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="K30" s="28">
         <v>1473329</v>
@@ -19348,7 +19351,7 @@
     <row r="31" spans="9:19">
       <c r="I31" s="8"/>
       <c r="J31" s="35" t="s">
-        <v>285</v>
+        <v>549</v>
       </c>
       <c r="K31" s="28">
         <v>1673425</v>
@@ -19369,19 +19372,19 @@
     <row r="32" spans="9:19">
       <c r="I32" s="8"/>
       <c r="N32" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="P32" s="21" t="s">
         <v>34</v>
       </c>
       <c r="Q32" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="R32" s="66" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="S32" s="31" t="s">
         <v>128</v>
@@ -19390,19 +19393,19 @@
     <row r="33" spans="9:19">
       <c r="I33" s="8"/>
       <c r="N33" s="21" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="R33" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="S33" s="31" t="s">
         <v>43</v>
@@ -19410,8 +19413,8 @@
     </row>
     <row r="34" spans="9:19">
       <c r="I34" s="8"/>
-      <c r="J34" s="46" t="s">
-        <v>367</v>
+      <c r="J34" s="80" t="s">
+        <v>550</v>
       </c>
       <c r="K34" s="67">
         <v>2289248</v>
@@ -19426,7 +19429,7 @@
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="66" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="S34" s="46" t="s">
         <v>36</v>
@@ -19434,8 +19437,8 @@
     </row>
     <row r="35" spans="9:19">
       <c r="I35" s="8"/>
-      <c r="J35" s="46" t="s">
-        <v>289</v>
+      <c r="J35" s="80" t="s">
+        <v>551</v>
       </c>
       <c r="K35" s="67">
         <v>2289252</v>
@@ -19450,7 +19453,7 @@
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="66" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="S35" s="46" t="s">
         <v>36</v>
@@ -19458,8 +19461,8 @@
     </row>
     <row r="36" spans="9:19">
       <c r="I36" s="8"/>
-      <c r="J36" s="46" t="s">
-        <v>368</v>
+      <c r="J36" s="80" t="s">
+        <v>552</v>
       </c>
       <c r="K36" s="67">
         <v>2289253</v>
@@ -19474,7 +19477,7 @@
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="66" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="S36" s="46" t="s">
         <v>36</v>
@@ -19487,19 +19490,19 @@
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
       <c r="N37" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>46</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="R37" s="66" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="S37" s="46" t="s">
         <v>36</v>
@@ -19512,19 +19515,19 @@
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q38" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="R38" s="66" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="S38" s="46" t="s">
         <v>36</v>
@@ -19537,19 +19540,19 @@
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q39" s="21" t="s">
         <v>42</v>
       </c>
       <c r="R39" s="66" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="S39" s="46" t="s">
         <v>36</v>
@@ -19562,19 +19565,19 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q40" s="21" t="s">
         <v>41</v>
       </c>
       <c r="R40" s="66" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>36</v>
@@ -19587,19 +19590,19 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="21" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="R41" s="66" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="S41" s="46" t="s">
         <v>36</v>
@@ -19612,19 +19615,19 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R42" s="66" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="S42" s="46" t="s">
         <v>36</v>
@@ -19637,19 +19640,19 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q43" s="21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="R43" s="66" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="S43" s="46" t="s">
         <v>36</v>
@@ -19662,19 +19665,19 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P44" s="21" t="s">
         <v>45</v>
       </c>
       <c r="Q44" s="21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="R44" s="66" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="S44" s="46" t="s">
         <v>36</v>
@@ -19687,19 +19690,19 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P45" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q45" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="R45" s="66" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="S45" s="46" t="s">
         <v>36</v>
@@ -19712,19 +19715,19 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q46" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R46" s="66" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="S46" s="46" t="s">
         <v>36</v>
@@ -19737,19 +19740,19 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P47" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q47" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="R47" s="66" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="S47" s="46" t="s">
         <v>36</v>
@@ -19762,19 +19765,19 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P48" s="21" t="s">
         <v>131</v>
       </c>
       <c r="Q48" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="R48" s="66" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="S48" s="46" t="s">
         <v>36</v>
@@ -19787,19 +19790,19 @@
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
       <c r="N49" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P49" s="21" t="s">
         <v>46</v>
       </c>
       <c r="Q49" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="R49" s="66" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="S49" s="46" t="s">
         <v>36</v>
@@ -19812,19 +19815,19 @@
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
       <c r="N50" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q50" s="21" t="s">
         <v>42</v>
       </c>
       <c r="R50" s="66" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="S50" s="46" t="s">
         <v>36</v>
@@ -19837,19 +19840,19 @@
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
       <c r="N51" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P51" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q51" s="21" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="R51" s="66" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="S51" s="46" t="s">
         <v>36</v>
@@ -19862,19 +19865,19 @@
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
       <c r="N52" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q52" s="21" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="R52" s="66" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="S52" s="46" t="s">
         <v>36</v>
@@ -19887,19 +19890,19 @@
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
       <c r="N53" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="R53" s="66" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="S53" s="46" t="s">
         <v>36</v>
@@ -19912,19 +19915,19 @@
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
       <c r="N54" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q54" s="21" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="R54" s="66" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="S54" s="46" t="s">
         <v>36</v>
@@ -19937,19 +19940,19 @@
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
       <c r="N55" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R55" s="66" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="S55" s="46" t="s">
         <v>36</v>
@@ -19962,19 +19965,19 @@
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
       <c r="N56" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="R56" s="66" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>36</v>
@@ -19987,19 +19990,19 @@
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q57" s="21" t="s">
         <v>41</v>
       </c>
       <c r="R57" s="66" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="S57" s="46" t="s">
         <v>36</v>
@@ -20012,19 +20015,19 @@
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="P58" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q58" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R58" s="66" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="S58" s="46" t="s">
         <v>36</v>
@@ -20037,19 +20040,19 @@
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
       <c r="N59" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q59" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R59" s="66" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S59" s="46" t="s">
         <v>36</v>
@@ -20062,19 +20065,19 @@
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
       <c r="N60" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="P60" s="21" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q60" s="21" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="R60" s="66" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S60" s="46" t="s">
         <v>36</v>
@@ -20087,19 +20090,19 @@
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
       <c r="N61" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="P61" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="R61" s="66" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="S61" s="46" t="s">
         <v>36</v>
@@ -20113,19 +20116,19 @@
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P62" s="21" t="s">
         <v>45</v>
       </c>
       <c r="Q62" s="21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="R62" s="66" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="S62" s="46" t="s">
         <v>36</v>
@@ -20139,19 +20142,19 @@
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
       <c r="N63" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="P63" s="21" t="s">
         <v>42</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R63" s="66" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="S63" s="46" t="s">
         <v>36</v>
@@ -20164,19 +20167,19 @@
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
       <c r="N64" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P64" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q64" s="21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="R64" s="66" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="S64" s="46" t="s">
         <v>36</v>
@@ -20189,19 +20192,19 @@
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
       <c r="N65" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P65" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q65" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="R65" s="66" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="S65" s="46" t="s">
         <v>36</v>
@@ -20215,19 +20218,19 @@
       <c r="L66" s="38"/>
       <c r="M66" s="38"/>
       <c r="N66" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="P66" s="21" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q66" s="21" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="R66" s="66" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="S66" s="46" t="s">
         <v>36</v>
@@ -20241,19 +20244,19 @@
       <c r="L67" s="38"/>
       <c r="M67" s="38"/>
       <c r="N67" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P67" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q67" s="21" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="R67" s="66" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="S67" s="46" t="s">
         <v>36</v>
@@ -20267,19 +20270,19 @@
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
       <c r="N68" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P68" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q68" s="21" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="R68" s="66" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="S68" s="46" t="s">
         <v>36</v>
@@ -20293,19 +20296,19 @@
       <c r="L69" s="38"/>
       <c r="M69" s="38"/>
       <c r="N69" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="P69" s="21" t="s">
         <v>131</v>
       </c>
       <c r="Q69" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="R69" s="66" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="S69" s="46" t="s">
         <v>36</v>
@@ -20319,19 +20322,19 @@
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
       <c r="N70" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P70" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q70" s="21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="R70" s="66" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="S70" s="46" t="s">
         <v>36</v>
@@ -20344,19 +20347,19 @@
       <c r="L71" s="38"/>
       <c r="M71" s="38"/>
       <c r="N71" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="P71" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="R71" s="66" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="S71" s="46" t="s">
         <v>36</v>
@@ -20369,19 +20372,19 @@
       <c r="L72" s="38"/>
       <c r="M72" s="38"/>
       <c r="N72" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="R72" s="66" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="S72" s="46" t="s">
         <v>36</v>
@@ -20394,19 +20397,19 @@
       <c r="L73" s="38"/>
       <c r="M73" s="38"/>
       <c r="N73" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="P73" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q73" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R73" s="66" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="S73" s="46" t="s">
         <v>36</v>
@@ -20419,19 +20422,19 @@
       <c r="L74" s="38"/>
       <c r="M74" s="38"/>
       <c r="N74" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P74" s="21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q74" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R74" s="66" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="S74" s="46" t="s">
         <v>36</v>
@@ -20444,19 +20447,19 @@
       <c r="L75" s="38"/>
       <c r="M75" s="38"/>
       <c r="N75" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="P75" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q75" s="21" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="R75" s="66" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="S75" s="46" t="s">
         <v>36</v>
@@ -20469,19 +20472,19 @@
       <c r="L76" s="38"/>
       <c r="M76" s="38"/>
       <c r="N76" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="P76" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q76" s="21" t="s">
         <v>41</v>
       </c>
       <c r="R76" s="66" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="S76" s="46" t="s">
         <v>36</v>
@@ -20494,19 +20497,19 @@
       <c r="L77" s="38"/>
       <c r="M77" s="38"/>
       <c r="N77" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="P77" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q77" s="21" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="R77" s="66" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="S77" s="46" t="s">
         <v>36</v>
@@ -20519,19 +20522,19 @@
       <c r="L78" s="38"/>
       <c r="M78" s="38"/>
       <c r="N78" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="P78" s="21" t="s">
         <v>46</v>
       </c>
       <c r="Q78" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="R78" s="66" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="S78" s="46" t="s">
         <v>36</v>
@@ -20544,19 +20547,19 @@
       <c r="L79" s="38"/>
       <c r="M79" s="38"/>
       <c r="N79" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="P79" s="21" t="s">
         <v>42</v>
       </c>
       <c r="Q79" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="R79" s="66" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="S79" s="46" t="s">
         <v>36</v>
@@ -20569,19 +20572,19 @@
       <c r="L80" s="38"/>
       <c r="M80" s="38"/>
       <c r="N80" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="P80" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q80" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R80" s="66" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="S80" s="46" t="s">
         <v>36</v>
@@ -20594,10 +20597,10 @@
       <c r="L81" s="38"/>
       <c r="M81" s="38"/>
       <c r="N81" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P81" s="21" t="s">
         <v>45</v>
@@ -20606,7 +20609,7 @@
         <v>131</v>
       </c>
       <c r="R81" s="66" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="S81" s="46" t="s">
         <v>36</v>
@@ -20619,19 +20622,19 @@
       <c r="L82" s="38"/>
       <c r="M82" s="38"/>
       <c r="N82" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P82" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q82" s="21" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="R82" s="66" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="S82" s="46" t="s">
         <v>36</v>
@@ -20644,19 +20647,19 @@
       <c r="L83" s="38"/>
       <c r="M83" s="38"/>
       <c r="N83" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P83" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q83" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R83" s="66" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="S83" s="46" t="s">
         <v>36</v>
@@ -20669,19 +20672,19 @@
       <c r="L84" s="38"/>
       <c r="M84" s="38"/>
       <c r="N84" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P84" s="21" t="s">
         <v>42</v>
       </c>
       <c r="Q84" s="21" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="R84" s="66" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="S84" s="46" t="s">
         <v>36</v>
@@ -20694,19 +20697,19 @@
       <c r="L85" s="38"/>
       <c r="M85" s="38"/>
       <c r="N85" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="P85" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q85" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="R85" s="66" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="S85" s="46" t="s">
         <v>36</v>
@@ -20720,19 +20723,19 @@
       <c r="L86" s="38"/>
       <c r="M86" s="38"/>
       <c r="N86" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="P86" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q86" s="21" t="s">
         <v>41</v>
       </c>
       <c r="R86" s="66" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="S86" s="46" t="s">
         <v>36</v>
@@ -20747,19 +20750,19 @@
       <c r="L87" s="38"/>
       <c r="M87" s="38"/>
       <c r="N87" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="P87" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q87" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R87" s="66" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>36</v>
@@ -20774,19 +20777,19 @@
       <c r="L88" s="38"/>
       <c r="M88" s="38"/>
       <c r="N88" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="P88" s="21" t="s">
         <v>42</v>
       </c>
       <c r="Q88" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R88" s="66" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="S88" s="46" t="s">
         <v>36</v>
@@ -20801,19 +20804,19 @@
       <c r="L89" s="38"/>
       <c r="M89" s="38"/>
       <c r="N89" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="P89" s="21" t="s">
         <v>41</v>
       </c>
       <c r="Q89" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="R89" s="66" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="S89" s="46" t="s">
         <v>36</v>
@@ -20828,19 +20831,19 @@
       <c r="L90" s="38"/>
       <c r="M90" s="38"/>
       <c r="N90" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P90" s="21" t="s">
         <v>42</v>
       </c>
       <c r="Q90" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R90" s="66" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="S90" s="46" t="s">
         <v>36</v>
@@ -20855,19 +20858,19 @@
       <c r="L91" s="38"/>
       <c r="M91" s="38"/>
       <c r="N91" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="P91" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q91" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R91" s="66" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="S91" s="46" t="s">
         <v>36</v>
@@ -20880,19 +20883,19 @@
       <c r="L92" s="38"/>
       <c r="M92" s="38"/>
       <c r="N92" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="P92" s="21" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q92" s="21" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="R92" s="66" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="S92" s="46" t="s">
         <v>36</v>
@@ -20906,19 +20909,19 @@
       <c r="L93" s="38"/>
       <c r="M93" s="38"/>
       <c r="N93" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="P93" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q93" s="21" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="R93" s="66" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="S93" s="46" t="s">
         <v>36</v>
@@ -20928,7 +20931,7 @@
     <row r="94" spans="4:20">
       <c r="I94" s="8"/>
       <c r="J94" s="35" t="s">
-        <v>258</v>
+        <v>553</v>
       </c>
       <c r="K94" s="36">
         <v>2715342</v>
@@ -20950,7 +20953,7 @@
       <c r="D95" s="8"/>
       <c r="I95" s="8"/>
       <c r="J95" s="35" t="s">
-        <v>259</v>
+        <v>554</v>
       </c>
       <c r="K95" s="36">
         <v>2715344</v>
@@ -20972,7 +20975,7 @@
       <c r="D96" s="8"/>
       <c r="I96" s="10"/>
       <c r="J96" s="37" t="s">
-        <v>260</v>
+        <v>555</v>
       </c>
       <c r="K96" s="36">
         <v>2715346</v>
@@ -20993,7 +20996,7 @@
     <row r="97" spans="1:32">
       <c r="I97" s="8"/>
       <c r="J97" s="35" t="s">
-        <v>261</v>
+        <v>556</v>
       </c>
       <c r="K97" s="36">
         <v>2715369</v>

--- a/assay_data/TB_assays.xlsx
+++ b/assay_data/TB_assays.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="3860" windowWidth="38400" windowHeight="21960" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="24860" yWindow="5220" windowWidth="38400" windowHeight="21960" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TB" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="563">
   <si>
     <t>Assay Name</t>
   </si>
@@ -2388,9 +2388,6 @@
     <t>pncA V180 mutation present which is associated with pyrazinamide resistance.</t>
   </si>
   <si>
-    <t>K,L,P</t>
-  </si>
-  <si>
     <t>Q,L</t>
   </si>
   <si>
@@ -2416,9 +2413,6 @@
   </si>
   <si>
     <t>761127-761129</t>
-  </si>
-  <si>
-    <t>C,D,F,G,L,N,R,Y</t>
   </si>
   <si>
     <t>761139-761141</t>
@@ -2703,6 +2697,30 @@
   </si>
   <si>
     <t>-37G&gt;T</t>
+  </si>
+  <si>
+    <t>F424</t>
+  </si>
+  <si>
+    <t>761076-761078</t>
+  </si>
+  <si>
+    <t>H,K,L,P</t>
+  </si>
+  <si>
+    <t>rpoB F424V (F505V) mutation present which is associated with rifampicin resistance.</t>
+  </si>
+  <si>
+    <t>M434</t>
+  </si>
+  <si>
+    <t>761106-761108</t>
+  </si>
+  <si>
+    <t>C,D,F,G,L,N,P,R,Y</t>
+  </si>
+  <si>
+    <t>rpoB M434I (M515I) mutation present which is associated with rifampicin resistance.</t>
   </si>
 </sst>
 </file>
@@ -2961,7 +2979,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="449">
+  <cellStyleXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3268,6 +3286,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3571,6 +3593,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3607,11 +3632,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="449">
+  <cellStyles count="453">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -3969,6 +3991,8 @@
     <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -4059,6 +4083,8 @@
     <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="1" builtinId="25" customBuiltin="1"/>
   </cellStyles>
@@ -4419,37 +4445,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="71" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="68" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="69"/>
+      <c r="S1" s="70"/>
       <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
@@ -9712,37 +9738,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="71" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="68" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="69"/>
+      <c r="S1" s="70"/>
       <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
@@ -15057,37 +15083,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="38" customFormat="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="76" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="77" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="74" t="s">
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="75"/>
+      <c r="S1" s="76"/>
       <c r="AD1" s="64" t="s">
         <v>19</v>
       </c>
@@ -18597,10 +18623,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH724"/>
+  <dimension ref="A1:AH726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18627,37 +18653,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="71" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="68" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="69"/>
+      <c r="S1" s="70"/>
       <c r="AD1" s="23" t="s">
         <v>19</v>
       </c>
@@ -18756,10 +18782,10 @@
         <v>25</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O3" t="s">
         <v>277</v>
@@ -18780,7 +18806,7 @@
     <row r="4" spans="1:34">
       <c r="I4" s="8"/>
       <c r="N4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="O4" t="s">
         <v>278</v>
@@ -18910,271 +18936,271 @@
     <row r="10" spans="1:34">
       <c r="I10" s="8"/>
       <c r="N10" s="21" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="S10" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="I11" s="8"/>
       <c r="N11" s="21" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="S11" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="I12" s="8"/>
       <c r="N12" s="21" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>488</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>483</v>
+        <v>42</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="S12" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="I13" s="8"/>
       <c r="N13" s="21" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="S13" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="I14" s="8"/>
       <c r="N14" s="21" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="S14" s="46" t="s">
         <v>484</v>
-      </c>
-      <c r="R14" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="S14" s="46" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="I15" s="8"/>
       <c r="N15" s="21" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="S15" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="I16" s="8"/>
       <c r="N16" s="21" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>266</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="S16" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="9:19">
       <c r="I17" s="8"/>
       <c r="N17" s="21" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>267</v>
+        <v>561</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="S17" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="9:19">
       <c r="I18" s="8"/>
       <c r="N18" s="21" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>330</v>
+        <v>493</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="S18" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="9:19">
       <c r="I19" s="8"/>
       <c r="N19" s="21" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="S19" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="9:19">
       <c r="I20" s="8"/>
-      <c r="N20" t="s">
-        <v>505</v>
+      <c r="N20" s="21" t="s">
+        <v>527</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="R20" s="66" t="s">
-        <v>507</v>
-      </c>
-      <c r="S20" s="31" t="s">
-        <v>232</v>
+        <v>330</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="S20" s="46" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="9:19">
       <c r="I21" s="8"/>
-      <c r="N21" t="s">
-        <v>508</v>
+      <c r="N21" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="R21" s="66" t="s">
-        <v>513</v>
-      </c>
-      <c r="S21" s="31" t="s">
-        <v>232</v>
+        <v>275</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="S21" s="46" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="9:19">
       <c r="I22" s="8"/>
       <c r="N22" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>390</v>
+        <v>288</v>
       </c>
       <c r="R22" s="66" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="S22" s="31" t="s">
         <v>232</v>
@@ -19182,20 +19208,20 @@
     </row>
     <row r="23" spans="9:19">
       <c r="I23" s="8"/>
-      <c r="J23" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="K23" s="28">
-        <v>1472307</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="R23" t="s">
-        <v>504</v>
+      <c r="N23" t="s">
+        <v>506</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="R23" s="66" t="s">
+        <v>511</v>
       </c>
       <c r="S23" s="31" t="s">
         <v>232</v>
@@ -19203,20 +19229,20 @@
     </row>
     <row r="24" spans="9:19">
       <c r="I24" s="8"/>
-      <c r="J24" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="K24" s="28">
-        <v>1472358</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="R24" t="s">
-        <v>502</v>
+      <c r="N24" t="s">
+        <v>507</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="R24" s="66" t="s">
+        <v>512</v>
       </c>
       <c r="S24" s="31" t="s">
         <v>232</v>
@@ -19225,19 +19251,19 @@
     <row r="25" spans="9:19">
       <c r="I25" s="8"/>
       <c r="J25" s="28" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K25" s="28">
-        <v>1472359</v>
+        <v>1472307</v>
       </c>
       <c r="L25" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="S25" s="31" t="s">
         <v>232</v>
@@ -19246,13 +19272,13 @@
     <row r="26" spans="9:19">
       <c r="I26" s="8"/>
       <c r="J26" s="28" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K26" s="28">
-        <v>1472359</v>
+        <v>1472358</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M26" s="28" t="s">
         <v>42</v>
@@ -19267,19 +19293,19 @@
     <row r="27" spans="9:19">
       <c r="I27" s="8"/>
       <c r="J27" s="28" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K27" s="28">
-        <v>1472362</v>
+        <v>1472359</v>
       </c>
       <c r="L27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="28" t="s">
-        <v>42</v>
-      </c>
       <c r="R27" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="S27" s="31" t="s">
         <v>232</v>
@@ -19288,31 +19314,31 @@
     <row r="28" spans="9:19">
       <c r="I28" s="8"/>
       <c r="J28" s="28" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K28" s="28">
-        <v>1473246</v>
+        <v>1472359</v>
       </c>
       <c r="L28" s="28" t="s">
         <v>46</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s">
-        <v>123</v>
+        <v>498</v>
       </c>
       <c r="S28" s="31" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="9:19">
       <c r="I29" s="8"/>
       <c r="J29" s="28" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K29" s="28">
-        <v>1473247</v>
+        <v>1472362</v>
       </c>
       <c r="L29" s="28" t="s">
         <v>45</v>
@@ -19321,40 +19347,40 @@
         <v>42</v>
       </c>
       <c r="R29" t="s">
-        <v>129</v>
+        <v>501</v>
       </c>
       <c r="S29" s="31" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="9:19">
       <c r="I30" s="8"/>
       <c r="J30" s="28" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K30" s="28">
-        <v>1473329</v>
+        <v>1473246</v>
       </c>
       <c r="L30" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="28" t="s">
-        <v>42</v>
-      </c>
       <c r="R30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="S30" s="31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="9:19">
       <c r="I31" s="8"/>
-      <c r="J31" s="35" t="s">
-        <v>549</v>
+      <c r="J31" s="28" t="s">
+        <v>545</v>
       </c>
       <c r="K31" s="28">
-        <v>1673425</v>
+        <v>1473247</v>
       </c>
       <c r="L31" s="28" t="s">
         <v>45</v>
@@ -19363,49 +19389,49 @@
         <v>42</v>
       </c>
       <c r="R31" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="9:19">
       <c r="I32" s="8"/>
-      <c r="N32" t="s">
-        <v>515</v>
-      </c>
-      <c r="O32" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="P32" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q32" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="R32" s="66" t="s">
-        <v>517</v>
+      <c r="J32" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="K32" s="28">
+        <v>1473329</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" t="s">
+        <v>130</v>
       </c>
       <c r="S32" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="9:19">
       <c r="I33" s="8"/>
-      <c r="N33" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="O33" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="P33" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q33" s="21" t="s">
-        <v>283</v>
+      <c r="J33" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="K33" s="28">
+        <v>1673425</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="R33" t="s">
-        <v>486</v>
+        <v>95</v>
       </c>
       <c r="S33" s="31" t="s">
         <v>43</v>
@@ -19413,59 +19439,53 @@
     </row>
     <row r="34" spans="9:19">
       <c r="I34" s="8"/>
-      <c r="J34" s="80" t="s">
-        <v>550</v>
-      </c>
-      <c r="K34" s="67">
-        <v>2289248</v>
-      </c>
-      <c r="L34" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="M34" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="N34" t="s">
+        <v>513</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>276</v>
+      </c>
       <c r="R34" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="S34" s="46" t="s">
-        <v>36</v>
+        <v>515</v>
+      </c>
+      <c r="S34" s="31" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="9:19">
       <c r="I35" s="8"/>
-      <c r="J35" s="80" t="s">
-        <v>551</v>
-      </c>
-      <c r="K35" s="67">
-        <v>2289252</v>
-      </c>
-      <c r="L35" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="S35" s="46" t="s">
-        <v>36</v>
+      <c r="N35" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="R35" t="s">
+        <v>485</v>
+      </c>
+      <c r="S35" s="31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="9:19">
       <c r="I36" s="8"/>
-      <c r="J36" s="80" t="s">
-        <v>552</v>
+      <c r="J36" s="68" t="s">
+        <v>548</v>
       </c>
       <c r="K36" s="67">
-        <v>2289253</v>
+        <v>2289248</v>
       </c>
       <c r="L36" s="46" t="s">
         <v>46</v>
@@ -19477,7 +19497,7 @@
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S36" s="46" t="s">
         <v>36</v>
@@ -19485,24 +19505,23 @@
     </row>
     <row r="37" spans="9:19">
       <c r="I37" s="8"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" t="s">
-        <v>285</v>
-      </c>
-      <c r="O37" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="P37" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q37" s="21" t="s">
-        <v>275</v>
-      </c>
+      <c r="J37" s="68" t="s">
+        <v>549</v>
+      </c>
+      <c r="K37" s="67">
+        <v>2289252</v>
+      </c>
+      <c r="L37" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
       <c r="R37" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S37" s="46" t="s">
         <v>36</v>
@@ -19510,24 +19529,23 @@
     </row>
     <row r="38" spans="9:19">
       <c r="I38" s="8"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" t="s">
-        <v>363</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="P38" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q38" s="21" t="s">
-        <v>266</v>
-      </c>
+      <c r="J38" s="68" t="s">
+        <v>550</v>
+      </c>
+      <c r="K38" s="67">
+        <v>2289253</v>
+      </c>
+      <c r="L38" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
       <c r="R38" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="S38" s="46" t="s">
         <v>36</v>
@@ -19540,19 +19558,19 @@
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="21" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="R39" s="66" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S39" s="46" t="s">
         <v>36</v>
@@ -19565,19 +19583,19 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q40" s="21" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="R40" s="66" t="s">
-        <v>291</v>
+        <v>365</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>36</v>
@@ -19590,19 +19608,19 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="21" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="R41" s="66" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="S41" s="46" t="s">
         <v>36</v>
@@ -19615,19 +19633,19 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="Q42" s="21" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="R42" s="66" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S42" s="46" t="s">
         <v>36</v>
@@ -19640,19 +19658,19 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P43" s="21" t="s">
         <v>264</v>
       </c>
       <c r="Q43" s="21" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="R43" s="66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S43" s="46" t="s">
         <v>36</v>
@@ -19665,19 +19683,19 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P44" s="21" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="21" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="R44" s="66" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="S44" s="46" t="s">
         <v>36</v>
@@ -19690,19 +19708,19 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" t="s">
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P45" s="21" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="Q45" s="21" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="R45" s="66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S45" s="46" t="s">
         <v>36</v>
@@ -19715,19 +19733,19 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" t="s">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P46" s="21" t="s">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="21" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="R46" s="66" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="S46" s="46" t="s">
         <v>36</v>
@@ -19740,10 +19758,10 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P47" s="21" t="s">
         <v>41</v>
@@ -19752,7 +19770,7 @@
         <v>264</v>
       </c>
       <c r="R47" s="66" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="S47" s="46" t="s">
         <v>36</v>
@@ -19765,19 +19783,19 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="Q48" s="21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R48" s="66" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="S48" s="46" t="s">
         <v>36</v>
@@ -19790,19 +19808,19 @@
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
       <c r="N49" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P49" s="21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q49" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R49" s="66" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="S49" s="46" t="s">
         <v>36</v>
@@ -19815,19 +19833,19 @@
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
       <c r="N50" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P50" s="21" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="Q50" s="21" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="R50" s="66" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="S50" s="46" t="s">
         <v>36</v>
@@ -19840,19 +19858,19 @@
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
       <c r="N51" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P51" s="21" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="Q51" s="21" t="s">
-        <v>388</v>
+        <v>265</v>
       </c>
       <c r="R51" s="66" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="S51" s="46" t="s">
         <v>36</v>
@@ -19865,19 +19883,19 @@
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
       <c r="N52" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="Q52" s="21" t="s">
-        <v>390</v>
+        <v>42</v>
       </c>
       <c r="R52" s="66" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="S52" s="46" t="s">
         <v>36</v>
@@ -19890,19 +19908,19 @@
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
       <c r="N53" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="R53" s="66" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="S53" s="46" t="s">
         <v>36</v>
@@ -19915,19 +19933,19 @@
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
       <c r="N54" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P54" s="21" t="s">
         <v>309</v>
       </c>
       <c r="Q54" s="21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R54" s="66" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="S54" s="46" t="s">
         <v>36</v>
@@ -19940,19 +19958,19 @@
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
       <c r="N55" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="R55" s="66" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="S55" s="46" t="s">
         <v>36</v>
@@ -19965,19 +19983,19 @@
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
       <c r="N56" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="R56" s="66" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="S56" s="46" t="s">
         <v>36</v>
@@ -19990,19 +20008,19 @@
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" t="s">
-        <v>313</v>
+        <v>398</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q57" s="21" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="R57" s="66" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="S57" s="46" t="s">
         <v>36</v>
@@ -20015,19 +20033,19 @@
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P58" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q58" s="21" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
       <c r="R58" s="66" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="S58" s="46" t="s">
         <v>36</v>
@@ -20040,19 +20058,19 @@
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
       <c r="N59" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q59" s="21" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="R59" s="66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S59" s="46" t="s">
         <v>36</v>
@@ -20065,19 +20083,19 @@
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
       <c r="N60" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P60" s="21" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="Q60" s="21" t="s">
-        <v>410</v>
+        <v>267</v>
       </c>
       <c r="R60" s="66" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="S60" s="46" t="s">
         <v>36</v>
@@ -20090,173 +20108,171 @@
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
       <c r="N61" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="P61" s="21" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
       <c r="R61" s="66" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="S61" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="62" spans="4:19">
-      <c r="D62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="38"/>
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P62" s="21" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="Q62" s="21" t="s">
-        <v>299</v>
+        <v>410</v>
       </c>
       <c r="R62" s="66" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S62" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="63" spans="4:19">
-      <c r="D63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
       <c r="N63" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P63" s="21" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>267</v>
+        <v>412</v>
       </c>
       <c r="R63" s="66" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="S63" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="4:19">
+      <c r="D64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
       <c r="N64" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P64" s="21" t="s">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="Q64" s="21" t="s">
         <v>299</v>
       </c>
       <c r="R64" s="66" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="S64" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="4:19">
+      <c r="D65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="38"/>
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
       <c r="N65" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P65" s="21" t="s">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="Q65" s="21" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="R65" s="66" t="s">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="S65" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="66" spans="4:19">
-      <c r="D66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
       <c r="L66" s="38"/>
       <c r="M66" s="38"/>
       <c r="N66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P66" s="21" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="Q66" s="21" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="R66" s="66" t="s">
-        <v>421</v>
+        <v>326</v>
       </c>
       <c r="S66" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="67" spans="4:19">
-      <c r="D67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="38"/>
       <c r="K67" s="38"/>
       <c r="L67" s="38"/>
       <c r="M67" s="38"/>
       <c r="N67" t="s">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P67" s="21" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="Q67" s="21" t="s">
-        <v>423</v>
+        <v>328</v>
       </c>
       <c r="R67" s="66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="S67" s="46" t="s">
         <v>36</v>
@@ -20270,19 +20286,19 @@
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
       <c r="N68" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P68" s="21" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="Q68" s="21" t="s">
-        <v>426</v>
+        <v>331</v>
       </c>
       <c r="R68" s="66" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="S68" s="46" t="s">
         <v>36</v>
@@ -20296,19 +20312,19 @@
       <c r="L69" s="38"/>
       <c r="M69" s="38"/>
       <c r="N69" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P69" s="21" t="s">
-        <v>131</v>
+        <v>276</v>
       </c>
       <c r="Q69" s="21" t="s">
-        <v>309</v>
+        <v>423</v>
       </c>
       <c r="R69" s="66" t="s">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="S69" s="46" t="s">
         <v>36</v>
@@ -20322,69 +20338,71 @@
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
       <c r="N70" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="P70" s="21" t="s">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="Q70" s="21" t="s">
-        <v>299</v>
+        <v>426</v>
       </c>
       <c r="R70" s="66" t="s">
-        <v>336</v>
+        <v>457</v>
       </c>
       <c r="S70" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="71" spans="4:19">
+      <c r="D71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="38"/>
       <c r="K71" s="38"/>
       <c r="L71" s="38"/>
       <c r="M71" s="38"/>
       <c r="N71" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P71" s="21" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="R71" s="66" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="S71" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="72" spans="4:19">
+      <c r="D72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="38"/>
       <c r="K72" s="38"/>
       <c r="L72" s="38"/>
       <c r="M72" s="38"/>
       <c r="N72" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="R72" s="66" t="s">
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="S72" s="46" t="s">
         <v>36</v>
@@ -20397,19 +20415,19 @@
       <c r="L73" s="38"/>
       <c r="M73" s="38"/>
       <c r="N73" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P73" s="21" t="s">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="Q73" s="21" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="R73" s="66" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S73" s="46" t="s">
         <v>36</v>
@@ -20422,19 +20440,19 @@
       <c r="L74" s="38"/>
       <c r="M74" s="38"/>
       <c r="N74" t="s">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P74" s="21" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Q74" s="21" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="R74" s="66" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="S74" s="46" t="s">
         <v>36</v>
@@ -20447,19 +20465,19 @@
       <c r="L75" s="38"/>
       <c r="M75" s="38"/>
       <c r="N75" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P75" s="21" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q75" s="21" t="s">
-        <v>436</v>
+        <v>267</v>
       </c>
       <c r="R75" s="66" t="s">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="S75" s="46" t="s">
         <v>36</v>
@@ -20472,19 +20490,19 @@
       <c r="L76" s="38"/>
       <c r="M76" s="38"/>
       <c r="N76" t="s">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P76" s="21" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="Q76" s="21" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="R76" s="66" t="s">
-        <v>344</v>
+        <v>434</v>
       </c>
       <c r="S76" s="46" t="s">
         <v>36</v>
@@ -20497,19 +20515,19 @@
       <c r="L77" s="38"/>
       <c r="M77" s="38"/>
       <c r="N77" t="s">
-        <v>440</v>
+        <v>342</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P77" s="21" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="Q77" s="21" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="R77" s="66" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="S77" s="46" t="s">
         <v>36</v>
@@ -20522,19 +20540,19 @@
       <c r="L78" s="38"/>
       <c r="M78" s="38"/>
       <c r="N78" t="s">
-        <v>444</v>
+        <v>343</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P78" s="21" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="Q78" s="21" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="R78" s="66" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
       <c r="S78" s="46" t="s">
         <v>36</v>
@@ -20547,19 +20565,19 @@
       <c r="L79" s="38"/>
       <c r="M79" s="38"/>
       <c r="N79" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P79" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q79" s="21" t="s">
-        <v>346</v>
+        <v>441</v>
       </c>
       <c r="R79" s="66" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="S79" s="46" t="s">
         <v>36</v>
@@ -20572,19 +20590,19 @@
       <c r="L80" s="38"/>
       <c r="M80" s="38"/>
       <c r="N80" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P80" s="21" t="s">
-        <v>309</v>
+        <v>46</v>
       </c>
       <c r="Q80" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R80" s="66" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="S80" s="46" t="s">
         <v>36</v>
@@ -20597,19 +20615,19 @@
       <c r="L81" s="38"/>
       <c r="M81" s="38"/>
       <c r="N81" t="s">
-        <v>451</v>
+        <v>345</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="P81" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q81" s="21" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="R81" s="66" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="S81" s="46" t="s">
         <v>36</v>
@@ -20622,19 +20640,19 @@
       <c r="L82" s="38"/>
       <c r="M82" s="38"/>
       <c r="N82" t="s">
-        <v>347</v>
+        <v>448</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P82" s="21" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Q82" s="21" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="R82" s="66" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="S82" s="46" t="s">
         <v>36</v>
@@ -20647,19 +20665,19 @@
       <c r="L83" s="38"/>
       <c r="M83" s="38"/>
       <c r="N83" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P83" s="21" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="Q83" s="21" t="s">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="R83" s="66" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="S83" s="46" t="s">
         <v>36</v>
@@ -20672,19 +20690,19 @@
       <c r="L84" s="38"/>
       <c r="M84" s="38"/>
       <c r="N84" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P84" s="21" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="Q84" s="21" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="R84" s="66" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="S84" s="46" t="s">
         <v>36</v>
@@ -20697,77 +20715,73 @@
       <c r="L85" s="38"/>
       <c r="M85" s="38"/>
       <c r="N85" t="s">
-        <v>461</v>
+        <v>349</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P85" s="21" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="Q85" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R85" s="66" t="s">
-        <v>462</v>
+        <v>350</v>
       </c>
       <c r="S85" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="86" spans="4:20">
-      <c r="D86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="38"/>
       <c r="K86" s="38"/>
       <c r="L86" s="38"/>
       <c r="M86" s="38"/>
       <c r="N86" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P86" s="21" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="Q86" s="21" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="R86" s="66" t="s">
-        <v>354</v>
+        <v>460</v>
       </c>
       <c r="S86" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="T86" s="31"/>
     </row>
     <row r="87" spans="4:20">
-      <c r="D87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
       <c r="M87" s="38"/>
       <c r="N87" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="P87" s="21" t="s">
         <v>311</v>
       </c>
       <c r="Q87" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R87" s="66" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="S87" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="T87" s="31"/>
     </row>
     <row r="88" spans="4:20">
       <c r="D88" s="8"/>
@@ -20777,19 +20791,19 @@
       <c r="L88" s="38"/>
       <c r="M88" s="38"/>
       <c r="N88" t="s">
-        <v>466</v>
+        <v>353</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P88" s="21" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="Q88" s="21" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="R88" s="66" t="s">
-        <v>472</v>
+        <v>354</v>
       </c>
       <c r="S88" s="46" t="s">
         <v>36</v>
@@ -20804,19 +20818,19 @@
       <c r="L89" s="38"/>
       <c r="M89" s="38"/>
       <c r="N89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="P89" s="21" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="Q89" s="21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R89" s="66" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="S89" s="46" t="s">
         <v>36</v>
@@ -20831,10 +20845,10 @@
       <c r="L90" s="38"/>
       <c r="M90" s="38"/>
       <c r="N90" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P90" s="21" t="s">
         <v>42</v>
@@ -20843,7 +20857,7 @@
         <v>267</v>
       </c>
       <c r="R90" s="66" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="S90" s="46" t="s">
         <v>36</v>
@@ -20858,48 +20872,51 @@
       <c r="L91" s="38"/>
       <c r="M91" s="38"/>
       <c r="N91" t="s">
-        <v>355</v>
+        <v>467</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P91" s="21" t="s">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="Q91" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="R91" s="66" t="s">
-        <v>356</v>
+        <v>474</v>
       </c>
       <c r="S91" s="46" t="s">
         <v>36</v>
       </c>
+      <c r="T91" s="31"/>
     </row>
     <row r="92" spans="4:20">
+      <c r="D92" s="8"/>
       <c r="I92" s="8"/>
       <c r="J92" s="38"/>
       <c r="K92" s="38"/>
       <c r="L92" s="38"/>
       <c r="M92" s="38"/>
       <c r="N92" t="s">
-        <v>357</v>
+        <v>468</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P92" s="21" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="Q92" s="21" t="s">
-        <v>478</v>
+        <v>267</v>
       </c>
       <c r="R92" s="66" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
       <c r="S92" s="46" t="s">
         <v>36</v>
       </c>
+      <c r="T92" s="31"/>
     </row>
     <row r="93" spans="4:20">
       <c r="D93" s="8"/>
@@ -20909,106 +20926,114 @@
       <c r="L93" s="38"/>
       <c r="M93" s="38"/>
       <c r="N93" t="s">
-        <v>480</v>
+        <v>355</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P93" s="21" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q93" s="21" t="s">
-        <v>436</v>
+        <v>267</v>
       </c>
       <c r="R93" s="66" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="S93" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="T93" s="31"/>
     </row>
     <row r="94" spans="4:20">
       <c r="I94" s="8"/>
-      <c r="J94" s="35" t="s">
-        <v>553</v>
-      </c>
-      <c r="K94" s="36">
-        <v>2715342</v>
-      </c>
-      <c r="L94" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M94" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R94" t="s">
-        <v>89</v>
-      </c>
-      <c r="S94" s="31" t="s">
-        <v>49</v>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" t="s">
+        <v>357</v>
+      </c>
+      <c r="O94" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="P94" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q94" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="R94" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="S94" s="46" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="4:20">
       <c r="D95" s="8"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="35" t="s">
-        <v>554</v>
-      </c>
-      <c r="K95" s="36">
-        <v>2715344</v>
-      </c>
-      <c r="L95" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="M95" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="R95" t="s">
-        <v>90</v>
-      </c>
-      <c r="S95" s="31" t="s">
-        <v>49</v>
-      </c>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" t="s">
+        <v>480</v>
+      </c>
+      <c r="O95" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="P95" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q95" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="R95" s="66" t="s">
+        <v>482</v>
+      </c>
+      <c r="S95" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T95" s="31"/>
     </row>
     <row r="96" spans="4:20">
-      <c r="D96" s="8"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="37" t="s">
-        <v>555</v>
+      <c r="I96" s="8"/>
+      <c r="J96" s="35" t="s">
+        <v>551</v>
       </c>
       <c r="K96" s="36">
-        <v>2715346</v>
+        <v>2715342</v>
       </c>
       <c r="L96" s="36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M96" s="36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R96" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S96" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:32">
+      <c r="D97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="35" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K97" s="36">
-        <v>2715369</v>
+        <v>2715344</v>
       </c>
       <c r="L97" s="36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M97" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="R97" s="22" t="s">
-        <v>93</v>
+      <c r="R97" t="s">
+        <v>90</v>
       </c>
       <c r="S97" s="31" t="s">
         <v>49</v>
@@ -21016,67 +21041,102 @@
     </row>
     <row r="98" spans="1:32">
       <c r="D98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="S98" s="31"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="K98" s="36">
+        <v>2715346</v>
+      </c>
+      <c r="L98" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M98" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="R98" t="s">
+        <v>91</v>
+      </c>
+      <c r="S98" s="31" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="99" spans="1:32">
       <c r="I99" s="8"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="31"/>
-      <c r="AD99" s="6"/>
-      <c r="AE99" s="7"/>
-      <c r="AF99" s="5"/>
+      <c r="J99" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="K99" s="36">
+        <v>2715369</v>
+      </c>
+      <c r="L99" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M99" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="R99" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="S99" s="31" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="100" spans="1:32">
-      <c r="A100" s="16"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="32"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5"/>
-      <c r="V100" s="5"/>
-      <c r="W100" s="5"/>
-      <c r="X100" s="5"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
-      <c r="AB100" s="5"/>
-      <c r="AC100" s="5"/>
-      <c r="AD100" s="6"/>
-      <c r="AE100" s="7"/>
-      <c r="AF100" s="5"/>
+      <c r="D100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="S100" s="31"/>
     </row>
     <row r="101" spans="1:32">
       <c r="I101" s="8"/>
       <c r="R101" s="5"/>
       <c r="S101" s="31"/>
+      <c r="AD101" s="6"/>
+      <c r="AE101" s="7"/>
+      <c r="AF101" s="5"/>
     </row>
     <row r="102" spans="1:32">
-      <c r="I102" s="8"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
-      <c r="S102" s="31"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="6"/>
+      <c r="AE102" s="7"/>
+      <c r="AF102" s="5"/>
     </row>
     <row r="103" spans="1:32">
       <c r="I103" s="8"/>
+      <c r="R103" s="5"/>
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:32">
       <c r="I104" s="8"/>
+      <c r="R104" s="5"/>
       <c r="S104" s="31"/>
     </row>
     <row r="105" spans="1:32">
@@ -21084,18 +21144,18 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:32">
-      <c r="D106" s="8"/>
       <c r="I106" s="8"/>
       <c r="S106" s="31"/>
-      <c r="T106" s="31"/>
     </row>
     <row r="107" spans="1:32">
       <c r="I107" s="8"/>
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:32">
+      <c r="D108" s="8"/>
       <c r="I108" s="8"/>
       <c r="S108" s="31"/>
+      <c r="T108" s="31"/>
     </row>
     <row r="109" spans="1:32">
       <c r="I109" s="8"/>
@@ -21130,26 +21190,26 @@
       <c r="S116" s="31"/>
     </row>
     <row r="117" spans="4:19">
-      <c r="D117" s="8"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="29"/>
-      <c r="S117" s="32"/>
+      <c r="I117" s="8"/>
+      <c r="S117" s="31"/>
     </row>
     <row r="118" spans="4:19">
       <c r="I118" s="8"/>
-      <c r="R118" s="22"/>
-      <c r="S118" s="33"/>
+      <c r="S118" s="31"/>
     </row>
     <row r="119" spans="4:19">
       <c r="D119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="S119" s="31"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="29"/>
+      <c r="S119" s="32"/>
     </row>
     <row r="120" spans="4:19">
       <c r="I120" s="8"/>
-      <c r="S120" s="31"/>
+      <c r="R120" s="22"/>
+      <c r="S120" s="33"/>
     </row>
     <row r="121" spans="4:19">
+      <c r="D121" s="8"/>
       <c r="I121" s="8"/>
       <c r="S121" s="31"/>
     </row>
@@ -21182,12 +21242,10 @@
       <c r="S128" s="31"/>
     </row>
     <row r="129" spans="4:19">
-      <c r="D129" s="8"/>
       <c r="I129" s="8"/>
       <c r="S129" s="31"/>
     </row>
     <row r="130" spans="4:19">
-      <c r="D130" s="8"/>
       <c r="I130" s="8"/>
       <c r="S130" s="31"/>
     </row>
@@ -21202,76 +21260,76 @@
       <c r="S132" s="31"/>
     </row>
     <row r="133" spans="4:19">
+      <c r="D133" s="8"/>
       <c r="I133" s="8"/>
-      <c r="S133" s="34"/>
+      <c r="S133" s="31"/>
     </row>
     <row r="134" spans="4:19">
+      <c r="D134" s="8"/>
       <c r="I134" s="8"/>
-      <c r="S134" s="34"/>
+      <c r="S134" s="31"/>
     </row>
     <row r="135" spans="4:19">
       <c r="I135" s="8"/>
-      <c r="S135" s="32"/>
+      <c r="S135" s="34"/>
     </row>
     <row r="136" spans="4:19">
       <c r="I136" s="8"/>
-      <c r="S136" s="31"/>
+      <c r="S136" s="34"/>
     </row>
     <row r="137" spans="4:19">
       <c r="I137" s="8"/>
-      <c r="S137" s="31"/>
+      <c r="S137" s="32"/>
     </row>
     <row r="138" spans="4:19">
       <c r="I138" s="8"/>
-      <c r="S138" s="32"/>
+      <c r="S138" s="31"/>
     </row>
     <row r="139" spans="4:19">
       <c r="I139" s="8"/>
-      <c r="S139" s="32"/>
+      <c r="S139" s="31"/>
     </row>
     <row r="140" spans="4:19">
       <c r="I140" s="8"/>
       <c r="S140" s="32"/>
     </row>
     <row r="141" spans="4:19">
-      <c r="R141" s="22"/>
-      <c r="S141" s="33"/>
+      <c r="I141" s="8"/>
+      <c r="S141" s="32"/>
     </row>
     <row r="142" spans="4:19">
-      <c r="R142" s="22"/>
-      <c r="S142" s="33"/>
+      <c r="I142" s="8"/>
+      <c r="S142" s="32"/>
     </row>
     <row r="143" spans="4:19">
-      <c r="D143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="S143" s="34"/>
+      <c r="R143" s="22"/>
+      <c r="S143" s="33"/>
     </row>
     <row r="144" spans="4:19">
-      <c r="D144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="S144" s="34"/>
+      <c r="R144" s="22"/>
+      <c r="S144" s="33"/>
     </row>
     <row r="145" spans="4:19">
       <c r="D145" s="8"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="29"/>
-      <c r="S145" s="32"/>
+      <c r="I145" s="8"/>
+      <c r="S145" s="34"/>
     </row>
     <row r="146" spans="4:19">
       <c r="D146" s="8"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="29"/>
-      <c r="S146" s="32"/>
+      <c r="I146" s="8"/>
+      <c r="S146" s="34"/>
     </row>
     <row r="147" spans="4:19">
       <c r="D147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="S147" s="31"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="29"/>
+      <c r="S147" s="32"/>
     </row>
     <row r="148" spans="4:19">
       <c r="D148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="S148" s="31"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="29"/>
+      <c r="S148" s="32"/>
     </row>
     <row r="149" spans="4:19">
       <c r="D149" s="8"/>
@@ -21284,10 +21342,12 @@
       <c r="S150" s="31"/>
     </row>
     <row r="151" spans="4:19">
+      <c r="D151" s="8"/>
       <c r="I151" s="8"/>
       <c r="S151" s="31"/>
     </row>
     <row r="152" spans="4:19">
+      <c r="D152" s="8"/>
       <c r="I152" s="8"/>
       <c r="S152" s="31"/>
     </row>
@@ -21305,12 +21365,10 @@
     </row>
     <row r="156" spans="4:19">
       <c r="I156" s="8"/>
-      <c r="R156" s="11"/>
       <c r="S156" s="31"/>
     </row>
     <row r="157" spans="4:19">
       <c r="I157" s="8"/>
-      <c r="R157" s="11"/>
       <c r="S157" s="31"/>
     </row>
     <row r="158" spans="4:19">
@@ -21329,33 +21387,33 @@
       <c r="S160" s="31"/>
     </row>
     <row r="161" spans="4:20">
-      <c r="D161" s="8"/>
       <c r="I161" s="8"/>
+      <c r="R161" s="11"/>
       <c r="S161" s="31"/>
     </row>
     <row r="162" spans="4:20">
-      <c r="D162" s="8"/>
       <c r="I162" s="8"/>
+      <c r="R162" s="11"/>
       <c r="S162" s="31"/>
     </row>
     <row r="163" spans="4:20">
+      <c r="D163" s="8"/>
       <c r="I163" s="8"/>
-      <c r="R163" s="12"/>
       <c r="S163" s="31"/>
     </row>
     <row r="164" spans="4:20">
+      <c r="D164" s="8"/>
       <c r="I164" s="8"/>
-      <c r="R164" s="12"/>
       <c r="S164" s="31"/>
     </row>
     <row r="165" spans="4:20">
-      <c r="D165" s="8"/>
       <c r="I165" s="8"/>
+      <c r="R165" s="12"/>
       <c r="S165" s="31"/>
     </row>
     <row r="166" spans="4:20">
-      <c r="D166" s="8"/>
       <c r="I166" s="8"/>
+      <c r="R166" s="12"/>
       <c r="S166" s="31"/>
     </row>
     <row r="167" spans="4:20">
@@ -21377,7 +21435,6 @@
       <c r="D170" s="8"/>
       <c r="I170" s="8"/>
       <c r="S170" s="31"/>
-      <c r="T170" s="14"/>
     </row>
     <row r="171" spans="4:20">
       <c r="D171" s="8"/>
@@ -21387,15 +21444,18 @@
     <row r="172" spans="4:20">
       <c r="D172" s="8"/>
       <c r="I172" s="8"/>
-      <c r="R172" s="21"/>
       <c r="S172" s="31"/>
+      <c r="T172" s="14"/>
     </row>
     <row r="173" spans="4:20">
+      <c r="D173" s="8"/>
       <c r="I173" s="8"/>
       <c r="S173" s="31"/>
     </row>
     <row r="174" spans="4:20">
+      <c r="D174" s="8"/>
       <c r="I174" s="8"/>
+      <c r="R174" s="21"/>
       <c r="S174" s="31"/>
     </row>
     <row r="175" spans="4:20">
@@ -21432,83 +21492,85 @@
     </row>
     <row r="183" spans="1:32">
       <c r="I183" s="8"/>
-      <c r="R183" s="22"/>
       <c r="S183" s="31"/>
     </row>
     <row r="184" spans="1:32">
-      <c r="D184" s="8"/>
       <c r="I184" s="8"/>
       <c r="S184" s="31"/>
     </row>
-    <row r="185" spans="1:32" s="13" customFormat="1">
-      <c r="A185"/>
-      <c r="B185"/>
-      <c r="C185"/>
-      <c r="D185"/>
-      <c r="E185"/>
-      <c r="F185"/>
-      <c r="G185"/>
-      <c r="H185"/>
-      <c r="I185"/>
-      <c r="J185" s="28"/>
-      <c r="K185" s="28"/>
-      <c r="L185" s="28"/>
-      <c r="M185" s="28"/>
-      <c r="N185"/>
-      <c r="O185"/>
-      <c r="P185"/>
-      <c r="Q185"/>
-      <c r="R185"/>
+    <row r="185" spans="1:32">
+      <c r="I185" s="8"/>
+      <c r="R185" s="22"/>
       <c r="S185" s="31"/>
-      <c r="T185"/>
-      <c r="U185"/>
-      <c r="V185"/>
-      <c r="W185"/>
-      <c r="X185"/>
-      <c r="Y185"/>
-      <c r="Z185"/>
-      <c r="AA185"/>
-      <c r="AB185"/>
-      <c r="AC185"/>
-      <c r="AD185"/>
-      <c r="AE185"/>
-      <c r="AF185"/>
     </row>
     <row r="186" spans="1:32">
+      <c r="D186" s="8"/>
+      <c r="I186" s="8"/>
       <c r="S186" s="31"/>
     </row>
-    <row r="187" spans="1:32">
-      <c r="I187" s="8"/>
-      <c r="R187" s="21"/>
+    <row r="187" spans="1:32" s="13" customFormat="1">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="H187"/>
+      <c r="I187"/>
+      <c r="J187" s="28"/>
+      <c r="K187" s="28"/>
+      <c r="L187" s="28"/>
+      <c r="M187" s="28"/>
+      <c r="N187"/>
+      <c r="O187"/>
+      <c r="P187"/>
+      <c r="Q187"/>
+      <c r="R187"/>
       <c r="S187" s="31"/>
+      <c r="T187"/>
+      <c r="U187"/>
+      <c r="V187"/>
+      <c r="W187"/>
+      <c r="X187"/>
+      <c r="Y187"/>
+      <c r="Z187"/>
+      <c r="AA187"/>
+      <c r="AB187"/>
+      <c r="AC187"/>
+      <c r="AD187"/>
+      <c r="AE187"/>
+      <c r="AF187"/>
     </row>
     <row r="188" spans="1:32">
-      <c r="D188" s="8"/>
       <c r="S188" s="31"/>
     </row>
     <row r="189" spans="1:32">
+      <c r="I189" s="8"/>
+      <c r="R189" s="21"/>
       <c r="S189" s="31"/>
     </row>
     <row r="190" spans="1:32">
+      <c r="D190" s="8"/>
       <c r="S190" s="31"/>
     </row>
     <row r="191" spans="1:32">
-      <c r="D191" s="8"/>
-      <c r="I191" s="8"/>
       <c r="S191" s="31"/>
     </row>
     <row r="192" spans="1:32">
-      <c r="I192" s="8"/>
       <c r="S192" s="31"/>
     </row>
     <row r="193" spans="4:19">
       <c r="D193" s="8"/>
+      <c r="I193" s="8"/>
       <c r="S193" s="31"/>
     </row>
     <row r="194" spans="4:19">
+      <c r="I194" s="8"/>
       <c r="S194" s="31"/>
     </row>
     <row r="195" spans="4:19">
+      <c r="D195" s="8"/>
       <c r="S195" s="31"/>
     </row>
     <row r="196" spans="4:19">
@@ -21551,17 +21613,9 @@
       <c r="S208" s="31"/>
     </row>
     <row r="209" spans="10:19">
-      <c r="J209"/>
-      <c r="K209"/>
-      <c r="L209"/>
-      <c r="M209"/>
       <c r="S209" s="31"/>
     </row>
     <row r="210" spans="10:19">
-      <c r="J210"/>
-      <c r="K210"/>
-      <c r="L210"/>
-      <c r="M210"/>
       <c r="S210" s="31"/>
     </row>
     <row r="211" spans="10:19">
@@ -25161,6 +25215,20 @@
       <c r="L724"/>
       <c r="M724"/>
       <c r="S724" s="31"/>
+    </row>
+    <row r="725" spans="10:19">
+      <c r="J725"/>
+      <c r="K725"/>
+      <c r="L725"/>
+      <c r="M725"/>
+      <c r="S725" s="31"/>
+    </row>
+    <row r="726" spans="10:19">
+      <c r="J726"/>
+      <c r="K726"/>
+      <c r="L726"/>
+      <c r="M726"/>
+      <c r="S726" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -25175,10 +25243,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
       <formula1>$AD$1:$AH$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C319 C3:C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C321">
       <formula1>$AD$2:$AG$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33:B319 B5:B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B321">
       <formula1>$AD$1:$AG$1</formula1>
     </dataValidation>
   </dataValidations>
